--- a/netflix_items.xlsx
+++ b/netflix_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
   <si>
     <t>title</t>
   </si>
@@ -38,13 +38,22 @@
     <t>starring</t>
   </si>
   <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>episodes</t>
+  </si>
+  <si>
+    <t>IMDB.id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>cast</t>
   </si>
   <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>episodes</t>
+    <t>IMDB id</t>
   </si>
   <si>
     <t>60037627</t>
@@ -62,6 +71,42 @@
     <t>70177083</t>
   </si>
   <si>
+    <t>80144588</t>
+  </si>
+  <si>
+    <t>80037759</t>
+  </si>
+  <si>
+    <t>70184207</t>
+  </si>
+  <si>
+    <t>80025384</t>
+  </si>
+  <si>
+    <t>80000770</t>
+  </si>
+  <si>
+    <t>80107369</t>
+  </si>
+  <si>
+    <t>80097003</t>
+  </si>
+  <si>
+    <t>70052705</t>
+  </si>
+  <si>
+    <t>80091741</t>
+  </si>
+  <si>
+    <t>80117470</t>
+  </si>
+  <si>
+    <t>80053653</t>
+  </si>
+  <si>
+    <t>939827</t>
+  </si>
+  <si>
     <t>The Manchurian Candidate</t>
   </si>
   <si>
@@ -77,6 +122,39 @@
     <t>Blue Bloods</t>
   </si>
   <si>
+    <t>Women Behind Bars</t>
+  </si>
+  <si>
+    <t>Dope</t>
+  </si>
+  <si>
+    <t>Shameless (U.S.)</t>
+  </si>
+  <si>
+    <t>Unbreakable Kimmy Schmidt</t>
+  </si>
+  <si>
+    <t>Making a Murderer</t>
+  </si>
+  <si>
+    <t>Queen of the South</t>
+  </si>
+  <si>
+    <t>Burning Sands</t>
+  </si>
+  <si>
+    <t>The Queen</t>
+  </si>
+  <si>
+    <t>13TH</t>
+  </si>
+  <si>
+    <t>13 Reasons Why</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
@@ -89,6 +167,18 @@
     <t>2017</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -101,6 +191,9 @@
     <t>TV-14</t>
   </si>
   <si>
+    <t>PG-13</t>
+  </si>
+  <si>
     <t>2h 9m</t>
   </si>
   <si>
@@ -116,19 +209,124 @@
     <t>43m, 43m, 43m, 43m, 43m, 43m, 44m, 43m, 42m, 43m, 43m, 43m, 41m, 43m, 42m, 43m, 43m, 43m, 41m, 43m, 43m, 44m, 44m, 43m, 42m, 42m, 43m, 41m, 42m, 44m, 42m, 42m, 40m, 44m, 43m, 44m, 41m, 42m, 43m, 42m, 41m, 42m, 42m, 43m, 41m, 43m, 43m, 42m, 40m, 41m, 43m, 44m, 43m, 40m, 42m, 42m, 42m, 43m, 43m, 41m, 43m, 44m, 42m, 43m, 43m, 40m, 41m, 44m, 44m, 41m, 42m, 42m, 43m, 43m, 42m, 42m, 41m, 43m, 44m, 43m, 42m, 43m, 40m, 43m, 43m, 44m, 42m, 42m, 43m, 43m, 43m, 41m, 44m, 42m, 42m, 42m, 41m, 43m, 42m, 43m, 43m, 42m, 44m, 43m, 40m, 41m, 43m, 42m, 42m, 43m, 43m, 41m, 43m, 41m, 43m, 43m, 44m, 43m, 43m, 40m, 40m, 43m, 42m, 43m, 41m, 43m, 42m, 42m, 40m, 42m, 41m, 43m, 41m, 43m, 41m, 40m, 40m, 41m, 43m, 43m, 43m, 42m, 40m, 40m, 40m, 41m, 40m, 41m, 42m, 41m, 40m, 43m, 41m, 40m, 42m</t>
   </si>
   <si>
-    <t>Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate.</t>
-  </si>
-  <si>
-    <t>A Polynesian girl destined to be her island's chief makes a perilous trip with a boastful demigod to undo his mistake and save her people.</t>
-  </si>
-  <si>
-    <t>This Sundance prize-winning documentary is an intimate portrait of 1980s Harlem drag balls: a world of fierce competition, sustenance, and survival.</t>
-  </si>
-  <si>
-    <t>Release Year: 2016As a young Elizabeth becomes Queen, she must manage major political issues and personal matters, which often clash in ways she never imagined.1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister., Release Year: 2016As a young Elizabeth becomes Queen, she must manage major political issues and personal matters, which often clash in ways she never imagined.1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister., Release Year: 2016, 1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister.</t>
-  </si>
-  <si>
-    <t>Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2015Frank is alerted to a terrorist threat, Danny pursues a taunting serial killer, Erin considers a judgeship, and Jamie is accused of police brutality.1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2015, 1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2016In Season 7, Frank deals with a series of crises that could damage the NYPD, while Danny handles several cases that cross international borders.1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer., Release Year: 2016, 1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer.</t>
+    <t>43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m</t>
+  </si>
+  <si>
+    <t>1h 42m</t>
+  </si>
+  <si>
+    <t>57m, 56m, 52m, 46m, 45m, 51m, 45m, 48m, 51m, 48m, 46m, 51m, 53m, 52m, 48m, 54m, 53m, 54m, 49m, 55m, 52m, 54m, 50m, 56m, 59m, 55m, 53m, 51m, 56m, 54m, 52m, 54m, 56m, 51m, 53m, 56m, 56m, 49m, 55m, 57m, 52m, 56m, 51m, 56m, 54m, 51m, 49m, 58m, 54m, 53m, 52m, 52m, 50m, 57m, 50m, 51m, 58m, 53m, 54m, 58m, 57m, 55m, 53m, 58m, 56m, 54m, 53m, 57m, 54m, 49m, 50m, 56m, 55m, 50m, 55m, 56m, 53m, 58m, 54m, 54m, 53m, 55m, 56m, 60m</t>
+  </si>
+  <si>
+    <t>25m, 24m, 25m, 24m, 24m, 24m, 26m, 26m, 27m, 29m, 26m, 27m, 28m, 29m, 32m, 30m, 30m, 33m, 30m, 31m, 29m, 30m, 30m, 31m, 34m, 37m, 30m, 31m, 32m, 33m, 31m, 31m, 29m, 32m, 32m, 34m, 33m, 32m, 33m</t>
+  </si>
+  <si>
+    <t>65m, 57m, 63m, 67m, 59m, 60m, 64m, 47m, 67m, 64m</t>
+  </si>
+  <si>
+    <t>45m, 39m, 40m, 40m, 40m, 40m, 40m, 40m, 41m, 42m, 40m, 39m, 39m</t>
+  </si>
+  <si>
+    <t>1h 43m</t>
+  </si>
+  <si>
+    <t>1h 40m</t>
+  </si>
+  <si>
+    <t>53m, 52m, 57m, 57m, 59m, 52m, 54m, 54m, 59m, 50m, 55m, 62m, 60m</t>
+  </si>
+  <si>
+    <t>44m, 39m, 39m, 39m, 41m, 40m, 40m, 40m, 40m, 41m, 43m, 40m, 40m, 41m, 41m, 41m, 40m, 40m, 40m, 41m, 38m, 40m, 81m</t>
+  </si>
+  <si>
+    <t>1h 51m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate. 
+This is a remake of the 1962 thriller of soldiers, returning from war, who have been brainwashed and programmed to kill. The movie has been updated from the Korean War era to the war in Iraq (Desert Storm). Captain Bennett Marco (Denzel Washington) is now playing Frank Sinatra's part. Time has passed, and now Major Marco is giving speeches about his platoon being ambushed in the Kuwaiti desert. The Lost Platoon was saved by the heroics of Sergeant Raymond Prentiss Shaw (Liev Schreiber), who received the Medal of Honor. Shaw is now a candidate, running for Vice-President of the United States. Marco can't sleep at night, and when he does, he is having nightmares of what really happened in the desert. He thinks Shaw might not be a hero, and that he may have had something to do with the death of two soldiers in the desert. Marco tries to find the truth and people around him begin to die.Douglas Young (the-movie-guy)
+</t>
+  </si>
+  <si>
+    <t>A Polynesian girl destined to be her island's chief makes a perilous trip with a boastful demigod to undo his mistake and save her people. 
+Gramma Tala (voice: Rachel House) is telling a story to a group of children, with an animated tapa cloth illustrating her words. From the ocean sprang the island goddess Te Fiti. She lay on her side, with her curves becoming mountains and valleys. And in the center was her heart, a stone with a spiral shape on one side, giving out the force of life. Men began to covet her heart, wanting its life-giving power for themselves. A boat carrying the demigod Maui (voice: Dwayne Johnson) sailed toward the island, and he jumped off and magically transformed into a hawk. He landed on the island and changed again into a lizard to make his way through the forest. Reaching a row of large rocks, he became a bug and squeezed between them. When he reached the heart, he turned back into a man, and he used his large fish hook to pry out the heart.Without her heart, the island of Te Fiti began to crumble. Maui ran to the edge of the island, jumped off a cliff and changed into a hawk in midair, then flew back to his boat. He tried to escape, but a lava monster named Te Ka, who also wanted the heart, arose from the sea into a volcano and started to erupt. Maui grabbed his hook and jumped at Te Ka. There was a blinding flash, and Maui was struck from the sky. Maui, the hook and the heart were lost at sea.A thousand years later, Te Ka still lurks, draining fish from the ocean and swallowing up one island after another until there will be none left. But, Gramma Tala says, one day a hero will journey beyond the reef, find Maui and sail with him across the ocean to restore the heart and save everyone. One little girl is spellbound, but the other children are terrified. Before Tala can continue, Chief Tui (voice: Temuera Morrison) reminds the children of the most important rule of the island, the one that keeps them safe: nobody goes beyond the reef.The spellbound girl, the toddler Moana (voice: Louise Bush), slips away and walks to the beach. She sees a baby turtle being menaced by a group of seabirds and she escorts it into the ocean, shading it with a leaf and shooing the birds away. When the turtle is safe, the ocean recedes, revealing a trail of beautiful seashells, which Moana gathers in her tiny arms. A wave forms over her head and magically stays in place. She pokes the wave with her finger and water drips down on her. The wave comes down over her hair and gives her a silly hairstyle. Moana plays with the wave some more, and then the ocean parts, making a canyon that she walks through. She sees a shiny object, and the ocean brings it closer. It's a glowing green stone with an interesting spiral shape.She picks up the stone and, just then, her father, Chief Tui, calls out to her. The ocean lifts her and deposits her back on the shore. Her father races over and picks her up, causing her to drop the stone. Before she can see where it went, her father pulls her close and tells her never to go into the ocean again. He takes her back to the village where her mother, Sina (voice: Nicole Scherzinger), is waiting for them. She tells Moana that she will do wondrous things as the next chief of the island but Tui tells her that she must learn where she's meant to be.Growing up, Moana learns everything about life on her island, Motunui (song: "Where You Are"). She finds herself drawn to the ocean but, every time she goes near it, her parents drag her back, away from the water. She never even learns to sail. Gramma Tala encourages Moana to follow her heart and listen to the voice inside, to figure out who she really is. One day, Chief Tui leads the now sixteen-year-old Moana (voice: Auli'i Cravalho) up to the peak of the tallest mountain. He shows her a tall pile of stones and tells her that one day, she will place her stone on the pile, just as he and the chiefs before him did.Moana makes her rounds of the island, giving advice to everyone who asks. When a man points out the rooster Heihei (voice: Alan Tudyk) dumbly pecking at a rock, Moana tells him that sometimes strength is hidden beneath the surface. A fisherman walks up to her and tells her that there are fewer fish every day. She suggests fishing in different areas but they have already tried that. She tells him that they should try fishing beyond the reef but Tui reminds her of the rule. The men walk away, leaving Moana alone. Sina walks up to her and explains that once, Tui went sailing beyond the reef with a friend and ran into giant waves. Tui was unable to save his friend and he doesn't want to lose Moana the same way. Sina tells her she must make her own choices, however hard they are.Moana climbs the peak, preparing to add her stone to the pile. She sees the sun reflect off the ocean and she realizes that she can't ignore the call of the water any more (song: "How Far I'll Go"). She drops her stone and runs down to the sea. She takes her pet pig, Pua, on a boat and casts off. She feels excitement as a wave picks her up but then the wind changes and the boom swings toward her and just misses her head. She feels relief but another wave hits the boat, knocking Pua overboard. A third wave hits, knocking her off as well and breaking the boat. She hits the surface with Pua in her arms but waves continue to hit the broken boat, driving it into her head and pushing her underwater. She gets her foot trapped in coral, unable to break free. She grabs a rock and smashes the coral then swims back to the surface. The waves push her and Pua back to the shore. The boat comes back in pieces and Moana knows she'll be in trouble for what she did. Gramma Tala walks up to her and Moana says that Tui was right about going out there. She tells Tala that she's going to put her stone on the pile. Tala sees a school of manta rays swim up and says that when she dies, she's going to come back as one of them. Desperate for advice, Moana asks Tala if there's anything she wants to tell her and Tala asks her if there's anything she wants to hear. Tala walks off and Moana decides to follow her, knowing that she would tell a good story.Carrying a torch, Tala leads Moana into a cavern. Tala tells her to go inside and bang the drum to get the answers she's looking for. Moana carefully makes her way into the dark cavern, finding dozens of boats--outrigger sailing canoes. She jumps onto a canoe and sees a log drum. Picking up a pair of sticks next to it, she bangs on the drum, causing torches to magically light up, illuminating the tapa sail. She sees an image of her ancestors, voyagers who fearlessly sailed the ocean, finding new homes whenever they needed to (song: "We Know the Way"). She asks Tala why they ever stopped voyaging and Tala tells her about Maui. After he stole the heart, the ships that sailed out never came back. And Te Ka has been chasing away the fish, draining life from one island after another. She repeats what she told Moana as a child, that one day someone will restore the heart and save everyone. Then, she presses a green stone into Moana's hand. Moana recognizes it as the same stone the ocean lead her to years before. Tala points to a hook-shaped constellation and tells her that Maui can be found at the bottom of his hook.Tui is talking to the island council, trying to reassure them that they won't run out of food, when Moana bursts in and tells him that she can restore the heart of Te Fiti. Angrily, he grabs the green stone from her hand and throws it into the bushes. She runs to get it and finds Gramma Tala's walking stick as well. A warrior runs up and tells them that Tala is not well. Moana and Tui run toward her hut. Tala whispers in Moana's ear that she must leave now and then hands her the necklace that her voyager ancestors wore. Moana puts the heart of Te Fiti in the necklace and makes up her mind to leave. Grabbing supplies, she heads to the cavern and boards one of the canoes. As she sails off, she sees the light in Tala's hut go out. She sees the glow of a manta ray passing by, illuminating a safe passage. It looks just like her grandmother's manta ray tattoo. Reaching the ocean, Moana sets a course for Maui.Moana paddles the boat through the night and day. A clucking noise leads her to find Heihei in the cargo hold. As night falls, she starts to fall asleep and when a wave shocks her awake, she looks at the sky, unable to find the hook constellation. She sees that it's now behind her and tries to turn the boat around, but the wind pushes it over, dumping her into the water. She swims back to the boat and tries to right it, but the waves get worse. A large wave crashes down on her and everything goes black.When she opens her eyes, she finds herself on a shore. Feeling for her necklace, she is relieved to find the heart is still there. She sees Heihei pecking at a rock and notices that it has a hook design on it. Following a set of footprints, she sees a camp, and realizes Maui must be inside. She ducks behind her boat to prepare herself and Maui comes out and sees the boat. Joyously, he picks it up with one hand, revealing Moana behind it. He thinks she's just a young fan of his and he picks up Heihei and uses his beak to scratch a sort of autograph (a heart and a hook) into Moana's oar. He jokes that when you write with a bird, it's called tweeting.Moana tries to give the speech she's been practicing, telling him who she is, that she knows he stole the heart of Te Fiti, and that she needs him to restore it. He isn't interested but he distracts her by boasting about his exploits (song: "You're Welcome"). Moana gets a first glimpse of Maui's animated tattoos, which help him tell stories and sometimes serve as his conscience. Maui tosses her into a cave and rolls a boulder over the entrance. He takes her boat and sails off to get his magic hook. Inside the cave, Moana sees a statue that Maui made of himself. Finding a small opening in the ceiling, she climbs the statue, tips it over and climbs out. Seeing Maui sailing away, she jumps into the ocean to swim after him, but she can't keep up. Suddenly the ocean pulls her along rapidly and deposits her on the boat. Maui throws her off and the ocean puts her right back on. Maui throws away the heart and the ocean throws it back at him. He jumps off himself and the ocean puts him back on the boat. He tells her that the heart is a curse and bad things will come for them if they keep it. Just then, a spear lands on the side of the boat. Looking into a bank of fog, they see a large silhouette moving toward them.Maui tells Moana that they're under attack by the Kakamora, tiny coconut-shelled warriors. His first impulse is to flee but, when he urgently orders Moana to tighten the halyard and find the stays, she looks bewildered. "You can't sail?" he asks incredulously. "I'm self-taught," she replies. Meanwhile, the Kakamora load spears tied to ropes into their catapults, launch them at the boat, and zip-line across to it. They knock Moana to the deck, dislodging the heart from the necklace. Heihei gobbles up the heart and the Kakamora grab him and take him back to their ship. Moana tells Maui that they have to get Heihei back and Maui sails close to the other ship but he is intent on escape and not retrieving the heart. Moana jumps across and bats the Kakamora away with an oar. She runs past the Kakamora chief and grabs Heihei as they shoot blow darts at her. She uses a spear with a rope to zip-line herself back to her canoe. Heihei regurgitates the heart which Moana triumphantly grabs, before realizing that they are surrounded by Kakamora boats.Maui expertly sails through the swarm of boats, causing them to collide and sink. Maui tells Moana he won't help her return the heart but she says he'd be the biggest hero ever if he did. He replies that he won't be able to defeat Te Ka without his magic hook, so she says they need to go and get it. Maui sails them to the lair of Tamatoa (voice: Jemaine Clement), teaching Moana about sailing and wayfinding (celestial navigation) as they go. He moors the ship at a tall spire, the entrance to Lalotai, the realm of monsters. He tells her to stay put as he climbs the spire but she decides to follow him. They reach the plateau at the top and Maui stomps the ground, making a face carving appear. The mouth opens, revealing a vortex below. He jumps in and Moana follows him. They fall through the air and land in an ocean, still falling. They break into the underworld and a monster grabs Moana with its tongue.The monster is pulling Moana toward its mouth when another monster eats the first and she falls to the ground still wrapped in the first monster's tongue. She looks around and sees Maui's hook inside a cave, surrounded by treasure. Maui pops up behind her and tells her that he's going to use her as a distraction. She bangs gold objects together, trying to make as much noise as possible. Maui tells her that when Tamatoa shows up, she should get him to talk about himself. The floor rumbles and Tamatoa, a crab monster, greets her. He grabs her in a claw and asks her what she's doing there. As Maui sneaks toward the hook, Moana tells Tamatoa that she came to rob him but, now that she sees his splendor, she has to know how he became so beautiful. Smiling, Tamatoa tells her that he decorated himself and his cave with gold to lure in fish (song: "Shiny"). Then he lifts Moana in the air and draws her toward his mouth. Just then, Maui grabs his hook and pulls Moana free. He tries to transform into a hawk but ends up turning into other animals and then back to his demigod form. Tamatoa knocks Maui across the cave with a claw and continues hitting him. Moana begs him to stop but he throws her into a bone cage and continues hitting Maui. Moana slips out of the cage, unseen, and notices a crack in the cave's wall that she can escape through. Looking back, she realizes she can't leave Maui behind.Tamatoa grabs the hook back from Maui and knocks him across the cave again. As he's preparing to deliver a death blow, Moana holds up the green, glowing heart to get his attention. Tamatoa drops Maui and chases Moana, who loses her footing and drops the heart and it falls into a crevice. Tamatoa tries to grab it and Moana takes the hook and brings it to Maui, telling him they have to leave. He asks about the heart and she shows him the necklace with the heart still inside. When Tamatoa reaches into the crevice, he pulls out a barnacle covered with glowing algae. Enraged, he pursues the pair, who run out of the cave. They reach a geyser that erupts and shoots them high in the air and back into the ocean above.Returning to the shore, Maui tells Moana that since he can't control his transformations, they have no chance of beating Te Ka. She sees a tattoo on his back of a woman throwing a baby in to the sea, and asks him how he got it. He says that he was born a human and his mother didn't want him, tossing him into the ocean as a baby. But the gods found him, raised him, and gave him the hook. She says that the gods saw something in him that was worth saving and he starts practicing his transformations. He regains control, turning into a bug, a lizard, a shark and a hawk. Maui lets Moana navigate this time and, in the morning, she sees a ring of islands surrounding Te Fiti. Maui tells her that she has successfully delivered him across the ocean.Maui takes the heart from Moana, turns into a hawk, and flies over the islands. Te Ka roars to life and knocks him out of the sky. He hits the water below and Moana sails up to him and pulls him onto the boat. She tries to sail through a gap between the islands with Te Ka chasing them. Te Ka raises a fist and swings it toward Moana but Maui blocks it with his hook. The force of the impact causes the ocean to swell, pushing the boat away from the islands. When Moana comes to, she sees the canoe badly damaged and Maui shows her the hook with a crack down the middle and a piece missing. He tells her that if the hook takes one more hit, it will be destroyed. He says he's done helping her, turns into a hawk and flies off.After he leaves, a sad, down-hearted Moana begs the ocean to take the heart and find someone else to choose for the task of returning it. After a small hesitation, the ocean, reluctantly, takes the heart and returns it to the bottom of the sea.With the heart gone and feeling lost and unsure of what to do, Moana sees a glowing manta ray approaching the canoe and swims around it. Suddenly it disappears and a familiar voice greets her from the other side of the canoe.She tells Gramma Tala that she doesn't know what to do. Tala tells her to listen to the voice inside her. She envisions all of her ancestors encouraging her to continue the quest. Looking down into the water, she sees the glowing heart and dives in to grab it. When she resurfaces, Tala and the ancestors are gone and she is alone, but she knows what she has to do.She repairs the canoe and sails back to the islands, once again sailing up to the gap. Te Ka reappears and raises a fist to smash the canoe but Moana steers toward another gap, just avoiding the blow. When Te Ka catches up to her, she sails back to and through the first gap. Te Ka sends a giant wave toward her and the canoe capsizes. With boulders raining down around her, she tries to right the boat but she isn't strong enough. Te Ka raises a fist toward her but, at the last second, a hawk appears and blocks the blow. Maui resumes his demigod form and uses his hook to flip the canoe back over. Turning back into a hawk, he flies over Te Ka as Moana sails. Te Ka knocks him out of the sky and he lands on an island. He turns back into a demigod and finds Te Ka about to throw a laval boulder at Moana as she climbs the island mountain. He charges at Te Ka and bats the bolder with his fish hook, destroying both, and allowing Moana to reach the place where the island of Te Fiti should be only to find that Te Fiti is gone.Turning back to Te Ka, Moana notices a pattern on her chest. When Te Ka is about to kill Maui, Moana holds up the heart which starts to glow brightly. Seeing it, Te Ka turns toward Moana. Realizing what she has to do, she asks the ocean to part to allow Te Ka to come to her as she starts walking to meet her. She tells Te Ka to listen to the voice inside herself. She calms down and Moana walks up to her and puts the heart in the center of the spiral on her chest. With the heart restored, Te Ka, who was dark with highlights of red lava, returns to her original form of the green island goddess, Te Fiti. The ocean rises up and deposits Moana, Maui, and Heihei on the shore. Maui apologizes to Te Fiti for stealing her heart and she opens her hand and reveals his hook, completely repaired. Te Fiti lifts up Moana and they touch foreheads, before Moana is returned to the beach. Te Fiti also uses her magic to repair the canoe and decorate it with flowers. Moana tells Maui that he could come with her back to the island since her people need a master wayfinder and he replies that they already have one (meaning Moana herself). He hugs her then turns into a hawk and flies off.Sailing back home, Moana sees that all the plants and fish have returned to Motunui. She jumps out of the canoe and runs to the shore where Sina and Tui are waiting to hug her. Days later, they pull the canoes out of the cavern and put them in the water. The ocean recedes to reveal a pink shell. Moana takes it and climbs up the mountain, depositing it on the pile of stones. Later, Moana is sailing a canoe, with her parents sailing another one (song: "We Know the Way (Finale)"). She teaches others the skills of sailing and wayfinding, passing along what Maui taught her. A glowing manta ray swims past her, and a hawk screeches and dives toward her. Moana realizes she's exactly where she is meant to be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Sundance prize-winning documentary is an intimate portrait of 1980s Harlem drag balls: a world of fierce competition, sustenance, and survival. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2016As a young Elizabeth becomes Queen, she must manage major political issues and personal matters, which often clash in ways she never imagined.1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister., Release Year: 2016As a young Elizabeth becomes Queen, she must manage major political issues and personal matters, which often clash in ways she never imagined.1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister., Release Year: 2016, 1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2015Frank is alerted to a terrorist threat, Danny pursues a taunting serial killer, Erin considers a judgeship, and Jamie is accused of police brutality.1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2015, 1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2016In Season 7, Frank deals with a series of crises that could damage the NYPD, while Danny handles several cases that cross international borders.1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer., Release Year: 2016, 1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer. 
+The story of a classic Irish Catholic New York family with family throughout the justice system of New York. The father is the Police Commisoner, the sons are both cops, and the daughter is a DA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2008Meet women who killed their mothers, a wife who hired a hit man to rub out her fourth husband, and a woman charged with her spouse for his hate crime.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2008, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009Season 2 profiles women who killed their roommates, an arsonist responsible for multiple deaths and a prostitute charged with slaying her pimp lover.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010Inmates in Season 3 include a woman who stole a newborn from a hospital, a wife who claims voices told her to kill her husband and more.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A studious teen trying to survive in a rough L.A. neighborhood accepts an invitation to an underground party and begins a life-changing adventure. 
+Malcolm is a high school senior obsessed with 1990's hip-hop culture, along with his friends Jib and Diggy, he's a geek who is continually pushed around school. They live in "The Bottoms" part of Inglewood, California, a suburb of Los Angeles. Malcolm's ultimate dream is to go to Harvard but in a meeting with his counselor Mr. Bailey, Bailey calls Malcolm's desire to attend Harvard an arrogant one, and says that his straight A's don't mean a thing. Bailey then reminds Malcolm about his Harvard interview with a man named Austin Jacoby.
+A street drug dealer, Dom, stops Malcolm and tells him to go a building and invite a girl named Nakia to Dom's birthday party. Nakia says she'll go if Malcolm is there. Malcolm tells Jib and Diggy, who both think it would be a great idea if they went.
+The three go to Dom's party. At the party, Dom and his crew are buying powdered Molly when two rival gang members kick in the door and start shooting Dom's crew members, causing panic in the club. Dom hides behind the bar where he finds Malcolm's backpack. Thinking fast, he runs to Malcolm and tells him to run and don't stop. Malcolm sees Nakia on the floor and he helps her up.
+Nakia drives Malcolm home, thanking him for helping her. She likes him for not being like Dom and the other guys she's used to dealing with. He asks Nakia to prom since she says she missed hers and he offers to help her study for her GED. Nakia says she'll think about it. The next morning at school, Malcolm walks through the metal detector, which goes off and the guard dog barks at Malcolm. Since the guard knows Malcolm, he lets him walk away assuming the metal detector is malfunctioning. Malcolm looks in his backpack and finds the "Molly" (MDMA street name) and a gun. Panicked, he runs into the band room with Jib and Diggy. He realizes Dom slipped all of this in his bag during the shootout. Someone then calls Malcolm's phone and demands that he bring the contents of the bag to him later in the day.
+Malcolm walks over to a red El Camino as instructed, until he gets a phone call from Dom as he's being held at the station. He tells Malcolm that he was setup and needs to get out of there immediately since the guys could kill him. He orders Malcolm to go to an address that he'll text him and to ask for "AJ".
+The three go to the address. They meet Jaleel and his half-naked sister Lily. AJ is their father, and won't be home until later and invites the three inside to hang out. Jaleel then takes Jib and Diggy out to get food while Malcolm stays with Lily. She ends up seducing him and offers to take his virginity. Malcolm catches Lily taking some of the molly from his backpack. She straddles Malcolm and vomits on his face. Malcolm then gets a phone call reminding him of his alumni interview. Lily offers to drive him there.
+Lily, still high, drives recklessly through the streets until she passes out at a stop sign. The cops race past them, worried Malcolm tries to wake her up. She springs up yelling that she has to pee. Lily sprints across the road and squats to pee in a bush in front of a coffee shop, with other people watching and taping her. Malcolm takes her car and heads to the meeting himself.
+Malcolm makes his meeting with Austin Jacoby. He realizes Jacoby is AJ after seeing pictures of Dom, Lily, and Jaleel in his office. He mentions having something for the man as instructed by Dom, but Jacoby doesn't want the drugs after this botched delivery. Jacoby implicitly tells him that with Dom in jail, there is no method of selling the drugs, but he needs them sold anyway. He then implicitly says that he will get Malcolm to Harvard if he can sell the drugs. He then reschedules the interview to give Malcolm time. With no other options, Malcolm, Jib, and Diggy decide to seek help from a stoner/hacker they met at band camp years ago named Will Sherwood. Will helps the three organize an online network through Bitcoin transactions that would allow them to sell the molly without getting it traced back to them.
+The drug gets lots of attention after a video of Lily peeing in front of the coffee shop goes viral, so the drug itself is nicknamed "Lily".
+Malcolm runs into Nakia, who still wants to study. He helps her, and she later opens up to him about dealing with guys like Dom. Malcolm thinks she was sent there by Dom to gather info on the drugs. Offended, Nakia leaves and says Malcolm is just like all the other guys. When trying to collect cash in exchange for the Bitcoin currency, Will tells Malcolm that they need to go "black market" for the money and need to meet with another gangster named Fidel X. Malcolm does so and then proceeds to give him a jump drive with the bitcoin information in exchange for the cash.
+Malcolm returns to Jacoby's office and reveals that he secretly linked the bitcoin account to Jacoby's personal accounts. He brings ten percent of the money in cash, but tells Jacoby that he set up the account so that the DEA can trace the account if Jacoby ever tries to transfer the money electronically. Malcolm is the only way to get to the money, so Jacoby cannot kill him. Malcolm then demands that Jacoby get him into Harvard if he wants the money. Jacoby agrees to Malcolm's terms.
+Malcolm goes home and starts to come up with a new college essay. He describes two students Student A is a geek that hangs out with his friends and gets straight A's, while Student B earns a lot of money in an unethical way. He asks, "Which student do you think I am?"
+Malcolm and his friends go to prom together. He waits for Nakia, having apologized and given her a prom ticket. He goes home and finds her standing outside. She thanks Malcolm for helping her pass her GED. She then gives him a pass for Six Flags. She kisses Malcolm's cheek and walks back into her house.
+Malcolm then goes home to find a big envelope from Harvard on his bed. He opens it and reads what's inside. He then looks to the audience for a moment before he smiles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2011When a single father's drinking soaks up his meager paycheck, it's up to his oldest daughter to keep her dad and five siblings in line.1. Pilot57mMeet the fabulously dysfunctional Gallagher family: Dad's a drunk, Mom split long ago, and eldest daughter Fiona tries to hold the family together.2. Frank the Plank56mWhen Frank is nowhere to be found on the day his disability check arrives, the family starts a manhunt and panic sets in.3. Aunt Ginger52mWhen a government official suspects that someone might be cashing Aunt Ginger's social security checks, the Gallaghers set out to find her.4. Casey Casden46mAfter a lonely Debbie steals a boy from a birthday party, the family hatches a plan to return the child without attracting attention from the police.5. Three Boys45mEven though Kevin is already married, the Gallaghers help pull off a fake wedding when Veronica's mother offers a cash gift for her wedding day.6. Killer Carl51mWhen a letter from Carl's teacher arrives at the Gallagher home, Fiona must prove it's a suitable place for rehabilitating a delinquent.7. Frank Gallagher: Loving Husband, Devoted Father45mDesperate to come up with a plan to pay two goons looking for the $6,000 that he owes, Frank stumbles onto a risky solution that might work.8. It's Time To Kill the Turtle48mWhen Frank gives up drinking, Carl and Debbie enjoy having their dad back despite Lip's warning it won't last.9. But at Last Came a Knock51mFrank has some settlement money coming his way. The only catch: He needs his ex-wife's signature on the documents.10. Nana Gallagher Had An Affair48mMonica's return to the family wreaks havoc on the Gallagher clan, leaving the children determined to find out if Frank is their real father.11. Daddyz Girl46mDebbie convinces Fiona to get involved with her Classroom Moms, where Fiona finds a new friend in the alluring Jasmine.12. Father Frank, Full of Grace51mSteve tries to convince Fiona to leave town with him after Tony discovers his true livelihood and threatens him with jail if he doesn't leave., Release Year: 2011, 1. Pilot57mMeet the fabulously dysfunctional Gallagher family: Dad's a drunk, Mom split long ago, and eldest daughter Fiona tries to hold the family together.2. Frank the Plank56mWhen Frank is nowhere to be found on the day his disability check arrives, the family starts a manhunt and panic sets in.3. Aunt Ginger52mWhen a government official suspects that someone might be cashing Aunt Ginger's social security checks, the Gallaghers set out to find her.4. Casey Casden46mAfter a lonely Debbie steals a boy from a birthday party, the family hatches a plan to return the child without attracting attention from the police.5. Three Boys45mEven though Kevin is already married, the Gallaghers help pull off a fake wedding when Veronica's mother offers a cash gift for her wedding day.6. Killer Carl51mWhen a letter from Carl's teacher arrives at the Gallagher home, Fiona must prove it's a suitable place for rehabilitating a delinquent.7. Frank Gallagher: Loving Husband, Devoted Father45mDesperate to come up with a plan to pay two goons looking for the $6,000 that he owes, Frank stumbles onto a risky solution that might work.8. It's Time To Kill the Turtle48mWhen Frank gives up drinking, Carl and Debbie enjoy having their dad back despite Lip's warning it won't last.9. But at Last Came a Knock51mFrank has some settlement money coming his way. The only catch: He needs his ex-wife's signature on the documents.10. Nana Gallagher Had An Affair48mMonica's return to the family wreaks havoc on the Gallagher clan, leaving the children determined to find out if Frank is their real father.11. Daddyz Girl46mDebbie convinces Fiona to get involved with her Classroom Moms, where Fiona finds a new friend in the alluring Jasmine.12. Father Frank, Full of Grace51mSteve tries to convince Fiona to leave town with him after Tony discovers his true livelihood and threatens him with jail if he doesn't leave., Release Year: 2012Patriarch Frank Gallagher and his loud and nutty family argue their way through a second season of this uproarious sitcom.1. Summertime53mThe Gallaghers are hustling in summertime Chicago, with Fiona bartending at a hotspot, but Frank's luck runs out and he loses Liam in a bet.2. Summer Loving52mAs Sheila makes progress in conquering her agoraphobia, Frank sets his sights on an ailing bar patron he sees as a potential meal ticket.3. I'll Light a Candle For You Every Day48mFiona reconnects with her high school crush despite his being married, Frank contemplates marrying Dottie, and Debbie becomes obsessed with death.4. A Beautiful Mess54mFiona must deal with the consequences of sleeping with Craig when his wife shows up at her door, while Frank plots to scare Sheila back inside.5. Father's Day53mFrank wants to claim Eddie's insurance benefits, but he's also a prime suspect in Eddie's disappearance, and Fiona lies at a high-profile wedding.6. Can I Have a Mother?54mThe arrival of Grammy Gallagher brings Frank and Fiona together, while Steve returns and asks Fiona out on a double date.7. A Bottle of Jean Nate49mJasmine invites Fiona on David's boat for a party, but Steve and Estefania are also there; meanwhile, Frank desperately wants to kick Grammy out.8. Parenthood55mWhen Lip quits school, Fiona makes a bargain with him that she'll get her diploma if he does, but he's got bigger problems with Karen and their baby.9. Hurricane Monica52mMonica is back, cooking, partying and scamming with Frank just like old times, but the kids wonder if she's back for good.10. A Great Cause54mWith Monica around to help out, Fiona pursues her GED and a management position at the club, while Steve plots a course to win her back.11. Just Like the Pilgrims Intended50mWhile Fiona plans a nice Thanksgiving, Monica becomes more depressed than ever, and Steve's plan to win back Fiona gets complicated.12. Fiona Interrupted56mJimmy (Steve) has finally won his way back into Fiona's heart, while a lonely Frank wants to break Monica out of the psychiatric facility., Release Year: 2012, 1. Summertime53mThe Gallaghers are hustling in summertime Chicago, with Fiona bartending at a hotspot, but Frank's luck runs out and he loses Liam in a bet.2. Summer Loving52mAs Sheila makes progress in conquering her agoraphobia, Frank sets his sights on an ailing bar patron he sees as a potential meal ticket.3. I'll Light a Candle For You Every Day48mFiona reconnects with her high school crush despite his being married, Frank contemplates marrying Dottie, and Debbie becomes obsessed with death.4. A Beautiful Mess54mFiona must deal with the consequences of sleeping with Craig when his wife shows up at her door, while Frank plots to scare Sheila back inside.5. Father's Day53mFrank wants to claim Eddie's insurance benefits, but he's also a prime suspect in Eddie's disappearance, and Fiona lies at a high-profile wedding.6. Can I Have a Mother?54mThe arrival of Grammy Gallagher brings Frank and Fiona together, while Steve returns and asks Fiona out on a double date.7. A Bottle of Jean Nate49mJasmine invites Fiona on David's boat for a party, but Steve and Estefania are also there; meanwhile, Frank desperately wants to kick Grammy out.8. Parenthood55mWhen Lip quits school, Fiona makes a bargain with him that she'll get her diploma if he does, but he's got bigger problems with Karen and their baby.9. Hurricane Monica52mMonica is back, cooking, partying and scamming with Frank just like old times, but the kids wonder if she's back for good.10. A Great Cause54mWith Monica around to help out, Fiona pursues her GED and a management position at the club, while Steve plots a course to win her back.11. Just Like the Pilgrims Intended50mWhile Fiona plans a nice Thanksgiving, Monica becomes more depressed than ever, and Steve's plan to win back Fiona gets complicated.12. Fiona Interrupted56mJimmy (Steve) has finally won his way back into Fiona's heart, while a lonely Frank wants to break Monica out of the psychiatric facility., Release Year: 2013Alcoholic Frank Gallagher and his unconventional brood of six kids continue to stumble their way through life and love in Chicago.1. El Gran Cañon59mFiona puts the family in debt to promote her own night at the club; Frank wakes up from a bender in Mexico with no money and no passport.2. The American Dream55mFiona panics over the money she spent on her club night; Frank returns home unwelcomed; Lip turns his community service into a scam.3. May I Trim Your Hedges?53mFrank pretends he has cancer in order to scam a charity foundation; Fiona is harassed at her new job; Debbie gets Lip to search for local pedophiles.4. The Helpful Gallaghers51mCarl makes the best of cancer camp; Sheila urges Frank to be Jody's sex coach; Fiona rallies her co-workers; Lip helps Mandy rescue her half-sister.5. The Sins of My Caretaker56mFrank is forced to find Aunt Ginger's skeleton; Jimmy faces his first true family crisis, and when Fiona fails him, he turns to Este.6. Cascading Failures54mFrank and Fiona fret when the DFS hauls their kids away; Lip and Ian endure a prison-like group home; Carl and Liam live in style with a gay couple.7. A Long Way from Home52mFrank and Fiona go to extremes as they battle in court for sole custody; Debbie is forced into slave labor; Sheila stages an intervention for Jody.8. When There's a Will54mWhen the family gathers for Aunt Ginger's fake funeral, Frank's cousin shows up with his own forged will that grants him ownership of the house.9. Frank the Plumber56mFiona begins a new job and has to adjust to the office culture; Frank fights for medical benefits and becomes the new face of the gay rights movement.10. Civil Wrongs51mJimmy drops a bomb, disrupting Fiona's newly balanced life; Frank, the face of gay rights, considers changing sides; Mickey's marriage plans irk Ian.11. Order Room Service53mFiona and the kids go camping; Carl sneaks an essentially homeless Frank into the Gallagher van for the night; Jimmy's carelessness exacts a price.12. Survival of the Fittest56mFrank is released from jail on medical furlough; Fiona learns of a new job opening at World Wide Cup; Lip graduates from high school., Release Year: 2013, 1. El Gran Cañon59mFiona puts the family in debt to promote her own night at the club; Frank wakes up from a bender in Mexico with no money and no passport.2. The American Dream55mFiona panics over the money she spent on her club night; Frank returns home unwelcomed; Lip turns his community service into a scam.3. May I Trim Your Hedges?53mFrank pretends he has cancer in order to scam a charity foundation; Fiona is harassed at her new job; Debbie gets Lip to search for local pedophiles.4. The Helpful Gallaghers51mCarl makes the best of cancer camp; Sheila urges Frank to be Jody's sex coach; Fiona rallies her co-workers; Lip helps Mandy rescue her half-sister.5. The Sins of My Caretaker56mFrank is forced to find Aunt Ginger's skeleton; Jimmy faces his first true family crisis, and when Fiona fails him, he turns to Este.6. Cascading Failures54mFrank and Fiona fret when the DFS hauls their kids away; Lip and Ian endure a prison-like group home; Carl and Liam live in style with a gay couple.7. A Long Way from Home52mFrank and Fiona go to extremes as they battle in court for sole custody; Debbie is forced into slave labor; Sheila stages an intervention for Jody.8. When There's a Will54mWhen the family gathers for Aunt Ginger's fake funeral, Frank's cousin shows up with his own forged will that grants him ownership of the house.9. Frank the Plumber56mFiona begins a new job and has to adjust to the office culture; Frank fights for medical benefits and becomes the new face of the gay rights movement.10. Civil Wrongs51mJimmy drops a bomb, disrupting Fiona's newly balanced life; Frank, the face of gay rights, considers changing sides; Mickey's marriage plans irk Ian.11. Order Room Service53mFiona and the kids go camping; Carl sneaks an essentially homeless Frank into the Gallagher van for the night; Jimmy's carelessness exacts a price.12. Survival of the Fittest56mFrank is released from jail on medical furlough; Fiona learns of a new job opening at World Wide Cup; Lip graduates from high school., Release Year: 2014Jobless alcoholic Frank Gallagher and his messed-up, motherless brood continue to tackle life and each other from Chicago's Canaryville neighborhood.1. Simple Pleasures56mFiona has a job and a boyfriend, but her life is upended when Frank resurfaces, addicted to drugs and deathly ill. Meanwhile, Ian is still missing.2. My Oldest Daughter49mWhen a road rage incident damages a company car, Fiona lies about how it happened; Lip struggles in school -- and with the ladies.3. Like Father, Like Daughter55mFrank learns that he is a grandfather; Mike invites Fiona to dinner with his family; Carl tries to earn some drug money for Frank by kidnapping dogs.4. Strangers on a Train57mFiona continues her secret affair with Robbie; Frank tries to contrive an "accident" that will bring an insurance payout to cover his transplant.5. There's the Rub52mFiona's bad decisions involving Robbie finally boil over when he tells Mike about their affair; Sammi helps Frank pursue a cure for his liver trouble.6. Iron City56mThe fallout from Liam's accident lands Fiona in jail, unsure of Liam's state or her future; the family, minus Frank, awaits updates from the hospital.7. A Jailbird, Invalid, Martyr, Cutter, Retard, and Parasitic Twin51mWith Fiona under court order to remain inside the house and Frank sick, Lip strains under the weight of responsibilities, but gets unexpected help.8. Hope Springs Paternal56mFiona cleans house before her probation officer visits; Ian gets kicked out of Mickey's house and finally returns to the Gallagher home.9. The Legend of Bonnie and Carl54mCarl connects with a troubled girl; Lip grows close to his roommate's ex-girlfriend; Fiona endures the struggle of job hunting with a criminal record.10. Liver, I Hardly Know Her51mFiona goes off the rails, violating multiple terms of her probation. The family goes into search party mode, like they have with Frank in the past.11. Emily49mFiona arrives at a rough correctional facility; Frank awakens from surgery delirious; Ian gives Mickey an ultimatum; Debbie meets an older student.12. Lazarus58mFrank recuperates from his liver transplant; Sheila vies for custody of the Native American kids; Fiona passes a drug test, comes home and gets a job., Release Year: 2014, 1. Simple Pleasures56mFiona has a job and a boyfriend, but her life is upended when Frank resurfaces, addicted to drugs and deathly ill. Meanwhile, Ian is still missing.2. My Oldest Daughter49mWhen a road rage incident damages a company car, Fiona lies about how it happened; Lip struggles in school -- and with the ladies.3. Like Father, Like Daughter55mFrank learns that he is a grandfather; Mike invites Fiona to dinner with his family; Carl tries to earn some drug money for Frank by kidnapping dogs.4. Strangers on a Train57mFiona continues her secret affair with Robbie; Frank tries to contrive an "accident" that will bring an insurance payout to cover his transplant.5. There's the Rub52mFiona's bad decisions involving Robbie finally boil over when he tells Mike about their affair; Sammi helps Frank pursue a cure for his liver trouble.6. Iron City56mThe fallout from Liam's accident lands Fiona in jail, unsure of Liam's state or her future; the family, minus Frank, awaits updates from the hospital.7. A Jailbird, Invalid, Martyr, Cutter, Retard, and Parasitic Twin51mWith Fiona under court order to remain inside the house and Frank sick, Lip strains under the weight of responsibilities, but gets unexpected help.8. Hope Springs Paternal56mFiona cleans house before her probation officer visits; Ian gets kicked out of Mickey's house and finally returns to the Gallagher home.9. The Legend of Bonnie and Carl54mCarl connects with a troubled girl; Lip grows close to his roommate's ex-girlfriend; Fiona endures the struggle of job hunting with a criminal record.10. Liver, I Hardly Know Her51mFiona goes off the rails, violating multiple terms of her probation. The family goes into search party mode, like they have with Frank in the past.11. Emily49mFiona arrives at a rough correctional facility; Frank awakens from surgery delirious; Ian gives Mickey an ultimatum; Debbie meets an older student.12. Lazarus58mFrank recuperates from his liver transplant; Sheila vies for custody of the Native American kids; Fiona passes a drug test, comes home and gets a job., Release Year: 2015Love takes the Gallaghers to unexpected places: Frank finds a love that can't last, Lip learns about college romance, and Fiona's stuck in a triangle.1. Milk of the Gods54mLip is homeward bound. While working her waitressing job, Fiona encounters an unexpected romantic possibility.2. I'm the Liver53mThe specter of gentrification rears its ugly head in the neighborhood. Fiona's house arrest ends, and she's ready to roll.3. The Two Lisas52mDebbie finds herself in an unexpected situation with Matty. Frank gets Carl's help in derailing the women who want to buy the house.4. A Night to Remem...Wait, What?52mWhen Frank heads over to Lou's expecting to get his hefty insurance payout, he learns some very disturbing news: He already got it.5. Rite of Passage50mLip tries to show off and winds up getting in over his head. Fiona tries to figure out how to let everyone know she's married.6. Crazy Love57mIan runs off with a baby. Fiona is taken aback when Jimmy shows up again and declares his love for her.7. Tell Me You F**king Need Me50mIan winds up in a hospital. Fiona is faced with a turning point in her marriage.8. Uncle Carl51mLip enters into some illicit activities in order to pay for his tuition. Lip and Fiona come to bring Ian back from his hospital stay.9. Carl's First Sentencing58mWhile Frank and his doctor get to know each other better, Fiona tries to help Carl face the music when the time comes for his sentencing.10. South Side Rules53mAn unexpected kind of relationship begins to blossom between Frank and his doctor. Lip's schoolmates have a bad drug experience.11. Drugs Actually54mFrank begins to worry about Bianca when she starts acting strangely and putting herself into perilous situations.12. Love Songs (In the Key of Gallagher)58mFrank is doing whatever he can to make Bianca as happy as possible, but she makes an unexpected, unsettling request., Release Year: 2015, 1. Milk of the Gods54mLip is homeward bound. While working her waitressing job, Fiona encounters an unexpected romantic possibility.2. I'm the Liver53mThe specter of gentrification rears its ugly head in the neighborhood. Fiona's house arrest ends, and she's ready to roll.3. The Two Lisas52mDebbie finds herself in an unexpected situation with Matty. Frank gets Carl's help in derailing the women who want to buy the house.4. A Night to Remem...Wait, What?52mWhen Frank heads over to Lou's expecting to get his hefty insurance payout, he learns some very disturbing news: He already got it.5. Rite of Passage50mLip tries to show off and winds up getting in over his head. Fiona tries to figure out how to let everyone know she's married.6. Crazy Love57mIan runs off with a baby. Fiona is taken aback when Jimmy shows up again and declares his love for her.7. Tell Me You F**king Need Me50mIan winds up in a hospital. Fiona is faced with a turning point in her marriage.8. Uncle Carl51mLip enters into some illicit activities in order to pay for his tuition. Lip and Fiona come to bring Ian back from his hospital stay.9. Carl's First Sentencing58mWhile Frank and his doctor get to know each other better, Fiona tries to help Carl face the music when the time comes for his sentencing.10. South Side Rules53mAn unexpected kind of relationship begins to blossom between Frank and his doctor. Lip's schoolmates have a bad drug experience.11. Drugs Actually54mFrank begins to worry about Bianca when she starts acting strangely and putting herself into perilous situations.12. Love Songs (In the Key of Gallagher)58mFrank is doing whatever he can to make Bianca as happy as possible, but she makes an unexpected, unsettling request., Release Year: 2016Fiona continues to have feelings for Sean, despite her reunion with Gus. Frank deals with multiple crises, including the arrival of Sammi's mother.1. I Only Miss Her When I'm Breathing57mAs Frank continues to reel from a devastating loss, Fiona tries to get Ian to take his meds, Carl gets released from jail, and Debbie lies to Fiona.2. #AbortionRules55mDebbie tries to prove to Fiona that she could raise a child, but Fiona's dealing with a major issue of her own. Frank's pain leads to a new scheme.3. The F Word53mFrank lends his support to Debbie, and the pair plans to confront Fiona, who's trying to reconnect with Gus. Kevin attempts to make amends with Yanis.4. Going Once, Going Twice58mFiona tries to secure funds to buy back the Gallagher home at auction. Ian learns he was saved by a gay fireman. The Alibi has financial problems.5. Refugees56mAs the Gallaghers scatter, Debbie and Frank try to prove their worth to the Wexlers so they can get a place to stay, while Fiona stays with Sean.6. NSFW54mLip testifies to a disciplinary committee about the Helene scandal. Fiona stops by the house. Debbie negotiates an uncomfortable situation.7. Pimp's Paradise53mCarl takes over the Gallagher house and turns it into his "crib." Frank also returns to the house with Queenie. Ian and Caleb attend a wedding.8. Be a Good Boy. Come for Grandma57mFiona tries to get closer to Sean's son, Will. Carl wants to straighten out his life, but it won't be easy. Lip has a strange encounter with Queenie.9. A Yurt of One's Own54mOn the run from G-Doggg, Frank joins Debbie and Queenie at a commune. Fiona tries to make amends with Sean. Lip's partying gets out of hand.10. Paradise Lost49mSean moves into the Gallagher house. V and Svetlana plan a green-card marriage. Debbie asks Frank to get her out of the commune.11. Sleep No More50mFrank offers to pay for Fiona's wedding reception, then clashes with Sean. Lip and Youens continue to butt heads. Ian becomes an EMT trainee.12. Familia Supra Gallegorious Omnia!56mThe Gallaghers convene at the wedding. Debbie brings Franny, while Ian shows up with Caleb. Meanwhile, Frank reveals shocking news about Sean., Release Year: 2016, 1. I Only Miss Her When I'm Breathing57mAs Frank continues to reel from a devastating loss, Fiona tries to get Ian to take his meds, Carl gets released from jail, and Debbie lies to Fiona.2. #AbortionRules55mDebbie tries to prove to Fiona that she could raise a child, but Fiona's dealing with a major issue of her own. Frank's pain leads to a new scheme.3. The F Word53mFrank lends his support to Debbie, and the pair plans to confront Fiona, who's trying to reconnect with Gus. Kevin attempts to make amends with Yanis.4. Going Once, Going Twice58mFiona tries to secure funds to buy back the Gallagher home at auction. Ian learns he was saved by a gay fireman. The Alibi has financial problems.5. Refugees56mAs the Gallaghers scatter, Debbie and Frank try to prove their worth to the Wexlers so they can get a place to stay, while Fiona stays with Sean.6. NSFW54mLip testifies to a disciplinary committee about the Helene scandal. Fiona stops by the house. Debbie negotiates an uncomfortable situation.7. Pimp's Paradise53mCarl takes over the Gallagher house and turns it into his "crib." Frank also returns to the house with Queenie. Ian and Caleb attend a wedding.8. Be a Good Boy. Come for Grandma57mFiona tries to get closer to Sean's son, Will. Carl wants to straighten out his life, but it won't be easy. Lip has a strange encounter with Queenie.9. A Yurt of One's Own54mOn the run from G-Doggg, Frank joins Debbie and Queenie at a commune. Fiona tries to make amends with Sean. Lip's partying gets out of hand.10. Paradise Lost49mSean moves into the Gallagher house. V and Svetlana plan a green-card marriage. Debbie asks Frank to get her out of the commune.11. Sleep No More50mFrank offers to pay for Fiona's wedding reception, then clashes with Sean. Lip and Youens continue to butt heads. Ian becomes an EMT trainee.12. Familia Supra Gallegorious Omnia!56mThe Gallaghers convene at the wedding. Debbie brings Franny, while Ian shows up with Caleb. Meanwhile, Frank reveals shocking news about Sean., Release Year: 2016After waking from a month-long coma, Frank embraces a new family at a homeless shelter. Meanwhile, a freshly single Fiona finds a good use for Tinder.1. Hiraeth55mFresh out of a coma, Frank looks for answers. Single mother Debbie gets crafty to make ends meet. Ian begins to have second thoughts about Caleb.2. Swipe, F**k, Leave50mFrank erects walls around the Gallagher house. A new waitress at Patsy's Pies introduces Fiona to dating apps. Kev and V's polygamy gets complicated.3. Home Sweet Homeless Shelter55mFiona gives the rest of the Gallagher kids a strict ultimatum. Frank finds a new family. Kev, V and Svetlana launch a kinky new business.4. I Am a Storm56mWorried about the homeless shelter's future, Frank shows some initiative. Fiona throws a speakeasy party at Patsy's. Ian meets a new love interest.5. Own Your Sh*t53mAn emboldened Fiona contemplates a new business move. Debbie's money-making antics land her in hot water. Carl looks into his family heritage.6. The Defenestration of Frank58mFrank faces some backlash from his new family. Lip juggles Sierra and his wire fraud scheme. Ian struggles with mixed feelings for Trevor.7. You'll Never Ever Get a Chicken in Your Whole Entire Life54mLip helps Sierra through a dire situation. Frank agrees to help Liam get into a private school. A frantic Debbie makes a decisive to-do list.8. You Sold Me the Laundromat, Remember?54mFiona rustles up some help to keep the laundromat afloat. Kev begins to worry about V's acceptance of Svetlana's increasingly questionable behavior.9. Ouroboros53mMonica returns to the skeptical Gallagher family with some surprising news. Fiona tries to keep her cool after a nasty Yelp review.10. Ride or Die55mA conflicted Ian must make a difficult relationship decision after a sudden development. Fiona advises Kev on how to deal with Svetlana.11. Happily Ever After56mFrank and Monica attempt to renew their marriage vows. Fiona takes her professional life in a new direction. Lip tackles his alcohol relapse.12. Requiem for a Slut60mAn unfortunate event brings the Gallaghers together and reveals a family secret. Ian has a talk with Trevor. Debbie learns a new trade., Release Year: 2016, 1. Hiraeth55mFresh out of a coma, Frank looks for answers. Single mother Debbie gets crafty to make ends meet. Ian begins to have second thoughts about Caleb.2. Swipe, F**k, Leave50mFrank erects walls around the Gallagher house. A new waitress at Patsy's Pies introduces Fiona to dating apps. Kev and V's polygamy gets complicated.3. Home Sweet Homeless Shelter55mFiona gives the rest of the Gallagher kids a strict ultimatum. Frank finds a new family. Kev, V and Svetlana launch a kinky new business.4. I Am a Storm56mWorried about the homeless shelter's future, Frank shows some initiative. Fiona throws a speakeasy party at Patsy's. Ian meets a new love interest.5. Own Your Sh*t53mAn emboldened Fiona contemplates a new business move. Debbie's money-making antics land her in hot water. Carl looks into his family heritage.6. The Defenestration of Frank58mFrank faces some backlash from his new family. Lip juggles Sierra and his wire fraud scheme. Ian struggles with mixed feelings for Trevor.7. You'll Never Ever Get a Chicken in Your Whole Entire Life54mLip helps Sierra through a dire situation. Frank agrees to help Liam get into a private school. A frantic Debbie makes a decisive to-do list.8. You Sold Me the Laundromat, Remember?54mFiona rustles up some help to keep the laundromat afloat. Kev begins to worry about V's acceptance of Svetlana's increasingly questionable behavior.9. Ouroboros53mMonica returns to the skeptical Gallagher family with some surprising news. Fiona tries to keep her cool after a nasty Yelp review.10. Ride or Die55mA conflicted Ian must make a difficult relationship decision after a sudden development. Fiona advises Kev on how to deal with Svetlana.11. Happily Ever After56mFrank and Monica attempt to renew their marriage vows. Fiona takes her professional life in a new direction. Lip tackles his alcohol relapse.12. Requiem for a Slut60mAn unfortunate event brings the Gallaghers together and reveals a family secret. Ian has a talk with Trevor. Debbie learns a new trade. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2015After she's freed from a cult that kept her underground for 15 years, Kimmy wants to erase her past and start a new life in New York City.1. Kimmy Goes Outside!25mImprisoned by a cult leader as a teenager, Midwesterner Kimmy is freed after 15 years. The first thing she decides to do is move to New York.2. Kimmy Gets a Job!24mKimmy has to throw an acceptable kids' birthday party to keep her new job with the filthy rich Voorhees family.3. Kimmy Goes on a Date!25mKimmy and Jacqueline try to hide their pasts, while Titus lies to Lillian about money so he can spend it on headshots for his future.4. Kimmy Goes to the Doctor!24mKimmy has an eye-opening experience when Jacqueline introduces her to her plastic surgeon. Titus auditions for a Spider-Man musical.5. Kimmy Kisses a Boy!24mKimmy's bunker-mate Cyndee visits New York with her new boyfriend, Brandon, whom Titus promptly outs. Charles makes his move with Kimmy.6. Kimmy Goes to School!24mKimmy's GED class isn't as educational as she'd hoped. Lillian helps Titus shoot a music video ... in Jacqueline's house.7. Kimmy Goes to a Party!26mJacqueline asks Kimmy to help her plan a dinner party where Jacqueline can confirm if her husband, Julian, is cheating on her.8. Kimmy is Bad at Math!26mKimmy studies for her math GED exam with her classmate Dong, while Jacqueline changes her mind about getting divorced.9. Kimmy Has a Birthday!27mKimmy's 30th birthday party isn't quite the fun celebration of adulthood she wants it to be.10. Kimmy's in a Love Triangle!29mKimmy is torn between two guys and trying not to act like a fool. Titus finds a different kind of acting coach.11. Kimmy Rides a Bike!26mTitus can't stop watching the trial of Kimmy's charismatic kidnapper on the Internet, while Kimmy turns to exercise to avoid testifying.12. Kimmy Goes to Court!27mKimmy and Titus go back to Durnsville, Indiana so Kimmy can testify against the Reverend Wayne, but the trip doesn't go very well.13. Kimmy Makes Waffles!28mKimmy is stuck in Durnsville. Jacqueline gets back in touch with her roots when she and Lillian drive to Indiana to find Kimmy., Release Year: 2015, 1. Kimmy Goes Outside!25mImprisoned by a cult leader as a teenager, Midwesterner Kimmy is freed after 15 years. The first thing she decides to do is move to New York.2. Kimmy Gets a Job!24mKimmy has to throw an acceptable kids' birthday party to keep her new job with the filthy rich Voorhees family.3. Kimmy Goes on a Date!25mKimmy and Jacqueline try to hide their pasts, while Titus lies to Lillian about money so he can spend it on headshots for his future.4. Kimmy Goes to the Doctor!24mKimmy has an eye-opening experience when Jacqueline introduces her to her plastic surgeon. Titus auditions for a Spider-Man musical.5. Kimmy Kisses a Boy!24mKimmy's bunker-mate Cyndee visits New York with her new boyfriend, Brandon, whom Titus promptly outs. Charles makes his move with Kimmy.6. Kimmy Goes to School!24mKimmy's GED class isn't as educational as she'd hoped. Lillian helps Titus shoot a music video ... in Jacqueline's house.7. Kimmy Goes to a Party!26mJacqueline asks Kimmy to help her plan a dinner party where Jacqueline can confirm if her husband, Julian, is cheating on her.8. Kimmy is Bad at Math!26mKimmy studies for her math GED exam with her classmate Dong, while Jacqueline changes her mind about getting divorced.9. Kimmy Has a Birthday!27mKimmy's 30th birthday party isn't quite the fun celebration of adulthood she wants it to be.10. Kimmy's in a Love Triangle!29mKimmy is torn between two guys and trying not to act like a fool. Titus finds a different kind of acting coach.11. Kimmy Rides a Bike!26mTitus can't stop watching the trial of Kimmy's charismatic kidnapper on the Internet, while Kimmy turns to exercise to avoid testifying.12. Kimmy Goes to Court!27mKimmy and Titus go back to Durnsville, Indiana so Kimmy can testify against the Reverend Wayne, but the trip doesn't go very well.13. Kimmy Makes Waffles!28mKimmy is stuck in Durnsville. Jacqueline gets back in touch with her roots when she and Lillian drive to Indiana to find Kimmy., Release Year: 2016Tired of being Jacqueline's assistant, Kimmy moonlights as a Christmas elf and an Uber driver. Titus finds love, and Lillian fights gentrification.1. Kimmy Goes Roller Skating!29mTitus's ex-wife sues him for spousal support. Kimmy still has feelings for Dong. Jacqueline's Sioux family gets fed up with her.2. Kimmy Goes on a Playdate!32mKimmy helps Jacqueline put her life back together after the divorce. Titus donates his old clothes and makes a connection with a construction worker.3. Kimmy Goes to a Play!30mTitus develops a one-man show about his past life as a geisha. While Jacqueline tries to make Julian jealous, Lillian battles gentrification.4. Kimmy Kidnaps Gretchen!30mKimmy stages an intervention when ex-mole woman Gretchen joins another cult. Titus takes Mikey the construction worker on his first gay date.5. Kimmy Gives Up!33mKimmy needs to study for the GED, but she's worried about Dong getting deported. Jacqueline puts Buckley on Dyziplen to treat his hyperactivity.6. Kimmy Drives a Car!30mHipsters invade the neighborhood when Titus rents his apartment on Airbnb. Kimmy finally reaches her limit with Jacqueline's self-centered attitude.7. Kimmy Walks Into a Bar!31mJacqueline's gala plans hit a snag when Deirdre Robespierre throws a party the same night. Kimmy stops to pee at a bar and meets a cute Army vet.8. Kimmy Goes to a Hotel!29mOn Fake Christmas, Kimmy and Dong take a trip to the Poconos, and a Jewish family claims that Jacqueline's prized Mondrian is rightfully theirs.9. Kimmy Meets a Drunk Lady!30mA drunk Uber passenger convinces Kimmy to stop repressing her emotions. Meanwhile, a broken R. Kelly cassette tape pushes Titus over the edge.10. Kimmy Goes to Her Happy Place!30mKimmy has her first therapy session with Andrea, but it's Lillian who helps her get in touch with her anger. Mikey comes out to his family.11. Kimmy Meets a Celebrity!31mA celebrity psychologist with a TV talk show drives a wedge between Kimmy and her former bunker-mate Cyndee. Titus gives a teenage boy dating advice.12. Kimmy Sees a Sunset!34mKimmy tries to help Andrea with her drinking problem. Jacqueline dates a pro bono lawyer for his money. Titus and Mikey talk about moving in together.13. Kimmy Finds Her Mom!37mWhile Kimmy reunites with her mom at Universal Studios, Titus heads to Miami. Jacqueline invites Russ and his family to Thanksgiving dinner., Release Year: 2016, 1. Kimmy Goes Roller Skating!29mTitus's ex-wife sues him for spousal support. Kimmy still has feelings for Dong. Jacqueline's Sioux family gets fed up with her.2. Kimmy Goes on a Playdate!32mKimmy helps Jacqueline put her life back together after the divorce. Titus donates his old clothes and makes a connection with a construction worker.3. Kimmy Goes to a Play!30mTitus develops a one-man show about his past life as a geisha. While Jacqueline tries to make Julian jealous, Lillian battles gentrification.4. Kimmy Kidnaps Gretchen!30mKimmy stages an intervention when ex-mole woman Gretchen joins another cult. Titus takes Mikey the construction worker on his first gay date.5. Kimmy Gives Up!33mKimmy needs to study for the GED, but she's worried about Dong getting deported. Jacqueline puts Buckley on Dyziplen to treat his hyperactivity.6. Kimmy Drives a Car!30mHipsters invade the neighborhood when Titus rents his apartment on Airbnb. Kimmy finally reaches her limit with Jacqueline's self-centered attitude.7. Kimmy Walks Into a Bar!31mJacqueline's gala plans hit a snag when Deirdre Robespierre throws a party the same night. Kimmy stops to pee at a bar and meets a cute Army vet.8. Kimmy Goes to a Hotel!29mOn Fake Christmas, Kimmy and Dong take a trip to the Poconos, and a Jewish family claims that Jacqueline's prized Mondrian is rightfully theirs.9. Kimmy Meets a Drunk Lady!30mA drunk Uber passenger convinces Kimmy to stop repressing her emotions. Meanwhile, a broken R. Kelly cassette tape pushes Titus over the edge.10. Kimmy Goes to Her Happy Place!30mKimmy has her first therapy session with Andrea, but it's Lillian who helps her get in touch with her anger. Mikey comes out to his family.11. Kimmy Meets a Celebrity!31mA celebrity psychologist with a TV talk show drives a wedge between Kimmy and her former bunker-mate Cyndee. Titus gives a teenage boy dating advice.12. Kimmy Sees a Sunset!34mKimmy tries to help Andrea with her drinking problem. Jacqueline dates a pro bono lawyer for his money. Titus and Mikey talk about moving in together.13. Kimmy Finds Her Mom!37mWhile Kimmy reunites with her mom at Universal Studios, Titus heads to Miami. Jacqueline invites Russ and his family to Thanksgiving dinner., Release Year: 2017Change is afoot as Kimmy saves up for college, Titus searches for a new job, Jacqueline takes the next step with Russ, and Lillian runs for office.1. Kimmy Gets Divorced?!30mBack in New York, Titus goes to great lengths to score an audition for "Sesame Street." Jacqueline encourages Kimmy to play hardball with the Reverend.2. Kimmy's Roommate Lemonades!31mTitus unleashes his inner Beyoncé when he suspects Mikey of cheating. Kimmy checks out colleges, and Jacqueline and Lillian clash over city politics.3. Kimmy Can't Help You!32mA surprise visitor delivers divorce papers to Kimmy. Jacqueline comes up with a plan to get Russ’s dad to rename the Redskins.4. Kimmy Goes to College!33mKimmy makes a splash at Columbia University while doing odd jobs to save up for college. Titus sings backup for a controversial musician.5. Kimmy Steps on a Crack!31mThe FBI enlists Kimmy's help when former mole woman Gretchen tries to start a cult of her own. Titus is stricken with a strange disease.6. Kimmy Is a Feminist!31mKimmy goes to her first college party with her new friends. Jacqueline calls Titus for backup when Russ's brother puts the moves on her.7. Kimmy Learns About the Weather!29mTitus goes after big pharma when a drug company steals his likeness. Lillian convinces Kimmy that the weatherman can't be trusted.8. Kimmy Does a Puzzle!32mTitus makes a shocking confession about the cruise. When a hurricane hits, Kimmy turns their apartment into a "fun-ker" filled with games and puzzles.9. Kimmy Goes to Church!32mTitus takes Kimmy to church on Good Friday, where they tangle with an elderly busybody. Jacqueline gives Lillian a makeover for Passover.10. Kimmy Pulls Off a Heist!34mKimmy and Titus get in over their heads when they steal a gas station bathroom key. Jacqueline plots to infiltrate the NFL owners’ meeting.11. Kimmy Googles the Internet!33mKimmy discovers the humiliating power of the internet. Titus wonders if he's compatible with Reuben. Jacqueline takes care of Mimi after butt surgery.12. Kimmy and the Trolley Problem!32mRuss's transformation opens doors for Jacqueline. Kimmy wrestles with a philosophical dilemma. Artie invites Lillian on a European cruise.13. Kimmy Bites an Onion!33mKimmy decides to become a crossing guard. Buoyed by the success of "Boobs in California," Titus tries to win back Mikey with help from Jacqueline., Release Year: 2017, 1. Kimmy Gets Divorced?!30mBack in New York, Titus goes to great lengths to score an audition for "Sesame Street." Jacqueline encourages Kimmy to play hardball with the Reverend.2. Kimmy's Roommate Lemonades!31mTitus unleashes his inner Beyoncé when he suspects Mikey of cheating. Kimmy checks out colleges, and Jacqueline and Lillian clash over city politics.3. Kimmy Can't Help You!32mA surprise visitor delivers divorce papers to Kimmy. Jacqueline comes up with a plan to get Russ’s dad to rename the Redskins.4. Kimmy Goes to College!33mKimmy makes a splash at Columbia University while doing odd jobs to save up for college. Titus sings backup for a controversial musician.5. Kimmy Steps on a Crack!31mThe FBI enlists Kimmy's help when former mole woman Gretchen tries to start a cult of her own. Titus is stricken with a strange disease.6. Kimmy Is a Feminist!31mKimmy goes to her first college party with her new friends. Jacqueline calls Titus for backup when Russ's brother puts the moves on her.7. Kimmy Learns About the Weather!29mTitus goes after big pharma when a drug company steals his likeness. Lillian convinces Kimmy that the weatherman can't be trusted.8. Kimmy Does a Puzzle!32mTitus makes a shocking confession about the cruise. When a hurricane hits, Kimmy turns their apartment into a "fun-ker" filled with games and puzzles.9. Kimmy Goes to Church!32mTitus takes Kimmy to church on Good Friday, where they tangle with an elderly busybody. Jacqueline gives Lillian a makeover for Passover.10. Kimmy Pulls Off a Heist!34mKimmy and Titus get in over their heads when they steal a gas station bathroom key. Jacqueline plots to infiltrate the NFL owners’ meeting.11. Kimmy Googles the Internet!33mKimmy discovers the humiliating power of the internet. Titus wonders if he's compatible with Reuben. Jacqueline takes care of Mimi after butt surgery.12. Kimmy and the Trolley Problem!32mRuss's transformation opens doors for Jacqueline. Kimmy wrestles with a philosophical dilemma. Artie invites Lillian on a European cruise.13. Kimmy Bites an Onion!33mKimmy decides to become a crossing guard. Buoyed by the success of "Boobs in California," Titus tries to win back Mikey with help from Jacqueline. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2015Freed from prison, Steven Avery faces a new criminal case amid allegations of police misconduct and witness coercion in this real-life thriller.1. Eighteen Years Lost65mWhen Steven Avery is freed from a wrongful conviction, his search for justice raises questions about the authorities who put him behind bars.2. Turning the Tables57mAs Steven starts creating a new life for himself, he pursues a lawsuit against Manitowoc County law enforcement officials for corruption in his case.3. Plight of the Accused63mSteven is back in jail, charged with murder, but there are troubling questions about how he was arrested and why.4. Indefensible67mAn unexpected confession casts doubt on Steven's role in the murder case, but the new suspect gives conflicting accounts of what occurred.5. The Last Person to See Teresa Alive59mAs Steven's trial begins, his attorneys argue that law enforcement officials framed him and were negligent in not pursuing other leads in the case.6. Testing the Evidence60mSteven's attorneys cross-examine forensic experts about contaminated evidence and the absence of proof linking Steven to the crime.7. Framing Defense64mAs the murder trial continues, Steven's attorneys present their case that law enforcement officials planted evidence to frame him.8. The Great Burden47mAfter two long days of closing arguments, the jury deliberates. Steven's fate hinges on whether the jury believes police misconduct may have occurred.9. Lack of Humility67mSteven's trial is over, but a new one is just beginning. Will the jury find the suspect's confession or his conflicting statements more believable?10. Fighting for their Lives64mIn the years after Steven and Brendan's very public trials, the various members of the Avery family struggle to mend their broken lives., Release Year: 2015Freed from prison, Steven Avery faces a new criminal case amid allegations of police misconduct and witness coercion in this real-life thriller.1. Eighteen Years Lost65mWhen Steven Avery is freed from a wrongful conviction, his search for justice raises questions about the authorities who put him behind bars.2. Turning the Tables57mAs Steven starts creating a new life for himself, he pursues a lawsuit against Manitowoc County law enforcement officials for corruption in his case.3. Plight of the Accused63mSteven is back in jail, charged with murder, but there are troubling questions about how he was arrested and why.4. Indefensible67mAn unexpected confession casts doubt on Steven's role in the murder case, but the new suspect gives conflicting accounts of what occurred.5. The Last Person to See Teresa Alive59mAs Steven's trial begins, his attorneys argue that law enforcement officials framed him and were negligent in not pursuing other leads in the case.6. Testing the Evidence60mSteven's attorneys cross-examine forensic experts about contaminated evidence and the absence of proof linking Steven to the crime.7. Framing Defense64mAs the murder trial continues, Steven's attorneys present their case that law enforcement officials planted evidence to frame him.8. The Great Burden47mAfter two long days of closing arguments, the jury deliberates. Steven's fate hinges on whether the jury believes police misconduct may have occurred.9. Lack of Humility67mSteven's trial is over, but a new one is just beginning. Will the jury find the suspect's confession or his conflicting statements more believable?10. Fighting for their Lives64mIn the years after Steven and Brendan's very public trials, the various members of the Avery family struggle to mend their broken lives., Release Year: 2015, 1. Eighteen Years Lost65mWhen Steven Avery is freed from a wrongful conviction, his search for justice raises questions about the authorities who put him behind bars.2. Turning the Tables57mAs Steven starts creating a new life for himself, he pursues a lawsuit against Manitowoc County law enforcement officials for corruption in his case.3. Plight of the Accused63mSteven is back in jail, charged with murder, but there are troubling questions about how he was arrested and why.4. Indefensible67mAn unexpected confession casts doubt on Steven's role in the murder case, but the new suspect gives conflicting accounts of what occurred.5. The Last Person to See Teresa Alive59mAs Steven's trial begins, his attorneys argue that law enforcement officials framed him and were negligent in not pursuing other leads in the case.6. Testing the Evidence60mSteven's attorneys cross-examine forensic experts about contaminated evidence and the absence of proof linking Steven to the crime.7. Framing Defense64mAs the murder trial continues, Steven's attorneys present their case that law enforcement officials planted evidence to frame him.8. The Great Burden47mAfter two long days of closing arguments, the jury deliberates. Steven's fate hinges on whether the jury believes police misconduct may have occurred.9. Lack of Humility67mSteven's trial is over, but a new one is just beginning. Will the jury find the suspect's confession or his conflicting statements more believable?10. Fighting for their Lives64mIn the years after Steven and Brendan's very public trials, the various members of the Avery family struggle to mend their broken lives. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2016Forced to work for a cartel that recently killed her boyfriend, Teresa relies on her street smarts, a loyal pal and a mysterious notebook to survive.1. Pilot45mTeresa, a money changer in Mexico, falls for drug dealer Güero, whose murder a year later forces her to flee from his enemies and lands her in Dallas.2. Forty Minutes39mTo avoid prostitution, Teresa offers to be a drug mule and is put to the test. Meanwhile in Mexico, Brenda and her son try to evade Epifanio's thugs.3. Entry Strategy40mTeresa proves her loyalty to Camila and later impresses the trafficking boss with a special skill she picked up as a money changer in Mexico.4. Lily of the Valley40mTeresa must think fast when things don't go as planned during her first solo delivery. Camila tries to win over her estranged husband's associates.5. A Soul. A Map. Two Futures.40mTo set up the murder of a rival drug boss, Teresa infiltrates a wild party at an estate. Brenda spots a business opportunity right outside her motel.6. Deception Is the Rule40mAfter Epifanio tips off the DEA about Camila's incoming shipment from Colombia, she considers an idea involving Teresa that would cover the huge loss.7. The Birdman40mTeresa visits the immigration lawyer. To pay back the Colombians, Camila sends James and Teresa to retrieve a stash of savings, but they're ambushed.8. Magic Ticket40mBrenda and her crew try making meth. As part of the plan to steal 25 kilos of cocaine from James's friends, Teresa goes undercover as a hotel maid.9. Take All You Can41mAfter learning the hotel maid will be killed, Teresa scrambles to help her escape to safety. A man from Florida comes to avenge his brothers' deaths.10. This 'Thing' That Is Ours42mIn Mexico, Teresa is met by María's irate relatives, who complicate her plans to retrieve Güero's notebook. Camila reunites with her estranged spouse.11. Point of No Return40mBrenda visits the Birdman's mansion and makes him an offer. Unbeknownst to either of them, James is taking aim at the kingpin with a sniper rifle.12. Five Hundred Thousand39mThe coordinates lead Teresa and Brenda to a shocking find. James leads a risky mission to extract a Jimenez cartel lieutenant from a DEA safe house.13. Scar39mWhen Epifanio learns his men have joined Camila's side, he retaliates in a way she's unprepared for. Hearing of this, Teresa makes Camila an offer., Release Year: 2016Forced to work for a cartel that recently killed her boyfriend, Teresa relies on her street smarts, a loyal pal and a mysterious notebook to survive.1. Pilot45mTeresa, a money changer in Mexico, falls for drug dealer Güero, whose murder a year later forces her to flee from his enemies and lands her in Dallas.2. Forty Minutes39mTo avoid prostitution, Teresa offers to be a drug mule and is put to the test. Meanwhile in Mexico, Brenda and her son try to evade Epifanio's thugs.3. Entry Strategy40mTeresa proves her loyalty to Camila and later impresses the trafficking boss with a special skill she picked up as a money changer in Mexico.4. Lily of the Valley40mTeresa must think fast when things don't go as planned during her first solo delivery. Camila tries to win over her estranged husband's associates.5. A Soul. A Map. Two Futures.40mTo set up the murder of a rival drug boss, Teresa infiltrates a wild party at an estate. Brenda spots a business opportunity right outside her motel.6. Deception Is the Rule40mAfter Epifanio tips off the DEA about Camila's incoming shipment from Colombia, she considers an idea involving Teresa that would cover the huge loss.7. The Birdman40mTeresa visits the immigration lawyer. To pay back the Colombians, Camila sends James and Teresa to retrieve a stash of savings, but they're ambushed.8. Magic Ticket40mBrenda and her crew try making meth. As part of the plan to steal 25 kilos of cocaine from James's friends, Teresa goes undercover as a hotel maid.9. Take All You Can41mAfter learning the hotel maid will be killed, Teresa scrambles to help her escape to safety. A man from Florida comes to avenge his brothers' deaths.10. This 'Thing' That Is Ours42mIn Mexico, Teresa is met by María's irate relatives, who complicate her plans to retrieve Güero's notebook. Camila reunites with her estranged spouse.11. Point of No Return40mBrenda visits the Birdman's mansion and makes him an offer. Unbeknownst to either of them, James is taking aim at the kingpin with a sniper rifle.12. Five Hundred Thousand39mThe coordinates lead Teresa and Brenda to a shocking find. James leads a risky mission to extract a Jimenez cartel lieutenant from a DEA safe house.13. Scar39mWhen Epifanio learns his men have joined Camila's side, he retaliates in a way she's unprepared for. Hearing of this, Teresa makes Camila an offer., Release Year: 2016, 1. Pilot45mTeresa, a money changer in Mexico, falls for drug dealer Güero, whose murder a year later forces her to flee from his enemies and lands her in Dallas.2. Forty Minutes39mTo avoid prostitution, Teresa offers to be a drug mule and is put to the test. Meanwhile in Mexico, Brenda and her son try to evade Epifanio's thugs.3. Entry Strategy40mTeresa proves her loyalty to Camila and later impresses the trafficking boss with a special skill she picked up as a money changer in Mexico.4. Lily of the Valley40mTeresa must think fast when things don't go as planned during her first solo delivery. Camila tries to win over her estranged husband's associates.5. A Soul. A Map. Two Futures.40mTo set up the murder of a rival drug boss, Teresa infiltrates a wild party at an estate. Brenda spots a business opportunity right outside her motel.6. Deception Is the Rule40mAfter Epifanio tips off the DEA about Camila's incoming shipment from Colombia, she considers an idea involving Teresa that would cover the huge loss.7. The Birdman40mTeresa visits the immigration lawyer. To pay back the Colombians, Camila sends James and Teresa to retrieve a stash of savings, but they're ambushed.8. Magic Ticket40mBrenda and her crew try making meth. As part of the plan to steal 25 kilos of cocaine from James's friends, Teresa goes undercover as a hotel maid.9. Take All You Can41mAfter learning the hotel maid will be killed, Teresa scrambles to help her escape to safety. A man from Florida comes to avenge his brothers' deaths.10. This 'Thing' That Is Ours42mIn Mexico, Teresa is met by María's irate relatives, who complicate her plans to retrieve Güero's notebook. Camila reunites with her estranged spouse.11. Point of No Return40mBrenda visits the Birdman's mansion and makes him an offer. Unbeknownst to either of them, James is taking aim at the kingpin with a sniper rifle.12. Five Hundred Thousand39mThe coordinates lead Teresa and Brenda to a shocking find. James leads a risky mission to extract a Jimenez cartel lieutenant from a DEA safe house.13. Scar39mWhen Epifanio learns his men have joined Camila's side, he retaliates in a way she's unprepared for. Hearing of this, Teresa makes Camila an offer. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promising student Zurich opens his eyes to some hard truths when his fraternity's violent hazing escalates into a disastrous hell night. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Princess Diana's death, Queen Elizabeth II and Tony Blair face public demands that she be memorialized in a manner beyond standard protocol. 
+The film begins on the eve of the 1997 British general election, which sees Tony Blair (Sheen) elected as the United Kingdom's first Labour Party Prime Minister in 18 years. While posing for an official portrait, the Queen (Mirren) talks with the artist and expresses her regret about not being allowed to vote. She is slightly wary of the new prime minister and his pledge to "modernise" the country, but Blair promises to respect the independence of the Royal Family. When Blair visits Buckingham Palace to kiss hands, the Queen follows custom and asks him to form a Government in her name.Three months later, during a visit to Paris, Diana, Princess of Wales is killed in a car accident in the Pont de l'Alma tunnel along with her companion Dodi Fayed and driver Henri Paul. Blair's director of communications, Alastair Campbell (Mark Bazeley), immediately prepares a speech in which he describes her as "the people's princess." Blair gives the speech the next morning and the phrase catches on immediately. Over the next few days, millions of British people in London erupt in an outpouring of grief, as they flock to Buckingham and Kensington palaces to leave floral tributes and notes.Meanwhile, the Royal Family are still on their summer residence at Balmoral Castle, the Queen's estate in Aberdeenshire, Scotland. Diana's death immediately sparks division among senior members of the family; while the Queen is saddened by Diana's death, she and her husband differ with Prince Charles, Prince of Wales over what arrangements should be made. The Queen observes that since Diana divorced Charles (Alex Jennings) a year earlier, she is no longer a member of the Royal Family. Consequently, she insists that the funeral arrangements are a "private affair" and are best left to the princess's own family, the Spencers. A visibly grief stricken Prince Charles, however, argues that Diana was mother of the future King and that the Queen's suggestion is dismissive of this fact. Following her mother's suggestion, the Queen eventually sanctions the use of an aircraft of the Royal Flight to bring Diana's body back to Britain. Charles ensures that his ex-wife's coffin is draped with a Royal Standard instead of remaining a "wooden crate."In London, the bouquets begin to pile up along the palace railings, forcing the changing of the guard to use another gate. Meanwhile, British tabloids become increasingly inflammatory about the lack of any statement by the Royal Family. Prince Charles, during a brief conversation with Blair and later through back-channel contacts, leaves no doubt that he shares the Prime Minister's views about the need for a more public expression of grief. As the Queen's ratings plummet, Blair's popularity rises sharply, to the delight of the his Anti-Monarchist advisers and wife Cherie (Helen McCrory).Blair, however, does not share these sentiments. Despite not concurring with the Queen's course of action, he admires her and tells his wife that a Republican Britain is a ludicrous idea. Later on, he angrily denounces the anti-royal disdain of his Labour advisors and accuses Diana of having tried to destroy everything which the monarchy stands for. After days of building pressure, Blair calls the Queen at Balmoral and urgently recommends a course of action he believes is needed to regain the public's confidence in the monarchy. These measures include attending a public funeral for Diana at Westminster Abbey, flying a Union flag at half mast over Buckingham Palace (the flag is only meant to be flown when a Royal person is present and has never been used for mourning), and speaking to the nation about Diana's legacy in a live, televised address from the palace.Blair's recommendations outrage Prince Philip, Duke of Edinburgh (James Cromwell) and Queen Elizabeth, the Queen Mother (Sylvia Syms). Philip is also surprised that Elton John is asked to attend and sing a song, "Candle in the Wind" in Diana's honour. They view such steps as an undignified surrender to public hysteria, created by the tabloids, that will eventually calm down when the public comes to its senses. The Queen seems more concerned about this and although she shares their feelings, she begins to have doubts as she closely follows the news coverage. Speaking with her mother, the Queen muses that there has been some shift in public values, that perhaps she should step aside and hand over the monarchy to the next generation. The Queen Mother dismisses these ideas, however, saying that she is one of the greatest assets the monarchy has ever had, stated: "The real problem will come when you leave." She also reminds her daughter of the promise she made in Cape Town, South Africa, on April 21, 1947, her 21st birthday, in which she promised that her "whole life, whether it be long or short, shall be devoted to your service and the service of our great imperial family to which we all belong..."Later at Balmoral, Philip attempts to distract his grandsons from their mother's death by taking them deer stalking. While venturing out alone in her Land Rover, the Queen damages her vehicle while fording a river and has to call for assistance. While waiting, she weeps in frustration but then catches sight of the majestic Red Deer stag which her grandsons have been stalking. Hearing a distant gunshot, she shoos the animal away. Later that day, the Queen decides to carry out the recommendations of Blair. While preparing to return to London, she is horrified to learn that the stag has been killed on a neighbouring estate, by a visiting stockbroker. She visits the estate where the stag is being dressed and expresses dismay at the amateurish way it was hunted.In the film's climax, the Royal Family return to London and inspect the floral tributes. The Queen also goes on live television to speak about Diana's life and legacy, even going so far as calling her "an exceptional and gifted human being." Two months later, Blair comes to Buckingham Palace for a weekly meeting. The Queen has regained her popularity, but believes she will never quite fully recover from "that week." She cautions Blair that one day he too will find that public opinion can rapidly turn against him. She declares, however, that times have changed and that the monarchy must "modernise." When Blair suggests that he can help with this, The Queen responds, "Don't get ahead of yourself Prime Minister. Remember, I'm supposed to be the one advising you".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this thought-provoking documentary, scholars, activists and politicians analyze the criminalization of African Americans and the U.S. prison boom. 
+The 13th Amendment to the U. S. Constitution abolished slavery. But it also included a provision many people don't know about and that is what this documentary brings to view. "Neither slavery nor involuntary servitude, except as a punishment for crime whereof the party shall have been duly convicted, shall exist." That exception justifies the use of forced labor as long as the laborer is a convict. This documentary makes the case that inclusion of this loophole is only one of the justifications for continuing domination of people of color. The 13th Amendment was ratified in 1865 and director Ava DuVernay supports her thesis through the use of both historical footage and interviews. Film clips of former President Richard Nixon call for 'Law &amp; Order' which has resulted in exploding prison populations. The U. S. only has 5% of the world's population but has 25% of the world's prisoners. This Law &amp; Order policy enabled government to imprison blacks. John Ehrlichman was Assistant to President Nixon for Domestic Affairs: "Did we know we were lying? Of course we did." The documentary makes the case that those drug busts, Jim Crow laws and segregation are all variations of domination of black America. Currently the 'Prison/Industrial Complex' is just a new version of the same old problem. Here DuVernay returns to the 13th Amendment and makes the case that the system cannot be dealt with by making small changes. The system itself has to be rebuilt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2017After a teenage girl's perplexing suicide, a classmate receives a series of tapes that unravel the mystery of her tragic choice.1. Tape 1, Side A53mAs the school mourns the death of Hannah Baker, her friend Clay receives a box of tapes with messages she recorded before she committed suicide.2. Tape 1, Side B52mHannah makes friends with Jessica and Alex, two other new students. Justin doesn't show up at school, and Hannah's mother finds something troubling.3. Tape 2, Side A57mJealousy and gossip take a toll on Hannah's relationships. As Alex struggles with feelings of regret, the guys pressure Clay into getting drunk.4. Tape 2, Side B57mHannah thinks someone is stalking her and sets a trap. Hannah's mother confronts the principal, and Clay strikes back at someone who wronged Hannah.5. Tape 3, Side A59mHannah and Clay connect at the school dance, but a crass rumor ruins the mood. Clay takes Courtney to visit Hannah's grave.6. Tape 3, Side B52mHannah's date on Valentine's Day doesn't go as planned. Alex gets in a big fight at school and has to face the honor board.7. Tape 4, Side A54mAnother student sabotages Hannah during a class project. Clay's nightmares about Hannah spill over into the daytime.8. Tape 4, Side B54mInspired by a friend’s poetry reading, Hannah pours her heart out. Tony confides in Clay about the night of Hannah's death.9. Tape 5, Side A59mHannah witnesses a traumatic event at a summertime party. Clay tries to reason with Justin, and Marcus warns him that the worst is yet to come.10. Tape 5, Side B50mA distraught Hannah gets a ride home from the party. Jessica's behavior grows increasingly erratic, and Clay learns the truth behind a tragedy.11. Tape 6, Side A55mClay and Hannah grow closer. While Clay spends a heartbreaking night listening to his tape with Tony, tensions boil over at Bryce's house.12. Tape 6, Side B62mHannah winds up at a party after an argument with her parents. The students are served with subpoenas, and Justin wrestles with conflicting loyalties.13. Tape 7, Side A60mHannah seeks help from Mr. Porter, the school counselor. Clay plays the new tape for Tony and weighs what to do next., Release Year: 2017After a teenage girl's perplexing suicide, a classmate receives a series of tapes that unravel the mystery of her tragic choice.1. Tape 1, Side A53mAs the school mourns the death of Hannah Baker, her friend Clay receives a box of tapes with messages she recorded before she committed suicide.2. Tape 1, Side B52mHannah makes friends with Jessica and Alex, two other new students. Justin doesn't show up at school, and Hannah's mother finds something troubling.3. Tape 2, Side A57mJealousy and gossip take a toll on Hannah's relationships. As Alex struggles with feelings of regret, the guys pressure Clay into getting drunk.4. Tape 2, Side B57mHannah thinks someone is stalking her and sets a trap. Hannah's mother confronts the principal, and Clay strikes back at someone who wronged Hannah.5. Tape 3, Side A59mHannah and Clay connect at the school dance, but a crass rumor ruins the mood. Clay takes Courtney to visit Hannah's grave.6. Tape 3, Side B52mHannah's date on Valentine's Day doesn't go as planned. Alex gets in a big fight at school and has to face the honor board.7. Tape 4, Side A54mAnother student sabotages Hannah during a class project. Clay's nightmares about Hannah spill over into the daytime.8. Tape 4, Side B54mInspired by a friend’s poetry reading, Hannah pours her heart out. Tony confides in Clay about the night of Hannah's death.9. Tape 5, Side A59mHannah witnesses a traumatic event at a summertime party. Clay tries to reason with Justin, and Marcus warns him that the worst is yet to come.10. Tape 5, Side B50mA distraught Hannah gets a ride home from the party. Jessica's behavior grows increasingly erratic, and Clay learns the truth behind a tragedy.11. Tape 6, Side A55mClay and Hannah grow closer. While Clay spends a heartbreaking night listening to his tape with Tony, tensions boil over at Bryce's house.12. Tape 6, Side B62mHannah winds up at a party after an argument with her parents. The students are served with subpoenas, and Justin wrestles with conflicting loyalties.13. Tape 7, Side A60mHannah seeks help from Mr. Porter, the school counselor. Clay plays the new tape for Tony and weighs what to do next., Release Year: 2017, 1. Tape 1, Side A53mAs the school mourns the death of Hannah Baker, her friend Clay receives a box of tapes with messages she recorded before she committed suicide.2. Tape 1, Side B52mHannah makes friends with Jessica and Alex, two other new students. Justin doesn't show up at school, and Hannah's mother finds something troubling.3. Tape 2, Side A57mJealousy and gossip take a toll on Hannah's relationships. As Alex struggles with feelings of regret, the guys pressure Clay into getting drunk.4. Tape 2, Side B57mHannah thinks someone is stalking her and sets a trap. Hannah's mother confronts the principal, and Clay strikes back at someone who wronged Hannah.5. Tape 3, Side A59mHannah and Clay connect at the school dance, but a crass rumor ruins the mood. Clay takes Courtney to visit Hannah's grave.6. Tape 3, Side B52mHannah's date on Valentine's Day doesn't go as planned. Alex gets in a big fight at school and has to face the honor board.7. Tape 4, Side A54mAnother student sabotages Hannah during a class project. Clay's nightmares about Hannah spill over into the daytime.8. Tape 4, Side B54mInspired by a friend’s poetry reading, Hannah pours her heart out. Tony confides in Clay about the night of Hannah's death.9. Tape 5, Side A59mHannah witnesses a traumatic event at a summertime party. Clay tries to reason with Justin, and Marcus warns him that the worst is yet to come.10. Tape 5, Side B50mA distraught Hannah gets a ride home from the party. Jessica's behavior grows increasingly erratic, and Clay learns the truth behind a tragedy.11. Tape 6, Side A55mClay and Hannah grow closer. While Clay spends a heartbreaking night listening to his tape with Tony, tensions boil over at Bryce's house.12. Tape 6, Side B62mHannah winds up at a party after an argument with her parents. The students are served with subpoenas, and Justin wrestles with conflicting loyalties.13. Tape 7, Side A60mHannah seeks help from Mr. Porter, the school counselor. Clay plays the new tape for Tony and weighs what to do next. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2015In Season 1, a cyberbullying incident results in murder, recalling a killing spree from the past that may be connected to the current bloodshed.1. Pilot44mIn the small town of Lakewood, the murder of a high school student stirs memories of a similar slaying that took place 20 years earlier.2. Hello, Emma39mAnother death raises questions and causes a further rift between Emma and Audrey. A provocative podcaster arrives in town to report on the murders.3. Wanna Play a Game?39mJust as the killer challenges her to a dangerous game, Emma learns that her mother has been keeping more secrets.4. Aftermath39mEmma receives a mysterious message, leading her, Noah and Audrey to go in search of answers. Brooke feels guilty for leaving her best friend behind.5. Exposed41mAfter a scandalous video leaks, Emma discovers a heartbreaking secret. Sheriff Hudson is replaced by a state police investigator.6. Betrayed40mWhen an official investigation of Rachel's death is finally launched, Emma learns that the new prime suspect is someone close to her.7. In the Trenches40mEmma races against the clock to save a friend from the Lakewood murderer's dangerous game of hide-and-seek.8. Ghosts40mEmma reels from another death in Lakewood but uncovers a new secret from the past.9. The Dance40mDoubting that the real killer has been caught, Emma teams up with Piper to find answers at the big Halloween dance.10. Revelations41mAs she races to save the life of another loved one, Emma finally discovers the killer's true identity., Release Year: 2015, 1. Pilot44mIn the small town of Lakewood, the murder of a high school student stirs memories of a similar slaying that took place 20 years earlier.2. Hello, Emma39mAnother death raises questions and causes a further rift between Emma and Audrey. A provocative podcaster arrives in town to report on the murders.3. Wanna Play a Game?39mJust as the killer challenges her to a dangerous game, Emma learns that her mother has been keeping more secrets.4. Aftermath39mEmma receives a mysterious message, leading her, Noah and Audrey to go in search of answers. Brooke feels guilty for leaving her best friend behind.5. Exposed41mAfter a scandalous video leaks, Emma discovers a heartbreaking secret. Sheriff Hudson is replaced by a state police investigator.6. Betrayed40mWhen an official investigation of Rachel's death is finally launched, Emma learns that the new prime suspect is someone close to her.7. In the Trenches40mEmma races against the clock to save a friend from the Lakewood murderer's dangerous game of hide-and-seek.8. Ghosts40mEmma reels from another death in Lakewood but uncovers a new secret from the past.9. The Dance40mDoubting that the real killer has been caught, Emma teams up with Piper to find answers at the big Halloween dance.10. Revelations41mAs she races to save the life of another loved one, Emma finally discovers the killer's true identity., Release Year: 2016In Season 2, six months have passed and new faces appear as the hunt begins for the Lakewood High killer's mysterious, unknown partner in crime.1. I Know What You Did Last Summer43mEmma returns to Lakewood hoping to move on, while a mysterious provocateur threatens to expose Audrey’s secret and one of our own meets a grizzly end.2. Psycho40mEmma makes progress in facing her fears, until a figure from her past unexpectedly arrives in town. Noah pursues an unsettling lead for his podcast.3. Vacancy40mEmma’s relationship with her father grows more complicated while Audrey’s stalker raises the stakes with a bloody gift.4. Happy Birthday to Me41mBrooke’s worry over a friend’s disappearance ends when a surprise party takes the Lakewood Six on an unexpected trip deep into their subconscious.5. Dawn of the Dead41mAnother murder puts GW High into lockdown, and suspicions rise as Emma and her friends fear that their nightmares are coming true all over again.6. Jeepers Creepers41mBrooke takes action on unfinished business, Emma and Kieran struggle with trust issues, and Noah’s investigation lands him and Audrey in peril.7. Let The Right One In40mEli takes Emma on a heated criminal adventure, Noah and Zoe’s relationship intensifies, and the killer lures Brooke and Audrey into a deadly trap.8. Village of the Damned40mThe killer uses Lakewood's annual carnival to run Emma through a not-so-fun fun house, while Brooke lashes out at the entire town.9. The Orphanage40mDespite their feud, Emma and Audrey discover why the Killer is targeting them, and a long-missing body of evidence is finally found.10. The Vanishing41mThe killer further divides Audrey and Emma and uses Noah’s affection for Zoe against him. Maggie and Acosta worry about secrets in their past.11. Heavenly Creatures38mNoah has doubts about continuing his Morgue podcast. Emma and Audrey become prime suspects when evidence implicates them in the killing spree.12. When a Stranger Calls40mOn the run and branded as Lakewood's most wanted, Emma and Audrey face off against the killer and unmask Piper's final surprise.13. Finale: Halloween / Halloween II81mThe Lakewood survivors take refuge on a remote island with an infamous past and end up in a bloody standoff. Is it an old legend coming back to life?, Release Year: 2016, 1. I Know What You Did Last Summer43mEmma returns to Lakewood hoping to move on, while a mysterious provocateur threatens to expose Audrey’s secret and one of our own meets a grizzly end.2. Psycho40mEmma makes progress in facing her fears, until a figure from her past unexpectedly arrives in town. Noah pursues an unsettling lead for his podcast.3. Vacancy40mEmma’s relationship with her father grows more complicated while Audrey’s stalker raises the stakes with a bloody gift.4. Happy Birthday to Me41mBrooke’s worry over a friend’s disappearance ends when a surprise party takes the Lakewood Six on an unexpected trip deep into their subconscious.5. Dawn of the Dead41mAnother murder puts GW High into lockdown, and suspicions rise as Emma and her friends fear that their nightmares are coming true all over again.6. Jeepers Creepers41mBrooke takes action on unfinished business, Emma and Kieran struggle with trust issues, and Noah’s investigation lands him and Audrey in peril.7. Let The Right One In40mEli takes Emma on a heated criminal adventure, Noah and Zoe’s relationship intensifies, and the killer lures Brooke and Audrey into a deadly trap.8. Village of the Damned40mThe killer uses Lakewood's annual carnival to run Emma through a not-so-fun fun house, while Brooke lashes out at the entire town.9. The Orphanage40mDespite their feud, Emma and Audrey discover why the Killer is targeting them, and a long-missing body of evidence is finally found.10. The Vanishing41mThe killer further divides Audrey and Emma and uses Noah’s affection for Zoe against him. Maggie and Acosta worry about secrets in their past.11. Heavenly Creatures38mNoah has doubts about continuing his Morgue podcast. Emma and Audrey become prime suspects when evidence implicates them in the killing spree.12. When a Stranger Calls40mOn the run and branded as Lakewood's most wanted, Emma and Audrey face off against the killer and unmask Piper's final surprise.13. Finale: Halloween / Halloween II81mThe Lakewood survivors take refuge on a remote island with an infamous past and end up in a bloody standoff. Is it an old legend coming back to life? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A year after her mother's brutal murder, a high school girl and her friends are stalked by a serial killer who's obsessed with horror movies. 
+The film opens with young Casey Becker (Drew Barrymore) recieving phone calls from an unidentified caller. At first it seems as if he has gotten a wrong number, but it soon becomes clear he is toying with her, and his voice gets more and more threatening. Casey becomes frightened when she realizes her caller can see her. She begins to panic when the caller threatens to kill her, and forces her to answer movie trivia in exchange for her life and the life of her boyfriend, Steve, who she sees tied up on her back patio. After killing Steve, the caller torments Casey until finally breaking into the house and chasing her; he is dressed in a black costume with a white ghost mask over his face. He chases her across her lawn just as her parents pull up into the driveway. They do not see her, and Casey is stabbed in the chest, unable to scream. After killing Casey, the murderer strings up her body in the back yard for the parents to discover.We then meet Sidney Prescott (Neve Campbell) and her boyfriend Billy Loomis (Skeet Ulrich). Billy sneaks into her bedroom window and attempts to have sex with her, but Sidney is unsure and wants to remain a virgin for now. They are almost discovered by Sidney's father, Neil (Lawrence Hecht), and he comes into Sidney's room to discuss the fact that he is going out of town. We learn that Sidney's mother was killed almost one year before, and that Sidney and her father are alone. Sidney's testimony identified Cotton Weary (Liev Schreiber) as the killer, although Cotton swears that he is innocent.The next day, Sidney's school is abuzz with news of the murder, and classes are temporarily cancelled. Sidney decides that since her father is gone and she is alone, she is going to stay with her her best friend Tatum (Rose McGowan). Sidney, Tatum, and BIlly sit with their group of friends, which includes Randy (Jamie Kennedy), who is obsessed with horror movies, and Stu (Matthew Lilliard), a class clown type who used to date Casey Becker.Sidney goes home to wait for Tatum to pick her up. The phone rings and she hears a strange voice, the same one that was on the phone with Casey. At first she thinks it is Randy joking around, but the caller turns abusive and brings up Sidney's mother. "Do you wanna die, Sidney? Your mother sure didn't!" The killer emerges from a closet in Sidney's house and a chase starts through out the house and Sidney locks herself in her bedroom and dials 911. Then Billy arrives, climbing through Sidney's window again, and a cell phone falls out of his pocket. Sidney realizes that it may have been him phoning her and she runs downs stairs and out of the house only to be greeted by the police.She is taken to the police station along with Billy, where he is questioned. At the police station, Sidney meets Dewey (David Arquette), Tatum's older brother and the town deputy, who is considered a dolt. Outside the police station, she is confronted by nosy reporter Gail Weathers (Courtney Cox), the writer of an expose about the murder of Sidney's mother. Gail feels that Cotton Weary was wrongfully convicted, and now Gail is following up a story about the murder of Casey Becker; she feels the murders are connected.Tatum takes Sidney to her house, where she recieves another phone call from the killer, who tells her "You got the wrong guy, Sidney...again." The next day at school, Sidney is threatened by the killer while she is in the bathroom, but she escapes.School is over and a curfew is in place, so the group of friends decide to throw a party. Gail Weathers takes a cameraman to the party in an attempt to talk to Sidney, but Dewey intercepts her. The two of them talk and seem to have a mutual affection for one another. They enter the party and Dewey chooses not to bust the partygoers for underage drinking. During the party Billy and Sidney go upstairs and Sidney has sex with him. Meanwhile, Tatum is murdered in the garage by the killer, who has infiltrated the party after all.After the interlude between Sidney and Billy, the door opens and in walks the killer, who stabs Billy in the back. Another chase starts. Dewey is stabbed. Gale, in her newsvan, swerves to avoid hitting Sidney and runs her car down a hill, striking a tree and appearing to be killed.Sidney ends up in the house facing Randy and Stu, both claiming the other is the killer. Stu is vying to come inside and obtain the gun, while Randy wants to leave. Eventually Billy stumbles down the stairs, bloodied, and lets Randy and Stu into the house, shooting Randy and turning to reveal that the blood is fake; Billy was only pretending to be stabbed. He was aided by his accomplice, Stu; both of them are the killers. Billy also reveals that he was responsible for killing Sidney's mother, who had an affair with his father. Billy blamed Mrs. Prescott for the dissolution of his parents' marriage, and murdered Mrs. Prescott out of revenge. Billy and Stu also reveal that they have kidnapped Mr. Prescott, who is tied up in a closet. They have framed Mr. Prescott for the murders, and intend to wound themselves to make it look as if Mr. Prescott attacked them, at which point they will kill both him and Sidney.Billy and Stu inflict flesh wounds on one another with the knife, but they are interrupted by Gail Weathers, who returns, armed with Dewey's gun. Gail forgets to switch off the gun's safety, and a struggle ensues. Sidney strikes back at her tormenters, killing Stu with a television and shooting Billy in the head with the gun. Dewey is revealed to be alive, as is Randy. All ends well as Gale reports that the Macher house has been the scene of what seemed to be some real-life scary movie.
+</t>
   </si>
   <si>
     <t>Thrillers, Psychological Thrillers, Political Thrillers</t>
@@ -146,6 +344,42 @@
     <t>TV Shows, Crime TV Shows, TV Dramas, Crime TV Dramas</t>
   </si>
   <si>
+    <t>TV Shows, Crime TV Shows, TV Documentaries, Crime TV Documentaries, Documentaries, Crime Documentaries</t>
+  </si>
+  <si>
+    <t>Comedies, Dramas, Independent Dramas, Independent Movies, Independent Comedies</t>
+  </si>
+  <si>
+    <t>TV Shows, TV Comedies, TV Dramas, TV Dramedies</t>
+  </si>
+  <si>
+    <t>TV Shows, TV Comedies, Sitcoms</t>
+  </si>
+  <si>
+    <t>TV Shows, Crime TV Shows, TV Documentaries, Crime TV Documentaries, Documentaries, Crime Documentaries, Social &amp; Cultural Docs</t>
+  </si>
+  <si>
+    <t>TV Shows, Crime TV Shows, TV Action &amp; Adventure, TV Dramas, Crime TV Dramas</t>
+  </si>
+  <si>
+    <t>Dramas, Independent Dramas, Independent Movies</t>
+  </si>
+  <si>
+    <t>Dramas, Biographical Dramas, Dramas based on Real Life, 20th Century Period Pieces, Political Dramas, British Movies</t>
+  </si>
+  <si>
+    <t>Documentaries, Social &amp; Cultural Docs</t>
+  </si>
+  <si>
+    <t>TV Shows, Crime TV Shows, TV Dramas, Crime TV Dramas, TV Teen Dramas, TV Mysteries, Teen TV Shows</t>
+  </si>
+  <si>
+    <t>TV Shows, TV Horror, TV Mysteries, Teen TV Shows</t>
+  </si>
+  <si>
+    <t>Cult Movies, Cult Horror Movies, Horror Movies, Slasher and Serial Killer Movies, Teen Screams</t>
+  </si>
+  <si>
     <t>Jonathan Demme</t>
   </si>
   <si>
@@ -155,6 +389,21 @@
     <t>Jennie Livingston</t>
   </si>
   <si>
+    <t>Rick Famuyiwa</t>
+  </si>
+  <si>
+    <t>Gerard McMurray</t>
+  </si>
+  <si>
+    <t>Stephen Frears</t>
+  </si>
+  <si>
+    <t>Ava DuVernay</t>
+  </si>
+  <si>
+    <t>Wes Craven</t>
+  </si>
+  <si>
     <t>Denzel Washington, Meryl Streep, Liev Schreiber</t>
   </si>
   <si>
@@ -167,16 +416,136 @@
     <t>Tom Selleck, Donnie Wahlberg, Bridget Moynahan</t>
   </si>
   <si>
+    <t>Shameik Moore, Tony Revolori, Kiersey Clemons</t>
+  </si>
+  <si>
+    <t>William H. Macy, Emmy Rossum, Justin Chatwin</t>
+  </si>
+  <si>
+    <t>Ellie Kemper, Jane Krakowski, Tituss Burgess</t>
+  </si>
+  <si>
+    <t>Alice Braga, Veronica Falcón, Justina Machado</t>
+  </si>
+  <si>
+    <t>Trevor Jackson, Alfre Woodard, Trevante Rhodes</t>
+  </si>
+  <si>
+    <t>Helen Mirren, Michael Sheen, James Cromwell</t>
+  </si>
+  <si>
+    <t>Dylan Minnette, Katherine Langford, Kate Walsh</t>
+  </si>
+  <si>
+    <t>Willa Fitzgerald, Bex Taylor-Klaus, John Karna</t>
+  </si>
+  <si>
+    <t>Neve Campbell, David Arquette, Courteney Cox</t>
+  </si>
+  <si>
     <t>Peter Morgan</t>
   </si>
   <si>
     <t>Robin Green, Mitchell Burgess</t>
   </si>
   <si>
+    <t>Paul Abbott, John Wells</t>
+  </si>
+  <si>
+    <t>Tina Fey, Robert Carlock</t>
+  </si>
+  <si>
+    <t>Joshua John Miller, M.A. Fortin</t>
+  </si>
+  <si>
+    <t>Brian Yorkey</t>
+  </si>
+  <si>
+    <t>Jill E. Blotevogel, Jay Beattie, Dan Dworkin</t>
+  </si>
+  <si>
     <t>1. Wolferton Splash, 2. Hyde Park Corner, 3. Windsor, 4. Act of God, 5. Smoke and Mirrors, 6. Gelignite, 7. Scientia Potentia Est, 8. Pride &amp; Joy, 9. Assassins, 10. Gloriana</t>
   </si>
   <si>
     <t>1. Pilot, 2. Samaritan, 3. Privilege, 4. Officer Down, 5. What You See, 6. Smack Attack, 7. Brothers, 8. Chinatown, 9. Re-Do, 10. After Hours, 11. Little Fish, 12. Family Ties, 13. Hall of Mirrors, 14. My Funny Valentine, 15. Dedication, 16. Age of Innocence, 17. Silver Star, 18. To Tell the Truth, 19. Model Behavior, 20. All That Glitters, 21. Cellar Boy, 22. The Blue Templar, 1. Mercy, 2. Friendly Fire, 3. Critical Condition, 4. Innocence, 5. A Night on the Town, 6. Black and Blue, 7. Lonely Hearts Club, 8. Thanksgiving, 9. Moonlighting, 10. Whistle Blower, 11. The Uniform, 12. The Job, 13. Leap of Faith, 14. Parenthood, 15. The Life We Choose, 16. Women with Guns, 17. Reagan v. Reagan, 18. No Questions Asked, 19. Some Kind of Hero, 20. Working Girls, 21. Collateral Damage, 22. Mother's Day, 1. Family Business, 2. Domestic Disturbance, 3. Old Wounds, 4. Scorched Earth, 5. Risk and Reward, 6. Greener Grass, 7. Nightmares, 8. Higher Education, 9. Secrets and Lies, 10. Fathers and Sons, 11. Front Page News, 12. Framed, 13. Inside Jobs, 14. Men in Black, 15. Warriors, 16. Quid Pro Quo, 17. Protest Too Much, 18. No Regrets, 19. Loss of Faith, 20. Ends &amp; Means, 21. Devil's Breath, 22. The Bitter End, 23. This Way Out, 1. Unwritten Rules, 2. The City That Never Sleeps, 3. To Protect and Serve, 4. The Truth About Lying, 5. Lost and Found, 6. Growing Boys, 7. Drawing Dead, 8. Justice Served, 9. Bad Blood, 10. Mistaken Identity, 11. Ties That Bind, 12. The Bogeyman, 13. Unfinished Business, 14. Manhattan Queens, 15. Open Secrets, 16. Insult to Injury, 17. Knockout Game, 18. Righting Wrongs, 19. Secret Arrangements, 20. Custody Battle, 21. Above and Beyond, 22. Exiles, 1. Partners, 2. Forgive and Forget, 3. Burning Bridges, 4. Excessive Force, 5. Loose Lips, 6. Most Wanted, 7. Shoot the Messenger, 8. Power of the Press, 9. Under the Gun, 10. Sins of the Father, 11. Baggage, 12. Home Sweet Home, 13. Love Stories, 14. The Poor Door, 15. Power Players, 16. In the Box, 17. Occupational Hazards, 18. Bad Company, 19. Through the Looking Glass, 20. Payback, 21. New Rules, 22. The Art of War, 1. Worst Case Scenario, 2. Absolute Power, 3. All the News That’s Fit to Click, 4. With Friends Like These, 5. Backstabbers, 6. Rush to Judgement, 7. The Bullitt Mustang, 8. Unsung Heroes, 9. Hold Outs, 10. Cursed, 11. Flags of Our Fathers, 12. Back in the Day, 13. Stomping Ground, 14. The Road to Hell, 15. Fresh Start, 16. Help Me Help You, 17. Friends in Need, 18. Town Without Pity, 19. Blast from the Past, 20. Down the Rabbit Hole, 21. The Extra Mile, 22. Blowback, 1. The Greater Good, 2. The Price of Justice, 3. Mob Rules, 4. Good Cop Bad Cop, 5. For the Community, 6. Whistleblowers, 7. Guilt by Association, 8. Personal Business, 9. Confessions, 10. Unbearable Loss, 11. Genetics, 12. Not Fade Away, 13. The One That Got Away, 14. In &amp; Out, 15. Lost Souls, 16. Hard Bargain, 17. Shadow of a Doubt, 18. A Deep Blue Goodbye, 19. Love Lost, 20. No Retreat, No Surrender, 21. Foreign Interference, 22. The Thin Blue Line</t>
+  </si>
+  <si>
+    <t>1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8, 9. Episode 9, 10. Episode 10, 11. Episode 11, 12. Episode 12, 1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8, 9. Episode 9, 10. Episode 10, 11. Episode 11, 12. Episode 12, 1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8, 9. Episode 9, 10. Episode 10, 11. Episode 11, 12. Episode 12</t>
+  </si>
+  <si>
+    <t>1. Pilot, 2. Frank the Plank, 3. Aunt Ginger, 4. Casey Casden, 5. Three Boys, 6. Killer Carl, 7. Frank Gallagher: Loving Husband, Devoted Father, 8. It's Time To Kill the Turtle, 9. But at Last Came a Knock, 10. Nana Gallagher Had An Affair, 11. Daddyz Girl, 12. Father Frank, Full of Grace, 1. Summertime, 2. Summer Loving, 3. I'll Light a Candle For You Every Day, 4. A Beautiful Mess, 5. Father's Day, 6. Can I Have a Mother?, 7. A Bottle of Jean Nate, 8. Parenthood, 9. Hurricane Monica, 10. A Great Cause, 11. Just Like the Pilgrims Intended, 12. Fiona Interrupted, 1. El Gran Cañon, 2. The American Dream, 3. May I Trim Your Hedges?, 4. The Helpful Gallaghers, 5. The Sins of My Caretaker, 6. Cascading Failures, 7. A Long Way from Home, 8. When There's a Will, 9. Frank the Plumber, 10. Civil Wrongs, 11. Order Room Service, 12. Survival of the Fittest, 1. Simple Pleasures, 2. My Oldest Daughter, 3. Like Father, Like Daughter, 4. Strangers on a Train, 5. There's the Rub, 6. Iron City, 7. A Jailbird, Invalid, Martyr, Cutter, Retard, and Parasitic Twin, 8. Hope Springs Paternal, 9. The Legend of Bonnie and Carl, 10. Liver, I Hardly Know Her, 11. Emily, 12. Lazarus, 1. Milk of the Gods, 2. I'm the Liver, 3. The Two Lisas, 4. A Night to Remem...Wait, What?, 5. Rite of Passage, 6. Crazy Love, 7. Tell Me You F**king Need Me, 8. Uncle Carl, 9. Carl's First Sentencing, 10. South Side Rules, 11. Drugs Actually, 12. Love Songs (In the Key of Gallagher), 1. I Only Miss Her When I'm Breathing, 2. #AbortionRules, 3. The F Word, 4. Going Once, Going Twice, 5. Refugees, 6. NSFW, 7. Pimp's Paradise, 8. Be a Good Boy. Come for Grandma, 9. A Yurt of One's Own, 10. Paradise Lost, 11. Sleep No More, 12. Familia Supra Gallegorious Omnia!, 1. Hiraeth, 2. Swipe, F**k, Leave, 3. Home Sweet Homeless Shelter, 4. I Am a Storm, 5. Own Your Sh*t, 6. The Defenestration of Frank, 7. You'll Never Ever Get a Chicken in Your Whole Entire Life, 8. You Sold Me the Laundromat, Remember?, 9. Ouroboros, 10. Ride or Die, 11. Happily Ever After, 12. Requiem for a Slut</t>
+  </si>
+  <si>
+    <t>1. Kimmy Goes Outside!, 2. Kimmy Gets a Job!, 3. Kimmy Goes on a Date!, 4. Kimmy Goes to the Doctor!, 5. Kimmy Kisses a Boy!, 6. Kimmy Goes to School!, 7. Kimmy Goes to a Party!, 8. Kimmy is Bad at Math!, 9. Kimmy Has a Birthday!, 10. Kimmy's in a Love Triangle!, 11. Kimmy Rides a Bike!, 12. Kimmy Goes to Court!, 13. Kimmy Makes Waffles!, 1. Kimmy Goes Roller Skating!, 2. Kimmy Goes on a Playdate!, 3. Kimmy Goes to a Play!, 4. Kimmy Kidnaps Gretchen!, 5. Kimmy Gives Up!, 6. Kimmy Drives a Car!, 7. Kimmy Walks Into a Bar!, 8. Kimmy Goes to a Hotel!, 9. Kimmy Meets a Drunk Lady!, 10. Kimmy Goes to Her Happy Place!, 11. Kimmy Meets a Celebrity!, 12. Kimmy Sees a Sunset!, 13. Kimmy Finds Her Mom!, 1. Kimmy Gets Divorced?!, 2. Kimmy's Roommate Lemonades!, 3. Kimmy Can't Help You!, 4. Kimmy Goes to College!, 5. Kimmy Steps on a Crack!, 6. Kimmy Is a Feminist!, 7. Kimmy Learns About the Weather!, 8. Kimmy Does a Puzzle!, 9. Kimmy Goes to Church!, 10. Kimmy Pulls Off a Heist!, 11. Kimmy Googles the Internet!, 12. Kimmy and the Trolley Problem!, 13. Kimmy Bites an Onion!</t>
+  </si>
+  <si>
+    <t>1. Eighteen Years Lost, 2. Turning the Tables, 3. Plight of the Accused, 4. Indefensible, 5. The Last Person to See Teresa Alive, 6. Testing the Evidence, 7. Framing Defense, 8. The Great Burden, 9. Lack of Humility, 10. Fighting for their Lives</t>
+  </si>
+  <si>
+    <t>1. Pilot, 2. Forty Minutes, 3. Entry Strategy, 4. Lily of the Valley, 5. A Soul. A Map. Two Futures., 6. Deception Is the Rule, 7. The Birdman, 8. Magic Ticket, 9. Take All You Can, 10. This 'Thing' That Is Ours, 11. Point of No Return, 12. Five Hundred Thousand, 13. Scar</t>
+  </si>
+  <si>
+    <t>1. Tape 1, Side A, 2. Tape 1, Side B, 3. Tape 2, Side A, 4. Tape 2, Side B, 5. Tape 3, Side A, 6. Tape 3, Side B, 7. Tape 4, Side A, 8. Tape 4, Side B, 9. Tape 5, Side A, 10. Tape 5, Side B, 11. Tape 6, Side A, 12. Tape 6, Side B, 13. Tape 7, Side A</t>
+  </si>
+  <si>
+    <t>1. Pilot, 2. Hello, Emma, 3. Wanna Play a Game?, 4. Aftermath, 5. Exposed, 6. Betrayed, 7. In the Trenches, 8. Ghosts, 9. The Dance, 10. Revelations, 1. I Know What You Did Last Summer, 2. Psycho, 3. Vacancy, 4. Happy Birthday to Me, 5. Dawn of the Dead, 6. Jeepers Creepers, 7. Let The Right One In, 8. Village of the Damned, 9. The Orphanage, 10. The Vanishing, 11. Heavenly Creatures, 12. When a Stranger Calls, 13. Finale: Halloween / Halloween II</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>TV Show</t>
+  </si>
+  <si>
+    <t>tt0368008</t>
+  </si>
+  <si>
+    <t>tt3521164</t>
+  </si>
+  <si>
+    <t>tt0100332</t>
+  </si>
+  <si>
+    <t>tt4786824</t>
+  </si>
+  <si>
+    <t>tt1595859</t>
+  </si>
+  <si>
+    <t>tt1181320</t>
+  </si>
+  <si>
+    <t>tt3850214</t>
+  </si>
+  <si>
+    <t>tt1586680</t>
+  </si>
+  <si>
+    <t>tt3339966</t>
+  </si>
+  <si>
+    <t>tt5189670</t>
+  </si>
+  <si>
+    <t>tt1064899</t>
+  </si>
+  <si>
+    <t>tt5826432</t>
+  </si>
+  <si>
+    <t>tt0436697</t>
+  </si>
+  <si>
+    <t>tt5895028</t>
+  </si>
+  <si>
+    <t>tt1837492</t>
+  </si>
+  <si>
+    <t>tt3921180</t>
+  </si>
+  <si>
+    <t>tt0117571</t>
   </si>
 </sst>
 </file>
@@ -262,34 +631,43 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -299,35 +677,44 @@
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="J3" t="e">
         <v>#N/A</v>
@@ -337,32 +724,41 @@
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I4" t="e">
         <v>#N/A</v>
@@ -375,82 +771,673 @@
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="H5" t="e">
         <v>#N/A</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
+        <v>120</v>
+      </c>
+      <c r="J5" t="s">
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
+        <v>138</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="s">
+        <v>148</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O18" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/netflix_items.xlsx
+++ b/netflix_items.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schaer/Documents/Writings/netflix project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="28800" windowHeight="17620"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="165">
+  <si>
+    <t>Netflix_id</t>
+  </si>
   <si>
     <t>title</t>
   </si>
@@ -66,9 +53,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Netflix_id</t>
-  </si>
-  <si>
     <t>60037627</t>
   </si>
   <si>
@@ -267,7 +251,7 @@
     <t>Release Year: 2016As a young Elizabeth becomes Queen, she must manage major political issues and personal matters, which often clash in ways she never imagined.1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister., Release Year: 2016As a young Elizabeth becomes Queen, she must manage major political issues and personal matters, which often clash in ways she never imagined.1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister., Release Year: 2016, 1. Wolferton Splash57mA young Princess Elizabeth marries Prince Philip. As King George VI’s health worsens, Winston Churchill is elected prime minister for the second time.2. Hyde Park Corner61mWith King George too ill to travel, Elizabeth and Philip embark on a four-continent Commonwealth tour. Party leaders attempt to undermine Churchill.3. Windsor60mWith Elizabeth in a new role, Philip tries to assert some power. Churchill wants to delay the coronation. King George’s disgraced brother arrives.4. Act of God58mWhen dense smog cripples London for days and creates a serious health hazard, Churchill’s inaction leaves him vulnerable to his political enemies.5. Smoke and Mirrors55mElizabeth rejects protocol by appointing Philip to coordinate her coronation, but his ideas create conflict. The Duke of Windsor returns to London.6. Gelignite58mMargaret and Peter come to Elizabeth with a request. With a royal scandal about to break in the newspapers, the Queen Mother intervenes.7. Scientia Potentia Est59mAs the Soviets test the H-bomb, both Churchill and Eden have major health crises. Angry about her inadequate education, Elizabeth hires a tutor.8. Pride &amp; Joy58mElizabeth and Philip go on an exhausting world journey. Margaret takes over some of her sister’s official duties and tries to liven things up.9. Assassins60mAs tensions with Philip increase, Elizabeth spends time with her old friend Porchey. Churchill’s portrait is painted for his 80th birthday.10. Gloriana55mMargaret and Peter are reunited, but another obstacle stands in their way. Elizabeth is torn between her duty as Queen and her love for her sister.</t>
   </si>
   <si>
-    <t xml:space="preserve">Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an </t>
+    <t>Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2015Frank is alerted to a terrorist threat, Danny pursues a taunting serial killer, Erin considers a judgeship, and Jamie is accused of police brutality.1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2015, 1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2016In Season 7, Frank deals with a series of crises that could damage the NYPD, while Danny handles several cases that cross international borders.1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer., Release Year: 2016, 1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer.</t>
   </si>
   <si>
     <t>Release Year: 2008Meet women who killed their mothers, a wife who hired a hit man to rub out her fourth husband, and a woman charged with her spouse for his hate crime.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2008, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009Season 2 profiles women who killed their roommates, an arsonist responsible for multiple deaths and a prostitute charged with slaying her pimp lover.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010Inmates in Season 3 include a woman who stole a newborn from a hospital, a wife who claims voices told her to kill her husband and more.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m</t>
@@ -528,10 +512,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -543,7 +528,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -561,289 +546,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -884,755 +599,755 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>92</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>109</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>117</v>
       </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="s">
         <v>146</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>163</v>
       </c>
-      <c r="N2">
-        <v>60037627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>110</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>118</v>
       </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="s">
         <v>147</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>163</v>
       </c>
-      <c r="N3">
-        <v>80108238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>77</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>94</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>111</v>
       </c>
-      <c r="I4" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="J4" t="e">
         <v>#N/A</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="s">
         <v>148</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>163</v>
       </c>
-      <c r="N4">
-        <v>60036691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>95</v>
       </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="s">
         <v>119</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>130</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>137</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>149</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>164</v>
       </c>
-      <c r="N5">
-        <v>80025678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>96</v>
       </c>
-      <c r="H6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="s">
         <v>120</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>131</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>138</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>150</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>164</v>
       </c>
-      <c r="N6">
-        <v>70177083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>97</v>
       </c>
-      <c r="H7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I7" t="e">
         <v>#N/A</v>
       </c>
       <c r="J7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
         <v>139</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>151</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>164</v>
       </c>
-      <c r="N7">
-        <v>80144588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>81</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>98</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>112</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="s">
         <v>152</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>163</v>
       </c>
-      <c r="N8">
-        <v>80037759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>99</v>
       </c>
-      <c r="H9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="s">
         <v>122</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>132</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>140</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>153</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>164</v>
       </c>
-      <c r="N9">
-        <v>70184207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>100</v>
       </c>
-      <c r="H10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="s">
         <v>123</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>133</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>141</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>154</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>164</v>
       </c>
-      <c r="N10">
-        <v>80025384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>101</v>
       </c>
-      <c r="H11" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="s">
         <v>142</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>155</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>164</v>
       </c>
-      <c r="N11">
-        <v>80000770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>102</v>
       </c>
-      <c r="H12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="I12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="s">
         <v>124</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>134</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>143</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>156</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>164</v>
       </c>
-      <c r="N12">
-        <v>80107369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>86</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>103</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>113</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="s">
         <v>157</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>163</v>
       </c>
-      <c r="N13">
-        <v>80097003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>87</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>104</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>114</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>126</v>
       </c>
-      <c r="J14" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="s">
         <v>158</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>163</v>
       </c>
-      <c r="N14">
-        <v>70052705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>88</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>105</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>115</v>
       </c>
-      <c r="I15" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="J15" t="e">
         <v>#N/A</v>
       </c>
       <c r="K15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="s">
         <v>159</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>163</v>
       </c>
-      <c r="N15">
-        <v>80091741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>72</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="I16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="s">
         <v>127</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>135</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>144</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>160</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>164</v>
       </c>
-      <c r="N16">
-        <v>80117470</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>107</v>
       </c>
-      <c r="H17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="I17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="s">
         <v>128</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>136</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>145</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>161</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>164</v>
       </c>
-      <c r="N17">
-        <v>80053653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>74</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>108</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>116</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>129</v>
       </c>
-      <c r="J18" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="s">
         <v>162</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>163</v>
       </c>
-      <c r="N18">
-        <v>939827</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/netflix_items.xlsx
+++ b/netflix_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="291">
   <si>
     <t>Netflix_id</t>
   </si>
@@ -53,6 +53,96 @@
     <t>type</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>60037627</t>
   </si>
   <si>
@@ -104,6 +194,39 @@
     <t>939827</t>
   </si>
   <si>
+    <t>70178217</t>
+  </si>
+  <si>
+    <t>80117485</t>
+  </si>
+  <si>
+    <t>80168188</t>
+  </si>
+  <si>
+    <t>70049392</t>
+  </si>
+  <si>
+    <t>80024103</t>
+  </si>
+  <si>
+    <t>80088567</t>
+  </si>
+  <si>
+    <t>70153404</t>
+  </si>
+  <si>
+    <t>80133335</t>
+  </si>
+  <si>
+    <t>70300205</t>
+  </si>
+  <si>
+    <t>70208248</t>
+  </si>
+  <si>
+    <t>60029157</t>
+  </si>
+  <si>
     <t>The Manchurian Candidate</t>
   </si>
   <si>
@@ -152,6 +275,39 @@
     <t>Scream</t>
   </si>
   <si>
+    <t>House of Cards</t>
+  </si>
+  <si>
+    <t>Friends from College</t>
+  </si>
+  <si>
+    <t>Chasing Coral</t>
+  </si>
+  <si>
+    <t>The Astronaut Farmer</t>
+  </si>
+  <si>
+    <t>American Crime</t>
+  </si>
+  <si>
+    <t>Captain America: Civil War</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Call My Agent!</t>
+  </si>
+  <si>
+    <t>The Babadook</t>
+  </si>
+  <si>
+    <t>J. Edgar</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
@@ -176,6 +332,15 @@
     <t>1996</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -191,6 +356,12 @@
     <t>PG-13</t>
   </si>
   <si>
+    <t>TV-PG</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
     <t>2h 9m</t>
   </si>
   <si>
@@ -239,6 +410,39 @@
     <t>1h 51m</t>
   </si>
   <si>
+    <t>57m, 49m, 51m, 49m, 53m, 50m, 54m, 47m, 52m, 53m, 54m, 53m, 50m, 50m, 49m, 52m, 48m, 50m, 52m, 49m, 48m, 50m, 51m, 54m, 48m, 60m, 59m, 55m, 53m, 48m, 52m, 54m, 53m, 44m, 52m, 57m, 53m, 50m, 58m, 49m, 42m, 55m, 43m, 48m, 48m, 52m, 47m, 46m, 57m, 52m, 47m, 55m, 55m, 52m, 53m, 45m, 52m, 55m, 49m, 46m, 55m, 57m, 51m, 54m, 56m</t>
+  </si>
+  <si>
+    <t>31m, 28m, 31m, 31m, 32m, 33m, 30m, 35m</t>
+  </si>
+  <si>
+    <t>1h 29m</t>
+  </si>
+  <si>
+    <t>1h 44m</t>
+  </si>
+  <si>
+    <t>44m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 42m, 43m, 43m, 43m, 43m, 43m, 43m</t>
+  </si>
+  <si>
+    <t>2h 28m</t>
+  </si>
+  <si>
+    <t>23m, 23m, 23m, 23m, 23m, 21m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 22m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 22m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 22m, 22m, 22m, 22m, 22m, 22m, 23m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 23m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 21m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 21m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 23m, 23m, 23m, 23m, 23m, 32m, 23m, 25m, 23m, 23m, 23m, 23m, 31m, 23m, 23m, 23m, 24m, 23m, 24m, 24m, 27m, 25m, 21m, 21m, 29m, 24m, 24m, 23m, 28m, 24m, 23m, 23m, 25m, 23m, 27m, 30m, 24m, 23m, 23m, 23m, 48m</t>
+  </si>
+  <si>
+    <t>55m, 53m, 52m, 53m, 48m, 52m</t>
+  </si>
+  <si>
+    <t>1h 33m</t>
+  </si>
+  <si>
+    <t>2h 16m</t>
+  </si>
+  <si>
+    <t>2h 23m</t>
+  </si>
+  <si>
     <t>Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate.</t>
   </si>
   <si>
@@ -290,6 +494,39 @@
     <t>A year after her mother's brutal murder, a high school girl and her friends are stalked by a serial killer who's obsessed with horror movies.</t>
   </si>
   <si>
+    <t>Release Year: 2013Betrayed by the White House, Congressman Frank Underwood embarks on a ruthless rise to power. Blackmail, seduction and ambition are his weapons.1. Chapter 157mWhen the newly elected President reneges on a promise, Frank and Claire decide to sever all allegiances and toss the rules out the window.2. Chapter 249mFrank uses a young reporter, Zoe Barnes, to spin a story that puts the White House on its heels. Claire makes a cold-blooded move at work.3. Chapter 351mFrank must leave union negotiations to deal with a crisis in his home district. Zoe negotiates the politics of being a journalist on the rise.4. Chapter 449mFrank shakes down the Congressional leadership. Peter Russo must choose between politics and family.5. Chapter 553mFrank's fight over the Education Bill threatens Claire's own ambitions. Zoe mixes work and play.6. Chapter 650mFrank strikes back at the striking teachers. Claire is caught off guard by a deathbed confession.7. Chapter 754mFrank wins a major battle, but doesn't pause to rest on his laurels. Peter must face his past. Stamper hushes a secret.8. Chapter 847mFrank is honored at his alma mater, while Peter returns to Philly. Both men tackle unfinished business.9. Chapter 952mRusso hits the road with V.P. Matthews. Frank and Stamper try to whip up support in Congress. Claire looks out for herself.10. Chapter 1053mRebellion on all fronts. Claire defies Frank, Zoe finds comfort in someone new, and Peter makes an ultimatum.11. Chapter 1154mClaire fuels an old flame. Peter wrestles with his demons. Frank crosses the point of no return.12. Chapter 1253mFrank must make an unforeseen detour. Zoe, Lucas and Janine get closer to the truth.13. Chapter 1350mFrank scrambles to keep his plan on track. Claire is haunted by choices old and new. Zoe poses a serious threat., Release Year: 2013, 1. Chapter 157mWhen the newly elected President reneges on a promise, Frank and Claire decide to sever all allegiances and toss the rules out the window.2. Chapter 249mFrank uses a young reporter, Zoe Barnes, to spin a story that puts the White House on its heels. Claire makes a cold-blooded move at work.3. Chapter 351mFrank must leave union negotiations to deal with a crisis in his home district. Zoe negotiates the politics of being a journalist on the rise.4. Chapter 449mFrank shakes down the Congressional leadership. Peter Russo must choose between politics and family.5. Chapter 553mFrank's fight over the Education Bill threatens Claire's own ambitions. Zoe mixes work and play.6. Chapter 650mFrank strikes back at the striking teachers. Claire is caught off guard by a deathbed confession.7. Chapter 754mFrank wins a major battle, but doesn't pause to rest on his laurels. Peter must face his past. Stamper hushes a secret.8. Chapter 847mFrank is honored at his alma mater, while Peter returns to Philly. Both men tackle unfinished business.9. Chapter 952mRusso hits the road with V.P. Matthews. Frank and Stamper try to whip up support in Congress. Claire looks out for herself.10. Chapter 1053mRebellion on all fronts. Claire defies Frank, Zoe finds comfort in someone new, and Peter makes an ultimatum.11. Chapter 1154mClaire fuels an old flame. Peter wrestles with his demons. Frank crosses the point of no return.12. Chapter 1253mFrank must make an unforeseen detour. Zoe, Lucas and Janine get closer to the truth.13. Chapter 1350mFrank scrambles to keep his plan on track. Claire is haunted by choices old and new. Zoe poses a serious threat., Release Year: 2014In their ruthless rise to power, Frank and Claire battle threats past and present, and form new alliances while old ones succumb to betrayal.1. Chapter 1450mThe Underwoods tackle two threats that could bring their plans to ruin. Frank grooms his replacement as Whip. Claire goes on the offensive.2. Chapter 1549mFrank puts China in the cross-hairs. Claire confronts a painful trauma from her past. Lucas Goodwin presses for the truth.3. Chapter 1652mTension rises between Frank and Raymond Tusk as the situation with China deteriorates. A battle in the Senate pits Frank against the Republicans.4. Chapter 1748mA terror scare at the Capitol traps Frank with a resentful Donald Blythe. Claire gives a live interview that rocks the media.5. Chapter 1850mFrank back-channels with a Chinese billionaire. Lucas uses extreme measures to expose the Vice President. A shadowy figure joins Team Underwood.6. Chapter 1952mAmidst an energy crisis, Frank and Tusk end their shaky alliance. Lucas must make a difficult choice. Stamper grows closer to Rachel.7. Chapter 2049mDespite some friction, the Walkers deepen their friendship with the Underwoods. But it's all-out war between Frank and Tusk.8. Chapter 2148mThe war with Tusk intensifies. Claire influences Tricia Walker politically and domestically. Frank has a show-down with Linda Vasquez.9. Chapter 2250mThings get personal when Tusk blindsides the Underwoods with a scandal. Freddy and his BBQ joint get caught up in the mix.10. Chapter 2351mWith a military stand-off overseas and potential violence at home, Frank wants to finish off Tusk for good. Claire and Jackie Sharp collide.11. Chapter 2454mA Special Prosecutor interrogates Frank. Remy Danton tries to keep his options open. Stamper wrestles with his demons.12. Chapter 2548mFrank finds himself shut out, and Claire makes a difficult sacrifice. Stamper tries to regain control.13. Chapter 2660mFrank faces annihilation while the nation is in an uproar. Stamper must tie up loose ends. Claire feels the cost of ruthlessness., Release Year: 2014, 1. Chapter 1450mThe Underwoods tackle two threats that could bring their plans to ruin. Frank grooms his replacement as Whip. Claire goes on the offensive.2. Chapter 1549mFrank puts China in the cross-hairs. Claire confronts a painful trauma from her past. Lucas Goodwin presses for the truth.3. Chapter 1652mTension rises between Frank and Raymond Tusk as the situation with China deteriorates. A battle in the Senate pits Frank against the Republicans.4. Chapter 1748mA terror scare at the Capitol traps Frank with a resentful Donald Blythe. Claire gives a live interview that rocks the media.5. Chapter 1850mFrank back-channels with a Chinese billionaire. Lucas uses extreme measures to expose the Vice President. A shadowy figure joins Team Underwood.6. Chapter 1952mAmidst an energy crisis, Frank and Tusk end their shaky alliance. Lucas must make a difficult choice. Stamper grows closer to Rachel.7. Chapter 2049mDespite some friction, the Walkers deepen their friendship with the Underwoods. But it's all-out war between Frank and Tusk.8. Chapter 2148mThe war with Tusk intensifies. Claire influences Tricia Walker politically and domestically. Frank has a show-down with Linda Vasquez.9. Chapter 2250mThings get personal when Tusk blindsides the Underwoods with a scandal. Freddy and his BBQ joint get caught up in the mix.10. Chapter 2351mWith a military stand-off overseas and potential violence at home, Frank wants to finish off Tusk for good. Claire and Jackie Sharp collide.11. Chapter 2454mA Special Prosecutor interrogates Frank. Remy Danton tries to keep his options open. Stamper wrestles with his demons.12. Chapter 2548mFrank finds himself shut out, and Claire makes a difficult sacrifice. Stamper tries to regain control.13. Chapter 2660mFrank faces annihilation while the nation is in an uproar. Stamper must tie up loose ends. Claire feels the cost of ruthlessness., Release Year: 2015President Underwood fights to secure his legacy. Claire wants more than being First Lady. The biggest threat they face is contending with each other.1. Chapter 2759mA rocky start for the Underwood Presidency. Frank wants to introduce an ambitious jobs program, while Claire sets her sights on the United Nations.2. Chapter 2855mClaire’s U.N. bid runs into trouble. Frank fights off mutiny with a bold address to the country.3. Chapter 2953mThe Russian president’s state visit becomes a cold war of wills, and some punks heat things up.4. Chapter 3048mClaire bypasses Russia at the U.N. Frank tries to outmaneuver a potential challenger and ends up face to face with a higher power.5. Chapter 3152mFrank declares war on Congress to jump-start his jobs program. Claire spars with the Russian Ambassador.6. Chapter 3254mFrank and Claire travel to Moscow to negotiate the return of an imprisoned U.S. citizen. Claire takes a stand that jeopardizes their plans.7. Chapter 3353mThe damage is done and the Underwoods must repair it. But deep wounds don't heal fast, and sometimes not at all.8. Chapter 3444mA hurricane endangers more than just the entire East Coast and Frank must make a difficult choice.9. Chapter 3552mThe Jordan Valley erupts in chaos just as Frank's campaign is picking up steam. Claire gets disturbing intel and counsels him.10. Chapter 3657mFrank needs to deal with Petrov one on one while Claire tries to preserve the peace-keeping mission. Sacrifices must be made.11. Chapter 3753mThings turn ugly when Frank, Jackie, and Heather square off during their first debate. Tom joins Claire on the campaign trail.12. Chapter 3850mHeather Dunbar goes for the jugular, forcing Claire to confront her worst fears. The rift between Frank and Claire widens.13. Chapter 3958mIn the midst of the Iowa caucuses, Frank and Claire must confront hard truths about each other., Release Year: 2015, 1. Chapter 2759mA rocky start for the Underwood Presidency. Frank wants to introduce an ambitious jobs program, while Claire sets her sights on the United Nations.2. Chapter 2855mClaire’s U.N. bid runs into trouble. Frank fights off mutiny with a bold address to the country.3. Chapter 2953mThe Russian president’s state visit becomes a cold war of wills, and some punks heat things up.4. Chapter 3048mClaire bypasses Russia at the U.N. Frank tries to outmaneuver a potential challenger and ends up face to face with a higher power.5. Chapter 3152mFrank declares war on Congress to jump-start his jobs program. Claire spars with the Russian Ambassador.6. Chapter 3254mFrank and Claire travel to Moscow to negotiate the return of an imprisoned U.S. citizen. Claire takes a stand that jeopardizes their plans.7. Chapter 3353mThe damage is done and the Underwoods must repair it. But deep wounds don't heal fast, and sometimes not at all.8. Chapter 3444mA hurricane endangers more than just the entire East Coast and Frank must make a difficult choice.9. Chapter 3552mThe Jordan Valley erupts in chaos just as Frank's campaign is picking up steam. Claire gets disturbing intel and counsels him.10. Chapter 3657mFrank needs to deal with Petrov one on one while Claire tries to preserve the peace-keeping mission. Sacrifices must be made.11. Chapter 3753mThings turn ugly when Frank, Jackie, and Heather square off during their first debate. Tom joins Claire on the campaign trail.12. Chapter 3850mHeather Dunbar goes for the jugular, forcing Claire to confront her worst fears. The rift between Frank and Claire widens.13. Chapter 3958mIn the midst of the Iowa caucuses, Frank and Claire must confront hard truths about each other., Release Year: 2016They've always been a great team. But now Frank and Claire become even greater adversaries as their marriage stumbles and their ambitions are at odds.1. Chapter 4049mClaire's absence causes problems for Frank on the campaign trail amid rumors of a marital rift. Claire tries to strike out on her own.2. Chapter 4142mAs Claire begins exploring a campaign of her own, she and Frank engage in backdoor political maneuvering. But this time they're not on the same side.3. Chapter 4255mClaire joins Frank as he stumps in South Carolina, but he doesn't trust her. A disastrous scandal blindsides Frank's campaign on primary day.4. Chapter 4343mClaire threatens Frank. Frank makes a politically bold move that may provoke Russia. An event at a campaign stop changes everything.5. Chapter 4448mClaire advises Donald Blythe on dealing with Petrov. Further investigation of Lucas Goodwin dredges up his accusations against Frank.6. Chapter 4548mClaire clashes with the Secretary of State over her involvement in negotiations with Russia. Dunbar must choose between her campaign and her ethics.7. Chapter 4652mFrank and Claire adjust to their new reality. The search for Frank's running mate begins. Frank starts a campaign to weaken Conway's strong support.8. Chapter 4747mFormidable as ever, both Underwoods have their eyes on the big picture as they manipulate a potential running mate and push the gun bill.9. Chapter 4846mAt the convention, Frank and his team publicly push for Catherine Durant to be chosen as his running mate, but privately pursue a different agenda.10. Chapter 4957mAs Frank deals with a new threat to his candidacy, Claire has doubts about their plan. Claire faces a difficult decision concerning her mother.11. Chapter 5052mFrank ups the ante on the war on terror to counter Conway's public show of strength. Tom joins Claire on the campaign trail.12. Chapter 5147mFrank asks Will to help deal with extremists threatening to murder hostages. Hammerschmidt digs deeper into the allegations against Frank.13. Chapter 5255mAs the hostage situation continues, Claire secretly negotiates with Yusuf al Ahmadi. Frank confronts Hammerschmidt., Release Year: 2016, 1. Chapter 4049mClaire's absence causes problems for Frank on the campaign trail amid rumors of a marital rift. Claire tries to strike out on her own.2. Chapter 4142mAs Claire begins exploring a campaign of her own, she and Frank engage in backdoor political maneuvering. But this time they're not on the same side.3. Chapter 4255mClaire joins Frank as he stumps in South Carolina, but he doesn't trust her. A disastrous scandal blindsides Frank's campaign on primary day.4. Chapter 4343mClaire threatens Frank. Frank makes a politically bold move that may provoke Russia. An event at a campaign stop changes everything.5. Chapter 4448mClaire advises Donald Blythe on dealing with Petrov. Further investigation of Lucas Goodwin dredges up his accusations against Frank.6. Chapter 4548mClaire clashes with the Secretary of State over her involvement in negotiations with Russia. Dunbar must choose between her campaign and her ethics.7. Chapter 4652mFrank and Claire adjust to their new reality. The search for Frank's running mate begins. Frank starts a campaign to weaken Conway's strong support.8. Chapter 4747mFormidable as ever, both Underwoods have their eyes on the big picture as they manipulate a potential running mate and push the gun bill.9. Chapter 4846mAt the convention, Frank and his team publicly push for Catherine Durant to be chosen as his running mate, but privately pursue a different agenda.10. Chapter 4957mAs Frank deals with a new threat to his candidacy, Claire has doubts about their plan. Claire faces a difficult decision concerning her mother.11. Chapter 5052mFrank ups the ante on the war on terror to counter Conway's public show of strength. Tom joins Claire on the campaign trail.12. Chapter 5147mFrank asks Will to help deal with extremists threatening to murder hostages. Hammerschmidt digs deeper into the allegations against Frank.13. Chapter 5255mAs the hostage situation continues, Claire secretly negotiates with Yusuf al Ahmadi. Frank confronts Hammerschmidt., Release Year: 2017With the stakes higher than ever, Frank and Claire work together to consolidate their power and win the White House by any means possible.1. Chapter 5355mAs Congress debates investigating Frank, he and Claire attempt to stoke fear of terrorism. Tom Yates continues his stay in the White House.2. Chapter 5452mFrank and his team work to leverage support in key states by any means necessary. Claire learns some upsetting news about one of Frank's friends.3. Chapter 5553mThe day before the election, Conway holds a 24-hour Skype session with voters, while Frank and Claire stump in key states and try to discredit him.4. Chapter 5645mWith a tight race and low voter turnout on Election Day, things look grim for Frank. But he's still got one more trick up his sleeve.5. Chapter 5752mNine weeks after Election Day, the Underwoods work to consolidate their power. LeAnn tries to track down a missing Aidan Macallan.6. Chapter 5855mIn the midst of uncertainty, suspected Russian forces take over an American station in Antarctica. Meanwhile, a damaging news leak could hurt Frank.7. Chapter 5949mWhen a crisis forces White House personnel to take shelter in a bunker, Commerce Department official Jane Davis negotiates through back channels.8. Chapter 6046mWhile Frank attends an elite men's weekend gathering to firm up support, Claire deals with a stranded Russian ship and threats from Petrov.9. Chapter 6155mPetrov tries to influence affairs in the U.S. Jane discusses her agenda with Claire. With her job at stake, LeAnn reaches out to a reporter for help.10. Chapter 6257mThe Underwoods and their team angle to undermine the revived committee investigating Frank. Hammerschmidt's investigation heats up.11. Chapter 6351mAs the team tries to control fallout from damaging testimony and leaks, everyone is under suspicion and tensions flare between Frank and Claire.12. Chapter 6454mFrank attempts to stop Cathy from testifying. With Hammerschmidt sniffing out the truth, the Underwoods throw someone close to them under the bus.13. Chapter 6556mIn the wake of a surprising announcement, everything at the White House is shaken up. A decision must be made about whether to go to war., Release Year: 2017, 1. Chapter 5355mAs Congress debates investigating Frank, he and Claire attempt to stoke fear of terrorism. Tom Yates continues his stay in the White House.2. Chapter 5452mFrank and his team work to leverage support in key states by any means necessary. Claire learns some upsetting news about one of Frank's friends.3. Chapter 5553mThe day before the election, Conway holds a 24-hour Skype session with voters, while Frank and Claire stump in key states and try to discredit him.4. Chapter 5645mWith a tight race and low voter turnout on Election Day, things look grim for Frank. But he's still got one more trick up his sleeve.5. Chapter 5752mNine weeks after Election Day, the Underwoods work to consolidate their power. LeAnn tries to track down a missing Aidan Macallan.6. Chapter 5855mIn the midst of uncertainty, suspected Russian forces take over an American station in Antarctica. Meanwhile, a damaging news leak could hurt Frank.7. Chapter 5949mWhen a crisis forces White House personnel to take shelter in a bunker, Commerce Department official Jane Davis negotiates through back channels.8. Chapter 6046mWhile Frank attends an elite men's weekend gathering to firm up support, Claire deals with a stranded Russian ship and threats from Petrov.9. Chapter 6155mPetrov tries to influence affairs in the U.S. Jane discusses her agenda with Claire. With her job at stake, LeAnn reaches out to a reporter for help.10. Chapter 6257mThe Underwoods and their team angle to undermine the revived committee investigating Frank. Hammerschmidt's investigation heats up.11. Chapter 6351mAs the team tries to control fallout from damaging testimony and leaks, everyone is under suspicion and tensions flare between Frank and Claire.12. Chapter 6454mFrank attempts to stop Cathy from testifying. With Hammerschmidt sniffing out the truth, the Underwoods throw someone close to them under the bus.13. Chapter 6556mIn the wake of a surprising announcement, everything at the White House is shaken up. A decision must be made about whether to go to war.</t>
+  </si>
+  <si>
+    <t>Release Year: 2017As they face down their forties, a group of friends who met at Harvard experiences a range of success -- or lack thereof -- in this comedy series.1. Welcome to New York31mLisa and Ethan move to New York, reconnect with old college friends and learn that some secrets are harder to keep than others.2. Connecticut House28mLisa’s new career gets off to a dubious start. Meanwhile, Marianne prepares for a play and Ethan proves himself a less-than-stellar petsitter.3. All-Nighter31mFacing a brutal deadline, Ethan brainstorms ideas for his Y.A. novel. Meanwhile, Sam, Lisa and Marianne meet some admirers out on the town.4. Mission Impossible31mEthan and Lisa run the gauntlet to ensure their IVF is a success. Max and Felix celebrate a special occasion. Sam opens up.5. Party Bus32mEthan organizes a wine-tasting trip for his wife and friends, but his perfectly planned excursion hits a few bumps in the road.6. Second Wedding33mTensions flare, suspicions grow and mics drop at a lavish wedding reception, where Ethan takes his new persona out for a spin.7. Grand Cayman30mLisa makes a big decision, Ethan and Sam reminisce about old times, Nick plays a prank, and Max makes an awkward confession.8. A Night of Surprises35mThe gang gets together to celebrate Sam’s 40th birthday, where Lisa suffers a crisis of conscience and Nick’s announcement catches everyone off guard., Release Year: 2017As they face down their forties, a group of friends who met at Harvard experiences a range of success -- or lack thereof -- in this comedy series.1. Welcome to New York31mLisa and Ethan move to New York, reconnect with old college friends and learn that some secrets are harder to keep than others.2. Connecticut House28mLisa’s new career gets off to a dubious start. Meanwhile, Marianne prepares for a play and Ethan proves himself a less-than-stellar petsitter.3. All-Nighter31mFacing a brutal deadline, Ethan brainstorms ideas for his Y.A. novel. Meanwhile, Sam, Lisa and Marianne meet some admirers out on the town.4. Mission Impossible31mEthan and Lisa run the gauntlet to ensure their IVF is a success. Max and Felix celebrate a special occasion. Sam opens up.5. Party Bus32mEthan organizes a wine-tasting trip for his wife and friends, but his perfectly planned excursion hits a few bumps in the road.6. Second Wedding33mTensions flare, suspicions grow and mics drop at a lavish wedding reception, where Ethan takes his new persona out for a spin.7. Grand Cayman30mLisa makes a big decision, Ethan and Sam reminisce about old times, Nick plays a prank, and Max makes an awkward confession.8. A Night of Surprises35mThe gang gets together to celebrate Sam’s 40th birthday, where Lisa suffers a crisis of conscience and Nick’s announcement catches everyone off guard., Release Year: 2017, 1. Welcome to New York31mLisa and Ethan move to New York, reconnect with old college friends and learn that some secrets are harder to keep than others.2. Connecticut House28mLisa’s new career gets off to a dubious start. Meanwhile, Marianne prepares for a play and Ethan proves himself a less-than-stellar petsitter.3. All-Nighter31mFacing a brutal deadline, Ethan brainstorms ideas for his Y.A. novel. Meanwhile, Sam, Lisa and Marianne meet some admirers out on the town.4. Mission Impossible31mEthan and Lisa run the gauntlet to ensure their IVF is a success. Max and Felix celebrate a special occasion. Sam opens up.5. Party Bus32mEthan organizes a wine-tasting trip for his wife and friends, but his perfectly planned excursion hits a few bumps in the road.6. Second Wedding33mTensions flare, suspicions grow and mics drop at a lavish wedding reception, where Ethan takes his new persona out for a spin.7. Grand Cayman30mLisa makes a big decision, Ethan and Sam reminisce about old times, Nick plays a prank, and Max makes an awkward confession.8. A Night of Surprises35mThe gang gets together to celebrate Sam’s 40th birthday, where Lisa suffers a crisis of conscience and Nick’s announcement catches everyone off guard.</t>
+  </si>
+  <si>
+    <t>Divers, scientists and photographers around the world mount an epic underwater campaign to document the disappearance of coral reefs.</t>
+  </si>
+  <si>
+    <t>A NASA astronaut in training must shelve his dream to save his family's farm -- until one day, he decides to build a homegrown rocket in his barn.</t>
+  </si>
+  <si>
+    <t>Release Year: 2015When a veteran is murdered and his wife is assaulted, a California town is torn apart by issues of class, race and gender during a tense murder trial.1. Episode 144mAn apparent home invasion results in tragedy. Meth-addicted lovers become desperate for a fix. A Mexican-American teen is questioned by police.2. Episode 243mTony is tested by his peers. Aubry lives rough on the streets. Gwen's rape kit results shock her parents. Hector gets troubling news from the police.3. Episode 343mTony makes a friend. Barb pushes to add special circumstances to the charges. Alonzo vents his anger on TV. Aubry seeks help. Carter has a visitor.4. Episode 443mMark arrives on military leave. Aliyah gets Carter legal help. Tony receives useful advice. Hector refuses to steal meds. Gwen's condition improves.5. Episode 543mCarter's bail hearing is held. Hector demands a deal. Tony meets up with an outside contact. Aubry forces a wild plan into motion. Mark shares news.6. Episode 643mHector's bargaining power increases. Palmer interviews Gwen. Michael pressures Aubry to testify to save herself. Tony finds out who punched Jenny.7. Episode 743mTony is arrested. Barb meets Richelle. Aliyah learns the prosecution has submitted new evidence. Aubry finds a way to avoid testifying against Carter.8. Episode 843mAliyah plans an event to publicize the case. Carter is offered a plea deal. Russ asks Mark for a favor. Hector has a visitor. Barb acts out of fear.9. Episode 943mTony witnesses a horrifying event. Ruth and Aliyah form an alliance. Tony's public defender gives Alonzo frank advice. Carter sends Aubry a message.10. Episode 1043mPalmer catches Hector in a lie. Barb tells Russ she's giving up. Aubry's competency to stand trial is assessed. Jenny testifies on Tony's behalf.11. Episode 1143mCarter meets with Aubry. Alonzo makes an announcement to his kids. Barb advises Russ to let go. Jenny makes a decision. Hector starts a new life., Release Year: 2015, 1. Episode 144mAn apparent home invasion results in tragedy. Meth-addicted lovers become desperate for a fix. A Mexican-American teen is questioned by police.2. Episode 243mTony is tested by his peers. Aubry lives rough on the streets. Gwen's rape kit results shock her parents. Hector gets troubling news from the police.3. Episode 343mTony makes a friend. Barb pushes to add special circumstances to the charges. Alonzo vents his anger on TV. Aubry seeks help. Carter has a visitor.4. Episode 443mMark arrives on military leave. Aliyah gets Carter legal help. Tony receives useful advice. Hector refuses to steal meds. Gwen's condition improves.5. Episode 543mCarter's bail hearing is held. Hector demands a deal. Tony meets up with an outside contact. Aubry forces a wild plan into motion. Mark shares news.6. Episode 643mHector's bargaining power increases. Palmer interviews Gwen. Michael pressures Aubry to testify to save herself. Tony finds out who punched Jenny.7. Episode 743mTony is arrested. Barb meets Richelle. Aliyah learns the prosecution has submitted new evidence. Aubry finds a way to avoid testifying against Carter.8. Episode 843mAliyah plans an event to publicize the case. Carter is offered a plea deal. Russ asks Mark for a favor. Hector has a visitor. Barb acts out of fear.9. Episode 943mTony witnesses a horrifying event. Ruth and Aliyah form an alliance. Tony's public defender gives Alonzo frank advice. Carter sends Aubry a message.10. Episode 1043mPalmer catches Hector in a lie. Barb tells Russ she's giving up. Aubry's competency to stand trial is assessed. Jenny testifies on Tony's behalf.11. Episode 1143mCarter meets with Aubry. Alonzo makes an announcement to his kids. Barb advises Russ to let go. Jenny makes a decision. Hector starts a new life., Release Year: 2016The show shifts to Indianapolis, where sexual identity, assault, bullying and class differences at an elite private school divide the community.1. Episode 143mWhen explicit photos of teenager Taylor Blaine are posted online, Taylor accuses two star athletes at an elite school of sexually assaulting him.2. Episode 243mAnne tries to get help from the authorities for Taylor but finds distrust and disbelief at every turn. Leslie tries to get Leyland ahead of the story.3. Episode 343mWhen a name comes forward in the investigation, Anne has to deal with the blowback. New questions arise about what really happened at the party.4. Episode 443mMore evidence results in greater anxiety for the team and their parents. Taylor goes back to school and Eric is faced with an agonizing decision.5. Episode 543mEric and Taylor both face questions about their sexuality and truthfulness. Anne's behavior is at issue as revelations about her past come to light.6. Episode 643mLeyland and the community react to the news about Eric and Taylor. Anne remains firm in wanting justice. Taylor confronts someone from his childhood.7. Episode 743mAfter sensitive information about Anne is posted online, a distraught Taylor makes a fateful decision that will change him and everyone at Leyland.8. Episode 843mNo one is immune from events at Leyland. Leslie becomes the next target of a cyberattack. Anne visits Taylor, whose story has become national news.9. Episode 943mThe lives of the Leyland families are laid bare in a massive cyberattack that doesn't help Taylor. Taylor talks to a therapist as he pushes Anne away.10. Episode 1043mSebastian becomes the victim of the latest cyberattack. Leslie accepts the consequences of her actions. Taylor and Eric face life-altering decisions., Release Year: 2016, 1. Episode 143mWhen explicit photos of teenager Taylor Blaine are posted online, Taylor accuses two star athletes at an elite school of sexually assaulting him.2. Episode 243mAnne tries to get help from the authorities for Taylor but finds distrust and disbelief at every turn. Leslie tries to get Leyland ahead of the story.3. Episode 343mWhen a name comes forward in the investigation, Anne has to deal with the blowback. New questions arise about what really happened at the party.4. Episode 443mMore evidence results in greater anxiety for the team and their parents. Taylor goes back to school and Eric is faced with an agonizing decision.5. Episode 543mEric and Taylor both face questions about their sexuality and truthfulness. Anne's behavior is at issue as revelations about her past come to light.6. Episode 643mLeyland and the community react to the news about Eric and Taylor. Anne remains firm in wanting justice. Taylor confronts someone from his childhood.7. Episode 743mAfter sensitive information about Anne is posted online, a distraught Taylor makes a fateful decision that will change him and everyone at Leyland.8. Episode 843mNo one is immune from events at Leyland. Leslie becomes the next target of a cyberattack. Anne visits Taylor, whose story has become national news.9. Episode 943mThe lives of the Leyland families are laid bare in a massive cyberattack that doesn't help Taylor. Taylor talks to a therapist as he pushes Anne away.10. Episode 1043mSebastian becomes the victim of the latest cyberattack. Leslie accepts the consequences of her actions. Taylor and Eric face life-altering decisions.</t>
+  </si>
+  <si>
+    <t>It's Avengers vs. Avengers when Captain America fights to keep his superhero friends independent, while his pal Iron Man supports government control.</t>
+  </si>
+  <si>
+    <t>Release Year: 1994Season 1 of the hit sitcom introduces us to hapless Ross, spoiled Rachel, quirky Chandler, dim-witted Joey, free-spirited Phoebe and uptight Monica.1. The One Where Monica Gets a Roommate (Pilot)23mRachel runs from her wedding and meets the friends in the coffee place. Ross is depressed about his divorce but he still has a crush on Rachel.2. The One with the Sonogram at the End23mRoss's lesbian ex-wife is pregnant with his child, and he doesn't like her choice of a last name for the baby.3. The One with the Thumb23mA soda company gives Phoebe $7,000 after she finds a dismembered thumb in a can of soda.4. The One with George Stephanopoulos23mA deliveryman accidentally brings a pizza meant for George Stephanopoulos, who lives across the street from the girls.5. The One with the East German Laundry Detergent23mRoss helps Rachel do laundry and considers the evening a first date. Joey has Monica pose as his new girlfriend.6. The One with the Butt21mJoey gets his big film break when he's hired to be Al Pacino's stunt butt.7. The One with the Blackout23mDuring a citywide blackout, Ross tries to tell Rachel that he likes her.8. The One Where Nana Dies Twice23mMonica and Ross mourn the death of their grandmother. Chandler questions his sexuality.9. The One Where Underdog Gets Away23mMonica's first Thanksgiving dinner for the gang burns when they all run to the rooftop to see the runaway Underdog balloon from the parade.10. The One with the Monkey23mThe gang makes and then breaks a pact to celebrate New Year's Eve without dates. Lonely Ross gets a roommate: a monkey named Marcel.11. The One with Mrs. Bing23mWhen Chandler's romance novelist mother comes to New York to visit him, Joey catches her and Ross kissing.12. The One with the Dozen Lasagnas23mMonica gives Paolo one of the dozen lasagnas she made for her aunt, who doesn't want them anymore because they've got meat in them.13. The One with the Boobies23mChandler accidentally sees Rachel wandering around topless after her shower, so Rachel tries to even the score.14. The One with the Candy Hearts23mJoey fixes up Chandler and Janice, and Ross runs into Carol and Susan on a Valentine's Day date.15. The One with the Stoned Guy23mMonica cooks a gourmet meal for a restaurateur looking for a new chef, but unfortunately, he's stoned.16. The One with the Two Parts: Part 123mJoey falls for Phoebe's twin sister, making Phoebe feel neglected. Ross attends Lamaze classes with Carol and Susan.17. The One with the Two Parts: Part 223mWhen Rachel sprains her ankle and has no insurance, she talks Monica into trading identities so she can use Monica's coverage.18. The One with All the Poker23mRachel interviews for a job as an assistant buyer at Saks Fifth Avenue. The women face the men in a not-so-friendly game of poker.19. The One Where the Monkey Gets Away23mThe gang searches for Marcel, who slipped out of the apartment while Rachel was caring for him.20. The One with the Evil Orthodontist23mRachel and Barry start dating again, even though he's engaged to Mindy, who wants Rachel to be her maid of honor.21. The One with the Fake Monica23mWhen Monica's credit card is stolen, she decides to catch the thief.22. The One with the Ick Factor23mAfter losing his virginity to her, Monica's boyfriend reveals that he's a high school senior. Phoebe temps as Chandler's secretary.23. The One with the Birth23mCarol goes into labor while Ross, Phoebe and Susan get locked in a closet.24. The One Where Rachel Finds Out23mDuring Rachel's birthday party, Chandler accidentally lets it slip that Ross is in love with her., Release Year: 1994, 1. The One Where Monica Gets a Roommate (Pilot)23mRachel runs from her wedding and meets the friends in the coffee place. Ross is depressed about his divorce but he still has a crush on Rachel.2. The One with the Sonogram at the End23mRoss's lesbian ex-wife is pregnant with his child, and he doesn't like her choice of a last name for the baby.3. The One with the Thumb23mA soda company gives Phoebe $7,000 after she finds a dismembered thumb in a can of soda.4. The One with George Stephanopoulos23mA deliveryman accidentally brings a pizza meant for George Stephanopoulos, who lives across the street from the girls.5. The One with the East German Laundry Detergent23mRoss helps Rachel do laundry and considers the evening a first date. Joey has Monica pose as his new girlfriend.6. The One with the Butt21mJoey gets his big film break when he's hired to be Al Pacino's stunt butt.7. The One with the Blackout23mDuring a citywide blackout, Ross tries to tell Rachel that he likes her.8. The One Where Nana Dies Twice23mMonica and Ross mourn the death of their grandmother. Chandler questions his sexuality.9. The One Where Underdog Gets Away23mMonica's first Thanksgiving dinner for the gang burns when they all run to the rooftop to see the runaway Underdog balloon from the parade.10. The One with the Monkey23mThe gang makes and then breaks a pact to celebrate New Year's Eve without dates. Lonely Ross gets a roommate: a monkey named Marcel.11. The One with Mrs. Bing23mWhen Chandler's romance novelist mother comes to New York to visit him, Joey catches her and Ross kissing.12. The One with the Dozen Lasagnas23mMonica gives Paolo one of the dozen lasagnas she made for her aunt, who doesn't want them anymore because they've got meat in them.13. The One with the Boobies23mChandler accidentally sees Rachel wandering around topless after her shower, so Rachel tries to even the score.14. The One with the Candy Hearts23mJoey fixes up Chandler and Janice, and Ross runs into Carol and Susan on a Valentine's Day date.15. The One with the Stoned Guy23mMonica cooks a gourmet meal for a restaurateur looking for a new chef, but unfortunately, he's stoned.16. The One with the Two Parts: Part 123mJoey falls for Phoebe's twin sister, making Phoebe feel neglected. Ross attends Lamaze classes with Carol and Susan.17. The One with the Two Parts: Part 223mWhen Rachel sprains her ankle and has no insurance, she talks Monica into trading identities so she can use Monica's coverage.18. The One with All the Poker23mRachel interviews for a job as an assistant buyer at Saks Fifth Avenue. The women face the men in a not-so-friendly game of poker.19. The One Where the Monkey Gets Away23mThe gang searches for Marcel, who slipped out of the apartment while Rachel was caring for him.20. The One with the Evil Orthodontist23mRachel and Barry start dating again, even though he's engaged to Mindy, who wants Rachel to be her maid of honor.21. The One with the Fake Monica23mWhen Monica's credit card is stolen, she decides to catch the thief.22. The One with the Ick Factor23mAfter losing his virginity to her, Monica's boyfriend reveals that he's a high school senior. Phoebe temps as Chandler's secretary.23. The One with the Birth23mCarol goes into labor while Ross, Phoebe and Susan get locked in a closet.24. The One Where Rachel Finds Out23mDuring Rachel's birthday party, Chandler accidentally lets it slip that Ross is in love with her., Release Year: 1995Rachel gets jealous of Ross's new girlfriend, Monica dates an older man, and Joey stars on a soap opera as the hit sitcom hits its stride in Season 2.1. The One with Ross's New Girlfriend22mRachel waits at the airport for Ross, not knowing he is returning from China with his new girlfriend, Julie. Phoebe gives Monica an awful haircut.2. The One with the Breast Milk23mThe guys are uncomfortable with the thought of Carol's breast milk, while Rachel is upset by Monica's growing friendship with Julie.3. The One Where Heckles Dies23mAfter Mr. Heckles dies and leaves all his belongings to Monica and Rachel, Chandler discovers he has eerie similarities with the late eccentric man.4. The One with Phoebe's Husband23mPhoebe has married a gay Canadian ice dancer to help him get his green card.5. The One with Five Steaks and an Eggplant23mIncome issues divide the friends. Monica, Ross and Chandler have money; Phoebe, Rachel and Joey don't.6. The One with the Baby on the Bus23mChandler and Joey lose Ross's son while checking out women on a bus.7. The One Where Ross Finds Out23mA drunken Rachel calls Ross and reveals her feelings for him on his answering machine. Now, Ross must make a decision between her and Julie.8. The One with the List23mJoey and Chandler try to help Ross with his decision to date Julie or Rachel by making a list of the pros and cons of each.9. The One with Phoebe's Dad23mIn this Christmas episode, Phoebe tries to track down her real father.10. The One with Russ23mRachel is dating a guy named Russ, and is blind to his uncanny resemblance to Ross.11. The One with the Lesbian Wedding23mMonica caters the wedding of Ross's ex-wife and her lesbian lover. Rachel learns that her mom and dad are getting a divorce.12. The One After the Super Bowl: Part 123mRoss travels to San Diego to visit Marcel, his monkey. Joey is stalked by a fan of his daytime drama. First of a two-part episode.13. The One After the Super Bowl: Part 222mRachel and Monica compete for the affections of Jean-Claude Van Damme. Ross and Marcel go on a tour of the city. Second of a two-part episode.14. The One with the Prom Video23mMonica and Rachel's prom video reveals Monica's former girth, Rachel's former nose and the way Ross has always felt about Rachel.15. The One Where Ross and Rachel...You Know23mRoss and Rachel finally sleep together. Monica becomes infatuated with one of her parents' friends, for whom she caters a party.16. The One Where Joey Moves Out23mAfter having a fight with Chandler, Joey moves out. Monica's father finds out that Monica is dating his best friend.17. The One Where Eddie Moves In23mJoey considers moving back in with Chandler, but Chandler has a new roommate.18. The One Where Dr. Ramoray Dies23mJoey's soap opera character gets dropped down an elevator shaft after Joey brags about writing his own lines.19. The One Where Eddie Won't Go23mChandler demands that his bizarre new roommate, Eddie, move out ... but Eddie won't go.20. The One Where Old Yeller Dies23mPhoebe's world view is shattered when she learns how "Old Yeller" really ends.21. The One with the Bullies23mTwo bullies eject Chandler and Ross from Central Perk. Phoebe meets a brother she never knew she had.22. The One with the Two Parties23mComplications ensue when Rachel's estranged parents show up at the surprise party that the gang planned for her.23. The One with the Chicken Pox23mPhoebe catches chicken pox from the baby, just as her ex-boyfriend returns on shore leave from the Navy.24. The One with Barry and Mindy's Wedding23mRachel agrees to be the maid of honor at her ex-fiancé's wedding., Release Year: 1995, 1. The One with Ross's New Girlfriend22mRachel waits at the airport for Ross, not knowing he is returning from China with his new girlfriend, Julie. Phoebe gives Monica an awful haircut.2. The One with the Breast Milk23mThe guys are uncomfortable with the thought of Carol's breast milk, while Rachel is upset by Monica's growing friendship with Julie.3. The One Where Heckles Dies23mAfter Mr. Heckles dies and leaves all his belongings to Monica and Rachel, Chandler discovers he has eerie similarities with the late eccentric man.4. The One with Phoebe's Husband23mPhoebe has married a gay Canadian ice dancer to help him get his green card.5. The One with Five Steaks and an Eggplant23mIncome issues divide the friends. Monica, Ross and Chandler have money; Phoebe, Rachel and Joey don't.6. The One with the Baby on the Bus23mChandler and Joey lose Ross's son while checking out women on a bus.7. The One Where Ross Finds Out23mA drunken Rachel calls Ross and reveals her feelings for him on his answering machine. Now, Ross must make a decision between her and Julie.8. The One with the List23mJoey and Chandler try to help Ross with his decision to date Julie or Rachel by making a list of the pros and cons of each.9. The One with Phoebe's Dad23mIn this Christmas episode, Phoebe tries to track down her real father.10. The One with Russ23mRachel is dating a guy named Russ, and is blind to his uncanny resemblance to Ross.11. The One with the Lesbian Wedding23mMonica caters the wedding of Ross's ex-wife and her lesbian lover. Rachel learns that her mom and dad are getting a divorce.12. The One After the Super Bowl: Part 123mRoss travels to San Diego to visit Marcel, his monkey. Joey is stalked by a fan of his daytime drama. First of a two-part episode.13. The One After the Super Bowl: Part 222mRachel and Monica compete for the affections of Jean-Claude Van Damme. Ross and Marcel go on a tour of the city. Second of a two-part episode.14. The One with the Prom Video23mMonica and Rachel's prom video reveals Monica's former girth, Rachel's former nose and the way Ross has always felt about Rachel.15. The One Where Ross and Rachel...You Know23mRoss and Rachel finally sleep together. Monica becomes infatuated with one of her parents' friends, for whom she caters a party.16. The One Where Joey Moves Out23mAfter having a fight with Chandler, Joey moves out. Monica's father finds out that Monica is dating his best friend.17. The One Where Eddie Moves In23mJoey considers moving back in with Chandler, but Chandler has a new roommate.18. The One Where Dr. Ramoray Dies23mJoey's soap opera character gets dropped down an elevator shaft after Joey brags about writing his own lines.19. The One Where Eddie Won't Go23mChandler demands that his bizarre new roommate, Eddie, move out ... but Eddie won't go.20. The One Where Old Yeller Dies23mPhoebe's world view is shattered when she learns how "Old Yeller" really ends.21. The One with the Bullies23mTwo bullies eject Chandler and Ross from Central Perk. Phoebe meets a brother she never knew she had.22. The One with the Two Parties23mComplications ensue when Rachel's estranged parents show up at the surprise party that the gang planned for her.23. The One with the Chicken Pox23mPhoebe catches chicken pox from the baby, just as her ex-boyfriend returns on shore leave from the Navy.24. The One with Barry and Mindy's Wedding23mRachel agrees to be the maid of honor at her ex-fiancé's wedding., Release Year: 1996The shenanigans of the tightest circle of friends -- including Chandler and Joey adopting a duck -- continue as Season 3 plays out.1. The One with the Princess Leia Fantasy23mRoss reveals a fantasy to Rachel involving a certain Star Wars character.2. The One Where No One's Ready23mIn a race against the clock, Ross tries to get the gang dressed and ready for a black-tie benefit at the museum.3. The One with the Jam23mAfter breaking up with Richard, Monica uses her free time to make jam and consider insemination via a sperm bank.4. The One with the Metaphorical Tunnel23mRoss panics when he sees his son with a Barbie doll. Phoebe poses as Joey's agent and gets him some good parts.5. The One with Frank Jr23mPhoebe's half-brother visits, and they have trouble bonding.6. The One with the Flashback23mWhen Janice asks the gang if any of them have ever slept together, the friends flash back to a time three years earlier.7. The One with the Race Car Bed23mMonica buys a new bed from Janice's soon-to-be-ex-husband, but the wrong one is delivered.8. The One with the Giant Poking Device23mJoey and Monica catch Janice kissing her ex-husband.9. The One with the Football23mThe gang plays a game of touch football on Thanksgiving.10. The One Where Rachel Quits23mRachel quits her job after Gunther tells her she needs to be retrained.11. The One Where Chandler Can't Remember Which Sister23mA drunken Chandler fools around with one of Joey's sisters -- but he can't remember which one.12. The One with All the Jealousy23mRoss becomes jealous when he thinks he catches Rachel's new co-worker flirting with her.13. The One Where Monica &amp; Richard Are Just Friends23mMonica's willpower is tested when she runs into Richard at a video store.14. The One with Phoebe's Ex-Partner23mPhoebe is reunited with her former singing partner. Rachel's new job is putting a strain on her relationship with Ross.15. The One Where Ross &amp; Rachel Take a Break23mRoss seeks solace at a party after a bitter fight with Rachel and ends up in the arms of another woman.16. The One The Morning After23mWhen Rachel discovers that Ross slept with Chloe, she decides to break up with him.17. The One Without the Ski Trip23mA lonely Ross visits Carol when Rachel goes on a ski trip with some friends.18. The One with the Hypnosis Tape23mPhoebe is distraught when her brother wants to marry a woman twice his age.    A hypnosis tape makes Chandler act like a woman.19. The One with the Tiny T-Shirt23mRachel goes on her first date since her breakup with Ross. Monica dates Pete, even though she is still not attracted to him.20. The One with the Dollhouse23mJoey thinks he's found his true love. Rachel's boss dates Chandler, creating big trouble for Rachel. Monica inherits a dollhouse.21. The One with a Chick. And a Duck23mWhen Pete buys a restaurant, Monica must decide whether to accept his offer of employment there. Joey and Chandler adopt a duck and a chick.22. The One with the Screamer23mRoss thinks that Rachel's date is crazy. Joey falls in love with Kate, but when she's offered a job in Los Angeles, she takes it.23. The One with Ross's Thing23mRoss finds a strange growth on his buttocks. Phoebe can't choose between two guys. Monica's boyfriend surprises her by not proposing marriage.24. The One with the Ultimate Fighting Champion23mTo Monica's horror, Pete plans to be in an ultimate fight. Phoebe sets Ross up on a date with a woman who used to be bald.25. The One at the Beach23mThe gang goes to the beach. Phoebe meets a family friend with links to her family's past. Ross discovers that Rachel still loves him., Release Year: 1996, 1. The One with the Princess Leia Fantasy23mRoss reveals a fantasy to Rachel involving a certain Star Wars character.2. The One Where No One's Ready23mIn a race against the clock, Ross tries to get the gang dressed and ready for a black-tie benefit at the museum.3. The One with the Jam23mAfter breaking up with Richard, Monica uses her free time to make jam and consider insemination via a sperm bank.4. The One with the Metaphorical Tunnel23mRoss panics when he sees his son with a Barbie doll. Phoebe poses as Joey's agent and gets him some good parts.5. The One with Frank Jr23mPhoebe's half-brother visits, and they have trouble bonding.6. The One with the Flashback23mWhen Janice asks the gang if any of them have ever slept together, the friends flash back to a time three years earlier.7. The One with the Race Car Bed23mMonica buys a new bed from Janice's soon-to-be-ex-husband, but the wrong one is delivered.8. The One with the Giant Poking Device23mJoey and Monica catch Janice kissing her ex-husband.9. The One with the Football23mThe gang plays a game of touch football on Thanksgiving.10. The One Where Rachel Quits23mRachel quits her job after Gunther tells her she needs to be retrained.11. The One Where Chandler Can't Remember Which Sister23mA drunken Chandler fools around with one of Joey's sisters -- but he can't remember which one.12. The One with All the Jealousy23mRoss becomes jealous when he thinks he catches Rachel's new co-worker flirting with her.13. The One Where Monica &amp; Richard Are Just Friends23mMonica's willpower is tested when she runs into Richard at a video store.14. The One with Phoebe's Ex-Partner23mPhoebe is reunited with her former singing partner. Rachel's new job is putting a strain on her relationship with Ross.15. The One Where Ross &amp; Rachel Take a Break23mRoss seeks solace at a party after a bitter fight with Rachel and ends up in the arms of another woman.16. The One The Morning After23mWhen Rachel discovers that Ross slept with Chloe, she decides to break up with him.17. The One Without the Ski Trip23mA lonely Ross visits Carol when Rachel goes on a ski trip with some friends.18. The One with the Hypnosis Tape23mPhoebe is distraught when her brother wants to marry a woman twice his age.    A hypnosis tape makes Chandler act like a woman.19. The One with the Tiny T-Shirt23mRachel goes on her first date since her breakup with Ross. Monica dates Pete, even though she is still not attracted to him.20. The One with the Dollhouse23mJoey thinks he's found his true love. Rachel's boss dates Chandler, creating big trouble for Rachel. Monica inherits a dollhouse.21. The One with a Chick. And a Duck23mWhen Pete buys a restaurant, Monica must decide whether to accept his offer of employment there. Joey and Chandler adopt a duck and a chick.22. The One with the Screamer23mRoss thinks that Rachel's date is crazy. Joey falls in love with Kate, but when she's offered a job in Los Angeles, she takes it.23. The One with Ross's Thing23mRoss finds a strange growth on his buttocks. Phoebe can't choose between two guys. Monica's boyfriend surprises her by not proposing marriage.24. The One with the Ultimate Fighting Champion23mTo Monica's horror, Pete plans to be in an ultimate fight. Phoebe sets Ross up on a date with a woman who used to be bald.25. The One at the Beach23mThe gang goes to the beach. Phoebe meets a family friend with links to her family's past. Ross discovers that Rachel still loves him., Release Year: 1997Chandler makes amends to Joey by spending Thanksgiving in a box, Monica finally lands her dream job of head chef, and Phoebe supports her brother.1. The One with the Jellyfish23mRoss dates Rachel again after unwittingly agreeing to take responsibility for their breakup. Monica is stung by a jellyfish.2. The One with the Cat22mPhoebe believes that the cat that jumped into her guitar case in Central Perk contains the spirit of her adoptive mom.3. The One with the 'Cuffs22mMonica tries to prove that she can cater a gourmet meal for her mother. Chandler gets into an embarrassing situation while dating Rachel's boss.4. The One with the Ballroom Dancing22mJoey teaches the building superintendent ballroom dancing to prevent him from evicting Rachel and Monica. Phoebe wants to date a massage client.5. The One with Joey's New Girlfriend22mJoey thinks that Chandler hates Joey's new girlfriend -- but the truth is that Chandler avoids her because he is so attracted to her.6. The One with the Dirty Girl22mRoss's beautiful new girlfriend has a very dirty apartment. Chandler becomes more familiar with Joey's girlfriend.7. The One Where Chandler Crosses the Line22mChandler is guilt-ridden after kissing Joey's girlfriend. Ross's musical talents are not as amazing as he and Phoebe think.8. The One with Chandler in a Box23mOn Thanksgiving, Joey punishes Chandler for kissing Kathy. Monica gets a surprise when she visits an eye doctor: He's her former boyfriend's son.9. The One Where They're Going to Party22mThe guys try to be spontaneous and wild. Rachel is offered a promotion. Monica must decide between a job as a head chef or her catering business.10. The One with the Girl from Poughkeepsie22mRoss struggles to maintain a long-distance relationship. Chandler tries to get a date for Rachel. Monica plots to establish authority at her new job.11. The One with Phoebe's Uterus22mPhoebe's half-brother makes an astounding announcement: He has married his older girlfriend and wants Phoebe to be a surrogate mother for them.12. The One with the Embryos22mPhoebe undergoes an embryo transplant and becomes pregnant. A simple challenge escalates into a full-blown contest between the guys and the women.13. The One with Rachel's Crush22mChandler has a hard time with Kathy's new role in a play, in which she pretends to have sex with a handsome man. Rachel is attracted to a customer.14. The One with Joey's Dirty Day22mJoey has no time to shower after he comes home from a three-day fishing trip and has to head out to the set of Charlton Heston's new movie.15. The One with All the Rugby22mChandler runs into Janice, now divorced, and finds her more irritating than ever. Ross plays rugby to impress Emily.16. The One with the Fake Party22mRachel throws Emily a phony going-away party so she can see Joshua outside of work. Pregnant Phoebe craves meat.17. The One with the Free Porn22mThe guys realize their TV is picking up a porno station for free. Phoebe discovers she's carrying triplets.18. The One with Rachel's New Dress22mPhoebe gets to name one of her babies. Rachel's plans to seduce her boyfriend go awry. Ross worries about his relationship with Emily.19. The One with All the Haste22mMonica and Rachel will do anything to get their old apartment back from the guys. Ross asks Emily to marry him.20. The One with the Wedding Dresses22mMonica wears Emily's wedding dress. Chandler forces Joey to get treatment for his snoring at a sleep clinic. Rachel proposes marriage to Joshua.21. The One with the Invitation22mRachel and the engaged Ross reminisce separately about when they dated each other. The friends get invitations to Ross's wedding.22. The One with the Worst Best Man Ever22mAfter Joey almost loses Ross's wedding ring, Ross asks both Joey and Chandler to serve as his best man. The girls host a baby shower for Phoebe.23. The One with Ross's Wedding: Part 122mIn London for Ross's wedding, Chandler and Joey argue while sightseeing. After talking with Phoebe, Rachel realizes that she still loves Ross.24. The One with Ross's Wedding: Part 222mPhoebe tries to warn the friends that Rachel is coming to London. Chandler and Monica develop a connection. Ross's father argues with Emily's father., Release Year: 1997, 1. The One with the Jellyfish23mRoss dates Rachel again after unwittingly agreeing to take responsibility for their breakup. Monica is stung by a jellyfish.2. The One with the Cat22mPhoebe believes that the cat that jumped into her guitar case in Central Perk contains the spirit of her adoptive mom.3. The One with the 'Cuffs22mMonica tries to prove that she can cater a gourmet meal for her mother. Chandler gets into an embarrassing situation while dating Rachel's boss.4. The One with the Ballroom Dancing22mJoey teaches the building superintendent ballroom dancing to prevent him from evicting Rachel and Monica. Phoebe wants to date a massage client.5. The One with Joey's New Girlfriend22mJoey thinks that Chandler hates Joey's new girlfriend -- but the truth is that Chandler avoids her because he is so attracted to her.6. The One with the Dirty Girl22mRoss's beautiful new girlfriend has a very dirty apartment. Chandler becomes more familiar with Joey's girlfriend.7. The One Where Chandler Crosses the Line22mChandler is guilt-ridden after kissing Joey's girlfriend. Ross's musical talents are not as amazing as he and Phoebe think.8. The One with Chandler in a Box23mOn Thanksgiving, Joey punishes Chandler for kissing Kathy. Monica gets a surprise when she visits an eye doctor: He's her former boyfriend's son.9. The One Where They're Going to Party22mThe guys try to be spontaneous and wild. Rachel is offered a promotion. Monica must decide between a job as a head chef or her catering business.10. The One with the Girl from Poughkeepsie22mRoss struggles to maintain a long-distance relationship. Chandler tries to get a date for Rachel. Monica plots to establish authority at her new job.11. The One with Phoebe's Uterus22mPhoebe's half-brother makes an astounding announcement: He has married his older girlfriend and wants Phoebe to be a surrogate mother for them.12. The One with the Embryos22mPhoebe undergoes an embryo transplant and becomes pregnant. A simple challenge escalates into a full-blown contest between the guys and the women.13. The One with Rachel's Crush22mChandler has a hard time with Kathy's new role in a play, in which she pretends to have sex with a handsome man. Rachel is attracted to a customer.14. The One with Joey's Dirty Day22mJoey has no time to shower after he comes home from a three-day fishing trip and has to head out to the set of Charlton Heston's new movie.15. The One with All the Rugby22mChandler runs into Janice, now divorced, and finds her more irritating than ever. Ross plays rugby to impress Emily.16. The One with the Fake Party22mRachel throws Emily a phony going-away party so she can see Joshua outside of work. Pregnant Phoebe craves meat.17. The One with the Free Porn22mThe guys realize their TV is picking up a porno station for free. Phoebe discovers she's carrying triplets.18. The One with Rachel's New Dress22mPhoebe gets to name one of her babies. Rachel's plans to seduce her boyfriend go awry. Ross worries about his relationship with Emily.19. The One with All the Haste22mMonica and Rachel will do anything to get their old apartment back from the guys. Ross asks Emily to marry him.20. The One with the Wedding Dresses22mMonica wears Emily's wedding dress. Chandler forces Joey to get treatment for his snoring at a sleep clinic. Rachel proposes marriage to Joshua.21. The One with the Invitation22mRachel and the engaged Ross reminisce separately about when they dated each other. The friends get invitations to Ross's wedding.22. The One with the Worst Best Man Ever22mAfter Joey almost loses Ross's wedding ring, Ross asks both Joey and Chandler to serve as his best man. The girls host a baby shower for Phoebe.23. The One with Ross's Wedding: Part 122mIn London for Ross's wedding, Chandler and Joey argue while sightseeing. After talking with Phoebe, Rachel realizes that she still loves Ross.24. The One with Ross's Wedding: Part 222mPhoebe tries to warn the friends that Rachel is coming to London. Chandler and Monica develop a connection. Ross's father argues with Emily's father., Release Year: 1998The friends continue to haphazardly navigate their way through Manhattan, landing in more improbable situations than anyone has a right to imagine.1. The One After Ross Says Rachel22mRoss and Emily get married, but she cannot forgive him for calling her Rachel during the vows. Chandler and Monica search for a place to have sex.2. The One with All the Kissing22mChandler kisses both Rachel and Phoebe in order to cover up a kiss he gave to Monica. Rachel finally tells Ross her feelings.3. The One Hundredth22mPhoebe goes into labor and is stuck with a doctor who is obsessed with the show "Happy Days." Monica plans a date with a male nurse to spite Chandler.4. The One Where Phoebe Hates PBS22mThe gang discovers that Phoebe hates PBS. Emily tells Ross she'll give him a second chance only if he cuts all ties with Rachel.5. The One with the Kips22mChandler and Monica plan a trip to Atlantic City for some private time. When Joey discovers that they are dating, they swear him to secrecy.6. The One with the Yeti22mMonica and Rachel are afraid of a hairy new neighbor -- until they find out how handsome he is with his hair cut.7. The One Where Ross Moves In22mAfter getting kicked out of his apartment, Ross moves in temporarily with Chandler and Joey, driving all three of them crazy.8. The One with All the Thanksgivings22mIt's Thanksgiving, and the gang remembers former terrible Thanksgiving experiences. Chandler tells Monica that he loves her.9. The One with Ross's Sandwich22mRoss becomes upset when someone at work takes his sandwich from the refrigerator and eats it. Joey tries to cover for Chandler and Monica's dating.10. The One with the Inappropriate Sister22mPhoebe collects money for the Salvation Army during the holidays. Rachel is disturbed by her date's inappropriate relationship with his sister.11. The One with All the Resolutions22mThe friends all make New Year's resolutions, but it looks like Rachel's resolution -- to stop gossiping -- is going to be the hardest to keep.12. The One with Chandler's Work Laugh22mRoss dates Janice after discovering that Emily is getting remarried. Monica hates the fake laugh that Chandler uses in response to his boss's jokes.13. The One with Joey's Bag22mPhoebe meets her father at her grandmother's funeral. Chandler discovers that Monica gives bad massages. Rachel dresses Joey for an audition.14. The One Where Everybody Finds Out22mRoss rents an apartment with a window facing Monica and Rachel's place. Phoebe sees Monica and Chandler having sex and learns the truth.15. The One with the Girl Who Hits Joey22mJoey's girlfriend likes to punch him. Ross alienates his new neighbors when he refuses to contribute to the retirement donation for the janitor.16. The One with the Cop22mAfter Phoebe finds a police badge, she uses it to do good deeds. Joey worries that he is in love with Monica.17. The One with Rachel's Inadvertent Kiss22mRachel accidentally kisses the man interviewing her for a job. Joey becomes obsessed with a woman living in Ross' apartment complex.18. The One Where Rachel Smokes22mRachel starts smoking when she realizes that her boss and co-workers at her new job are smokers. Joey and Ben audition for a commercial.19. The One Where Ross Can't Flirt22mRoss tries to flirt with the pizza delivery girl, with horrible results. Rachel loses a pair of earrings that Monica had lent to Phoebe.20. The One with the Ride-Along22mWhile the men are out, Emily leaves a message for Ross. Rachel, who was in Ross's apartment at the time, hears the message and accidentally erases it.21. The One with the Ball22mGary asks Phoebe to move in with him. Monica and Chandler join Ross and Joey in a game of catch that lasts for hours.22. The One with Joey's Big Break22mJoey and Chandler take a road trip to Las Vegas, where Joey has landed the lead role in a movie. But the two argue and Joey goes on alone.23. The One in Vegas: Part 122mThe gang decides to go out to Las Vegas to surprise Joey and to celebrate Monica's and Chandler's one-year anniversary.24. The One in Vegas: Part 222mMonica and Chandler reconcile and, on the roll of the dice, decide to go to a chapel and get married immediately., Release Year: 1998, 1. The One After Ross Says Rachel22mRoss and Emily get married, but she cannot forgive him for calling her Rachel during the vows. Chandler and Monica search for a place to have sex.2. The One with All the Kissing22mChandler kisses both Rachel and Phoebe in order to cover up a kiss he gave to Monica. Rachel finally tells Ross her feelings.3. The One Hundredth22mPhoebe goes into labor and is stuck with a doctor who is obsessed with the show "Happy Days." Monica plans a date with a male nurse to spite Chandler.4. The One Where Phoebe Hates PBS22mThe gang discovers that Phoebe hates PBS. Emily tells Ross she'll give him a second chance only if he cuts all ties with Rachel.5. The One with the Kips22mChandler and Monica plan a trip to Atlantic City for some private time. When Joey discovers that they are dating, they swear him to secrecy.6. The One with the Yeti22mMonica and Rachel are afraid of a hairy new neighbor -- until they find out how handsome he is with his hair cut.7. The One Where Ross Moves In22mAfter getting kicked out of his apartment, Ross moves in temporarily with Chandler and Joey, driving all three of them crazy.8. The One with All the Thanksgivings22mIt's Thanksgiving, and the gang remembers former terrible Thanksgiving experiences. Chandler tells Monica that he loves her.9. The One with Ross's Sandwich22mRoss becomes upset when someone at work takes his sandwich from the refrigerator and eats it. Joey tries to cover for Chandler and Monica's dating.10. The One with the Inappropriate Sister22mPhoebe collects money for the Salvation Army during the holidays. Rachel is disturbed by her date's inappropriate relationship with his sister.11. The One with All the Resolutions22mThe friends all make New Year's resolutions, but it looks like Rachel's resolution -- to stop gossiping -- is going to be the hardest to keep.12. The One with Chandler's Work Laugh22mRoss dates Janice after discovering that Emily is getting remarried. Monica hates the fake laugh that Chandler uses in response to his boss's jokes.13. The One with Joey's Bag22mPhoebe meets her father at her grandmother's funeral. Chandler discovers that Monica gives bad massages. Rachel dresses Joey for an audition.14. The One Where Everybody Finds Out22mRoss rents an apartment with a window facing Monica and Rachel's place. Phoebe sees Monica and Chandler having sex and learns the truth.15. The One with the Girl Who Hits Joey22mJoey's girlfriend likes to punch him. Ross alienates his new neighbors when he refuses to contribute to the retirement donation for the janitor.16. The One with the Cop22mAfter Phoebe finds a police badge, she uses it to do good deeds. Joey worries that he is in love with Monica.17. The One with Rachel's Inadvertent Kiss22mRachel accidentally kisses the man interviewing her for a job. Joey becomes obsessed with a woman living in Ross' apartment complex.18. The One Where Rachel Smokes22mRachel starts smoking when she realizes that her boss and co-workers at her new job are smokers. Joey and Ben audition for a commercial.19. The One Where Ross Can't Flirt22mRoss tries to flirt with the pizza delivery girl, with horrible results. Rachel loses a pair of earrings that Monica had lent to Phoebe.20. The One with the Ride-Along22mWhile the men are out, Emily leaves a message for Ross. Rachel, who was in Ross's apartment at the time, hears the message and accidentally erases it.21. The One with the Ball22mGary asks Phoebe to move in with him. Monica and Chandler join Ross and Joey in a game of catch that lasts for hours.22. The One with Joey's Big Break22mJoey and Chandler take a road trip to Las Vegas, where Joey has landed the lead role in a movie. But the two argue and Joey goes on alone.23. The One in Vegas: Part 122mThe gang decides to go out to Las Vegas to surprise Joey and to celebrate Monica's and Chandler's one-year anniversary.24. The One in Vegas: Part 222mMonica and Chandler reconcile and, on the roll of the dice, decide to go to a chapel and get married immediately., Release Year: 1999In Season 6 of the Emmy-winning series, Ross doesn't tell Rachel that their accidental marriage was never annulled, but he does tell Phoebe.1. The One After Vegas22mRoss and Rachel wake up together, not realizing they got married the night before. Monica and Chandler talk about moving in together.2. The One Where Ross Hugs Rachel22mRoss has to tell Rachel that they're still married. Chandler is moving in with Monica, and Rachel assumes that she'll be living with them.3. The One with Ross's Denial22mRoss asks Rachel to be his roommate, refusing to admit that he still has feelings for her. Monica and Chandler argue about the apartment.4. The One Where Joey Loses His Insurance22mJoey gets a hernia but doesn't have health insurance to cover getting it treated. Ross puts on a British accent while teaching his new class.5. The One with Joey's Porsche22mJoey pretends that he owns a Porsche. After the incident in Vegas, Ross is feeling like a failure because he's about to get his third divorce.6. The One on the Last Night22mJoey is broke but won't accept help from his friends, so Chandler lets him "win" money in a game. Rachel gets ready to move and fights with Monica.7. The One Where Phoebe Runs22mPhoebe looks goofy when she runs, so Rachel is embarrassed to go jogging with her. Joey is attracted to his new roommate, Janine.8. The One with Ross's Teeth22mRoss whitens his teeth to impress a girl, but he goes way overboard. Phoebe tells Rachel that she hooked up with Ralph Lauren.9. The One Where Ross Got High23mMonica and Ross's parents don't like Chandler because they think he smoked pot in college. Rachel makes a disgusting Thanksgiving dessert.10. The One with the Routine22mJoey, Ross and Monica dance on "Dick Clark's New Year's Rockin' Eve." The rest of the gang searches for Monica's hidden Christmas presents.11. The One with the Apothecary Table22mRachel buys a table from a fancy store and tells Phoebe she got it at the flea market. Janine tells Joey that she doesn't like Monica and Chandler.12. The One with the Joke22mChandler and Ross both try to take credit for a joke. Monica is insulted when Phoebe says Rachel would make a better girlfriend than her.13. The One with Rachel's Sister22mRachel's sister, Jill, comes to Rachel for help after her parents cut her off financially. Working as a waiter, Joey hits on the Central Perk customers.14. The One Where Chandler Can't Cry22mWhen Chandler says he hardly ever cries, everyone tries to make it happen. Rachel's sister, Jill, dates Ross to annoy Rachel.15. The One That Could Have Been: Part 122mThe gang imagines what life would've been like if Rachel had married Barry, Phoebe became a business executive and Monica was still fat.16. The One That Could Have Been: Part 222mThe friends continue to ponder an alternate past in which fat Monica seduces Chandler and married Rachel almost cheats on Barry with Joey.17. The One with Unagi22mWhen Rachel and Phoebe take a self-defense class, Ross claims he's a martial arts expert. Chandler and Monica forget to buy Valentine's Day gifts.18. The One Where Ross Dates a Student22mOne of Ross's students asks him on a date. When there's a fire in their apartment, Rachel and Phoebe have to stay with Joey or Monica.19. The One with Joey's Fridge22mJoey tries to convince someone to buy him a new fridge. Ross is worried that his girlfriend will cheat on him during spring break.20. The One with Mac and C.H.E.E.S.E22mJoey's up for the lead in a new TV show, but Chandler forgets to leave him a message that the audition time has changed.21. The One Where Ross Meets Elizabeth's Dad22mRoss makes a bad impression on Elizabeth's dad, who doesn't approve of them dating. But Elizabeth's dad takes an interest in Rachel.22. The One Where Paul's the Man22mRoss and Elizabeth sneak off to the family cabin, where Rachel and Paul -- who threatened to have Ross fired for dating a student -- are also headed.23. The One with the Ring22mPhoebe is the only one who knows that Chandler is going to propose to Monica, and she lies to Ross to keep him from finding out.24. The One with the Proposal: Part 122mChandler's plan to propose to Monica is interrupted when they run into Richard. Joey accidentally buys a boat for $20,000 at a silent auction.25. The One with the Proposal: Part 222mRichard tells Monica he still loves her. Chandler's attempt to make the proposal a surprise leaves Monica thinking he doesn't want to marry her., Release Year: 1999, 1. The One After Vegas22mRoss and Rachel wake up together, not realizing they got married the night before. Monica and Chandler talk about moving in together.2. The One Where Ross Hugs Rachel22mRoss has to tell Rachel that they're still married. Chandler is moving in with Monica, and Rachel assumes that she'll be living with them.3. The One with Ross's Denial22mRoss asks Rachel to be his roommate, refusing to admit that he still has feelings for her. Monica and Chandler argue about the apartment.4. The One Where Joey Loses His Insurance22mJoey gets a hernia but doesn't have health insurance to cover getting it treated. Ross puts on a British accent while teaching his new class.5. The One with Joey's Porsche22mJoey pretends that he owns a Porsche. After the incident in Vegas, Ross is feeling like a failure because he's about to get his third divorce.6. The One on the Last Night22mJoey is broke but won't accept help from his friends, so Chandler lets him "win" money in a game. Rachel gets ready to move and fights with Monica.7. The One Where Phoebe Runs22mPhoebe looks goofy when she runs, so Rachel is embarrassed to go jogging with her. Joey is attracted to his new roommate, Janine.8. The One with Ross's Teeth22mRoss whitens his teeth to impress a girl, but he goes way overboard. Phoebe tells Rachel that she hooked up with Ralph Lauren.9. The One Where Ross Got High23mMonica and Ross's parents don't like Chandler because they think he smoked pot in college. Rachel makes a disgusting Thanksgiving dessert.10. The One with the Routine22mJoey, Ross and Monica dance on "Dick Clark's New Year's Rockin' Eve." The rest of the gang searches for Monica's hidden Christmas presents.11. The One with the Apothecary Table22mRachel buys a table from a fancy store and tells Phoebe she got it at the flea market. Janine tells Joey that she doesn't like Monica and Chandler.12. The One with the Joke22mChandler and Ross both try to take credit for a joke. Monica is insulted when Phoebe says Rachel would make a better girlfriend than her.13. The One with Rachel's Sister22mRachel's sister, Jill, comes to Rachel for help after her parents cut her off financially. Working as a waiter, Joey hits on the Central Perk customers.14. The One Where Chandler Can't Cry22mWhen Chandler says he hardly ever cries, everyone tries to make it happen. Rachel's sister, Jill, dates Ross to annoy Rachel.15. The One That Could Have Been: Part 122mThe gang imagines what life would've been like if Rachel had married Barry, Phoebe became a business executive and Monica was still fat.16. The One That Could Have Been: Part 222mThe friends continue to ponder an alternate past in which fat Monica seduces Chandler and married Rachel almost cheats on Barry with Joey.17. The One with Unagi22mWhen Rachel and Phoebe take a self-defense class, Ross claims he's a martial arts expert. Chandler and Monica forget to buy Valentine's Day gifts.18. The One Where Ross Dates a Student22mOne of Ross's students asks him on a date. When there's a fire in their apartment, Rachel and Phoebe have to stay with Joey or Monica.19. The One with Joey's Fridge22mJoey tries to convince someone to buy him a new fridge. Ross is worried that his girlfriend will cheat on him during spring break.20. The One with Mac and C.H.E.E.S.E22mJoey's up for the lead in a new TV show, but Chandler forgets to leave him a message that the audition time has changed.21. The One Where Ross Meets Elizabeth's Dad22mRoss makes a bad impression on Elizabeth's dad, who doesn't approve of them dating. But Elizabeth's dad takes an interest in Rachel.22. The One Where Paul's the Man22mRoss and Elizabeth sneak off to the family cabin, where Rachel and Paul -- who threatened to have Ross fired for dating a student -- are also headed.23. The One with the Ring22mPhoebe is the only one who knows that Chandler is going to propose to Monica, and she lies to Ross to keep him from finding out.24. The One with the Proposal: Part 122mChandler's plan to propose to Monica is interrupted when they run into Richard. Joey accidentally buys a boat for $20,000 at a silent auction.25. The One with the Proposal: Part 222mRichard tells Monica he still loves her. Chandler's attempt to make the proposal a surprise leaves Monica thinking he doesn't want to marry her., Release Year: 1999Monica and Chandler prepare for their wedding but must deal with a competition between Rachel and Phoebe to be Monica's maid of honor.1. The One with Monica's Thunder22mMonica excitedly reveals the good news of her engagement to everyone -- but Rachel and Ross upstage her by reuniting.2. The One with Rachel's Book22mJoey finds out that Rachel is reading a steamy romance novel. Monica discovers that her parents have spent the money for her wedding on a beach house.3. The One with Phoebe's Cookies21mMonica becomes obsessed with acquiring Phoebe's secret, delicious cookie recipe. Joey accepts Rachel's help with sailing.4. The One with Rachel's Assistant22mRachel wants to hire a cute, young male assistant over a more qualified woman. Joey's show gets cancelled.5. The One with the Engagement Picture22mJoey tries to teach Chandler how to smile for an engagement picture with Monica. Joey takes Tag out for a good time.6. The One with the Nap Partners22mRachel and Phoebe compete to be Monica's maid of honor -- but Monica doesn't want to make the decision.7. The One with Ross' Library Book22mRoss discovers that his dissertation is in a section of the library where students go to have sex. Rachel and Phoebe meddle in Joey's relationship.8. The One Where Chandler Doesn't Like Dogs22mChandler's irrational fear of dogs causes problems when Phoebe brings home a cute canine. Rachel's assistant gives her a Thanksgiving surprise.9. The One with All the Candy22mMonica becomes popular with her neighbors because of her homemade candy. Phoebe decides to learn to ride a bicycle.10. The One with the Holiday Armadillo22mRoss dresses up as the Holiday Armadillo and, with Monica, Chandler and Joey's help, teaches Ben about Chanukah.11. The One with All the Cheesecakes22mChandler and Rachel can't help eating the irresistible cheesecakes intended for a neighbor. Phoebe's former boyfriend returns for one night only.12. The One Where They're Up All Night22mMonica falls asleep during sex. Rachel argues with Tag. Ross and Joey get stranded on the roof.13. The One Where Rosita Dies22mPhoebe becomes involved with a suicidal office worker. Rachel breaks Joey's favorite chair. Monica's beloved childhood belongings are destroyed.14. The One Where They All Turn Thirty22mRachel's 30th birthday prompts the friends to reminisce about their own 30th birthdays.15. The One with Joey's New Brain22mJoey's character on a daytime drama becomes more prominent -- to the chagrin of the show's diva star.16. The One with the Truth About London22mChandler finds out who Monica really wanted to have sex with on the night they became lovers. Ross is mad after Rachel teaches Ben practical jokes.17. The One with the Cheap Wedding Dress22mMonica battles another shopper for the perfect wedding dress. Ross and Joey compete for the same woman.18. The One with Joey's Award22mJoey overreacts at a daytime drama awards show. Ross deals with a male student who says he's in love with him.19. The One with Ross and Monica's Cousin22mMonica's gorgeous cousin unwittingly wreaks havoc on Chandler and Ross. Rachel and Phoebe hastily plan a surprise bridal party for Monica.20. The One with Rachel's Big Kiss22mRachel reveals a titillating secret about her and a former sorority sister. Ross and Chandler compete for wedding tuxedos.21. The One with the Vows22mAs Monica and Chandler prepare their wedding vows, everyone reminisces.22. The One with Chandler's Dad22mChandler confronts his estranged, cross-dressing father. Rachel gets into trouble driving Monica's Porsche.23. The One with Chandler and Monica's Wedding: Part 122mAs the relatives gather for Monica and Chandler's wedding, Chandler finally realizes the magnitude of what he's doing.24. The One with Chandler and Monica's Wedding: Part 222mMonica remains blissfully unaware of the potential disasters on her wedding day., Release Year: 1999, 1. The One with Monica's Thunder22mMonica excitedly reveals the good news of her engagement to everyone -- but Rachel and Ross upstage her by reuniting.2. The One with Rachel's Book22mJoey finds out that Rachel is reading a steamy romance novel. Monica discovers that her parents have spent the money for her wedding on a beach house.3. The One with Phoebe's Cookies21mMonica becomes obsessed with acquiring Phoebe's secret, delicious cookie recipe. Joey accepts Rachel's help with sailing.4. The One with Rachel's Assistant22mRachel wants to hire a cute, young male assistant over a more qualified woman. Joey's show gets cancelled.5. The One with the Engagement Picture22mJoey tries to teach Chandler how to smile for an engagement picture with Monica. Joey takes Tag out for a good time.6. The One with the Nap Partners22mRachel and Phoebe compete to be Monica's maid of honor -- but Monica doesn't want to make the decision.7. The One with Ross' Library Book22mRoss discovers that his dissertation is in a section of the library where students go to have sex. Rachel and Phoebe meddle in Joey's relationship.8. The One Where Chandler Doesn't Like Dogs22mChandler's irrational fear of dogs causes problems when Phoebe brings home a cute canine. Rachel's assistant gives her a Thanksgiving surprise.9. The One with All the Candy22mMonica becomes popular with her neighbors because of her homemade candy. Phoebe decides to learn to ride a bicycle.10. The One with the Holiday Armadillo22mRoss dresses up as the Holiday Armadillo and, with Monica, Chandler and Joey's help, teaches Ben about Chanukah.11. The One with All the Cheesecakes22mChandler and Rachel can't help eating the irresistible cheesecakes intended for a neighbor. Phoebe's former boyfriend returns for one night only.12. The One Where They're Up All Night22mMonica falls asleep during sex. Rachel argues with Tag. Ross and Joey get stranded on the roof.13. The One Where Rosita Dies22mPhoebe becomes involved with a suicidal office worker. Rachel breaks Joey's favorite chair. Monica's beloved childhood belongings are destroyed.14. The One Where They All Turn Thirty22mRachel's 30th birthday prompts the friends to reminisce about their own 30th birthdays.15. The One with Joey's New Brain22mJoey's character on a daytime drama becomes more prominent -- to the chagrin of the show's diva star.16. The One with the Truth About London22mChandler finds out who Monica really wanted to have sex with on the night they became lovers. Ross is mad after Rachel teaches Ben practical jokes.17. The One with the Cheap Wedding Dress22mMonica battles another shopper for the perfect wedding dress. Ross and Joey compete for the same woman.18. The One with Joey's Award22mJoey overreacts at a daytime drama awards show. Ross deals with a male student who says he's in love with him.19. The One with Ross and Monica's Cousin22mMonica's gorgeous cousin unwittingly wreaks havoc on Chandler and Ross. Rachel and Phoebe hastily plan a surprise bridal party for Monica.20. The One with Rachel's Big Kiss22mRachel reveals a titillating secret about her and a former sorority sister. Ross and Chandler compete for wedding tuxedos.21. The One with the Vows22mAs Monica and Chandler prepare their wedding vows, everyone reminisces.22. The One with Chandler's Dad22mChandler confronts his estranged, cross-dressing father. Rachel gets into trouble driving Monica's Porsche.23. The One with Chandler and Monica's Wedding: Part 122mAs the relatives gather for Monica and Chandler's wedding, Chandler finally realizes the magnitude of what he's doing.24. The One with Chandler and Monica's Wedding: Part 222mMonica remains blissfully unaware of the potential disasters on her wedding day., Release Year: 2001Rachel is pregnant and faces single parenthood, while Joey agonizes over his feelings for her. Chandler and Monica are now dealing with married life.1. The One After I Do22mMonica and Chandler's wedding reception is almost upstaged by the news that Rachel is pregnant.2. The One with the Red Sweater22mAs they prepare to leave the wedding hotel, an excited Monica and Phoebe speculate about who might be the father of pregnant Rachel's baby.3. The One Where Rachel Tells ...22mEveryone seems to know who the father of Rachel's unborn baby is except for the man himself: Ross.4. The One with the Videotape22mRoss and Rachel try to explain how they ended up in bed together six weeks earlier, but the conversation quickly devolves into an argument.5. The One with Rachel's Date22mRoss is horrified to learn that Rachel is going on a date with a handsome actor, especially since she is pregnant with Ross' child.6. The One with the Halloween Party22mAt Monica's Halloween party, Phoebe becomes attracted to Eric, the friendly fiancé of her flighty twin, Ursula.7. The One with the Stain22mRoss is happy to learn that pregnant Rachel wants to find her own apartment. Phoebe is ecstatic that Eric has chosen her over her twin sister, Ursula.8. The One with the Stripper22mRachel nervously tells her short-tempered father that she is pregnant with Ross' baby. Monica feels guilty for denying Chandler a bachelor party.9. The One with the Rumor22mMonica invites Will, her high school friend, over for Thanksgiving dinner -- unaware that he isn't too fond of Rachel.10. The One with Monica's Boots22mChandler becomes upset when Monica spends a fortune on a luxurious pair of black boots. Phoebe tries to meet Sting.11. The One with the Creepy Holiday Card22mRoss becomes nervous when his new girlfriend, Mona, wants to mail cute Christmas cards with both of their pictures on it.12. The One Where Joey Dates Rachel22mIn order to prepare Joey for his big date the following night, Rachel eagerly agrees to accompany him for an evening out.13. The One Where Chandler Takes a Bath22mAs Joey agonizes over his secret affection for Rachel, Monica mistakenly thinks that he is infatuated with Phoebe.14. The One with the Secret Closet22mJoey realizes that his feelings for Rachel are excluding Ross from the joys of impending fatherhood. Chandler is obsessed with Monica's locked closet.15. The One with the Birthing Video22mMonica prepares a special Valentine's Day for Chandler, who is too shocked to respond favorably after accidentally viewing the wrong videotape.16. The One Where Joey Tells Rachel21mGuilt-ridden Joey confesses his love for Rachel to the flabbergasted Ross. Phoebe's new boyfriend shares numerous personality traits with Monica.17. The One with the Tea Leaves22mFeeling awkward after revealing his feelings to Rachel, Joey avoids contact with her. Phoebe believes she will soon meet the man of her dreams.18. The One in Massapequa22mMonica must give a toast at a 35th wedding anniversary party for her parents. Jack and Judy ask Ross and Rachel to pretend to be married at the party.19. The One with Joey's Interview22mJoey is thrilled when his name is used in a Soap Opera Digest crossword puzzle, yet he is reluctant to let the magazine do a profile about him.20. The One with the Baby Shower22mRachel panics during a party in anticipation of her baby's birth when she realizes how unprepared she is to care for an infant.21. The One with the Cooking Class22mMonica tries to sway a food critic's opinion. Nervous about a major job interview, Chandler receives some questionable coaching from Phoebe.22. The One Where Rachel Is Late22mWhen Rachel's pregnancy goes beyond her projected delivery date, the pain makes Rachel increasingly irritable.23. The One Where Rachel Has a Baby: Part 122mRachel waits in the hospital maternity ward with Ross, as numerous other pregnant women are wheeled in while Rachel's painful labor continues.24. The One Where Rachel Has a Baby: Part 222mRachel gives birth to a beautiful girl, and Ross kisses Rachel. Both hiding their feelings, they wonder how to proceed., Release Year: 2001, 1. The One After I Do22mMonica and Chandler's wedding reception is almost upstaged by the news that Rachel is pregnant.2. The One with the Red Sweater22mAs they prepare to leave the wedding hotel, an excited Monica and Phoebe speculate about who might be the father of pregnant Rachel's baby.3. The One Where Rachel Tells ...22mEveryone seems to know who the father of Rachel's unborn baby is except for the man himself: Ross.4. The One with the Videotape22mRoss and Rachel try to explain how they ended up in bed together six weeks earlier, but the conversation quickly devolves into an argument.5. The One with Rachel's Date22mRoss is horrified to learn that Rachel is going on a date with a handsome actor, especially since she is pregnant with Ross' child.6. The One with the Halloween Party22mAt Monica's Halloween party, Phoebe becomes attracted to Eric, the friendly fiancé of her flighty twin, Ursula.7. The One with the Stain22mRoss is happy to learn that pregnant Rachel wants to find her own apartment. Phoebe is ecstatic that Eric has chosen her over her twin sister, Ursula.8. The One with the Stripper22mRachel nervously tells her short-tempered father that she is pregnant with Ross' baby. Monica feels guilty for denying Chandler a bachelor party.9. The One with the Rumor22mMonica invites Will, her high school friend, over for Thanksgiving dinner -- unaware that he isn't too fond of Rachel.10. The One with Monica's Boots22mChandler becomes upset when Monica spends a fortune on a luxurious pair of black boots. Phoebe tries to meet Sting.11. The One with the Creepy Holiday Card22mRoss becomes nervous when his new girlfriend, Mona, wants to mail cute Christmas cards with both of their pictures on it.12. The One Where Joey Dates Rachel22mIn order to prepare Joey for his big date the following night, Rachel eagerly agrees to accompany him for an evening out.13. The One Where Chandler Takes a Bath22mAs Joey agonizes over his secret affection for Rachel, Monica mistakenly thinks that he is infatuated with Phoebe.14. The One with the Secret Closet22mJoey realizes that his feelings for Rachel are excluding Ross from the joys of impending fatherhood. Chandler is obsessed with Monica's locked closet.15. The One with the Birthing Video22mMonica prepares a special Valentine's Day for Chandler, who is too shocked to respond favorably after accidentally viewing the wrong videotape.16. The One Where Joey Tells Rachel21mGuilt-ridden Joey confesses his love for Rachel to the flabbergasted Ross. Phoebe's new boyfriend shares numerous personality traits with Monica.17. The One with the Tea Leaves22mFeeling awkward after revealing his feelings to Rachel, Joey avoids contact with her. Phoebe believes she will soon meet the man of her dreams.18. The One in Massapequa22mMonica must give a toast at a 35th wedding anniversary party for her parents. Jack and Judy ask Ross and Rachel to pretend to be married at the party.19. The One with Joey's Interview22mJoey is thrilled when his name is used in a Soap Opera Digest crossword puzzle, yet he is reluctant to let the magazine do a profile about him.20. The One with the Baby Shower22mRachel panics during a party in anticipation of her baby's birth when she realizes how unprepared she is to care for an infant.21. The One with the Cooking Class22mMonica tries to sway a food critic's opinion. Nervous about a major job interview, Chandler receives some questionable coaching from Phoebe.22. The One Where Rachel Is Late22mWhen Rachel's pregnancy goes beyond her projected delivery date, the pain makes Rachel increasingly irritable.23. The One Where Rachel Has a Baby: Part 122mRachel waits in the hospital maternity ward with Ross, as numerous other pregnant women are wheeled in while Rachel's painful labor continues.24. The One Where Rachel Has a Baby: Part 222mRachel gives birth to a beautiful girl, and Ross kisses Rachel. Both hiding their feelings, they wonder how to proceed., Release Year: 2002Rachel finds herself surprisingly adept at taking care of Emma but struggles to define her complicated relationships with Joey and Ross.1. The One Where No One Proposes23mBecause of a misunderstanding, Rachel finds herself engaged to Joey instead of Ross, who was planning to propose.2. The One Where Emma Cries23mSomebody ends up in the hospital when Joey attempts to apologize to Ross for mistakenly asking Rachel to marry him.3. The One with the Pediatrician23mRachel's constant calls to Emma's pediatrician force him to reject her as a patient.4. The One with the Sharks23mPhoebe fears losing Mike, and her self-doubt is exacerbated by Ross' foolish comments.5. The One with Phoebe's Birthday Dinner23mRachel is afraid to leave Emma with a babysitter.6. The One with the Male Nanny32mRoss jealously mocks Rachel's choice of an oversensitive male nanny for Emma.7. The One with Ross' Inappropriate Song23mWhen Chandler's former romantic rival decides to sell his apartment, Chandler persuades Joey to help him inspect it on the sly.8. The One with Rachel's Other Sister25mRachel's self-centered younger sister, Amy, ruins everyone's Thanksgiving dinner with her uncensored observations.9. The One with Rachel's Phone Number23mWhile on a night out with Phoebe, Rachel impulsively gives her telephone number to a handsome restaurant patron.10. The One with Christmas in Tulsa23mBecause of a critical deadline at work, Chandler is stuck spending Christmas in Tulsa, Okla.11. The One Where Rachel Goes Back to Work23mWhile visiting her workplace to show off baby Emma, Rachel is surprised to find a handsome temp who's been doing her job.12. The One with Phoebe's Rats23mRachel is irritated to learn that her handsome workplace rival has been invited to her birthday party.13. The One Where Monica Sings31mWhile Rachel sorts out her conflicted feelings for Gavin, Ross sets out to make her jealous, enlisting Chandler to help him meet attractive women.14. The One with the Blind Dates23mIn an attempt to reunite Rachel and Ross, Joey and Phoebe arrange awful blind dates for both of them.15. The One with the Mugging23mJoey develops an unusual acting method to impress a famous fellow actor. Meanwhile, Chandler accepts an internship at an advertising agency.16. The One with the Boob Job23mPhoebe asks Mike to move in with her, but coming so close to married life may cause trouble in their relationship.17. The One with the Memorial Service24mWhen Chandler jokingly posts an outrageous biography about Ross on his college alumni Web site, Ross retaliates.18. The One with the Lottery23mHoping to win a huge jackpot, the friends pool their money and buy dozens of lottery tickets.19. The One with Rachel's Dream24mNervous because his daytime-drama role requires him to act as if he's deeply in love with a woman, Joey rehearses with Rachel.20. The One with the Soap Opera Party24mRoss is excited when he meets fellow paleontologist Charlie Wheeler, who's a stunning beauty.21. The One with the Fertility Test27mRoss is in agony because Charlie is dating Joey. Meanwhile, Chandler and Monica visit a fertility clinic.22. The One with the Donor25mDisappointed to learn that they can't conceive a baby naturally, Monica and Chandler consider their options.23. The One in Barbados: Part 121mRoss is slated to deliver a keynote address at a paleontologists' convention in Barbados.24. The One in Barbados: Part 221mMonica and Mike take part in an extremely competitive, marathon pingpong match., Release Year: 2002, 1. The One Where No One Proposes23mBecause of a misunderstanding, Rachel finds herself engaged to Joey instead of Ross, who was planning to propose.2. The One Where Emma Cries23mSomebody ends up in the hospital when Joey attempts to apologize to Ross for mistakenly asking Rachel to marry him.3. The One with the Pediatrician23mRachel's constant calls to Emma's pediatrician force him to reject her as a patient.4. The One with the Sharks23mPhoebe fears losing Mike, and her self-doubt is exacerbated by Ross' foolish comments.5. The One with Phoebe's Birthday Dinner23mRachel is afraid to leave Emma with a babysitter.6. The One with the Male Nanny32mRoss jealously mocks Rachel's choice of an oversensitive male nanny for Emma.7. The One with Ross' Inappropriate Song23mWhen Chandler's former romantic rival decides to sell his apartment, Chandler persuades Joey to help him inspect it on the sly.8. The One with Rachel's Other Sister25mRachel's self-centered younger sister, Amy, ruins everyone's Thanksgiving dinner with her uncensored observations.9. The One with Rachel's Phone Number23mWhile on a night out with Phoebe, Rachel impulsively gives her telephone number to a handsome restaurant patron.10. The One with Christmas in Tulsa23mBecause of a critical deadline at work, Chandler is stuck spending Christmas in Tulsa, Okla.11. The One Where Rachel Goes Back to Work23mWhile visiting her workplace to show off baby Emma, Rachel is surprised to find a handsome temp who's been doing her job.12. The One with Phoebe's Rats23mRachel is irritated to learn that her handsome workplace rival has been invited to her birthday party.13. The One Where Monica Sings31mWhile Rachel sorts out her conflicted feelings for Gavin, Ross sets out to make her jealous, enlisting Chandler to help him meet attractive women.14. The One with the Blind Dates23mIn an attempt to reunite Rachel and Ross, Joey and Phoebe arrange awful blind dates for both of them.15. The One with the Mugging23mJoey develops an unusual acting method to impress a famous fellow actor. Meanwhile, Chandler accepts an internship at an advertising agency.16. The One with the Boob Job23mPhoebe asks Mike to move in with her, but coming so close to married life may cause trouble in their relationship.17. The One with the Memorial Service24mWhen Chandler jokingly posts an outrageous biography about Ross on his college alumni Web site, Ross retaliates.18. The One with the Lottery23mHoping to win a huge jackpot, the friends pool their money and buy dozens of lottery tickets.19. The One with Rachel's Dream24mNervous because his daytime-drama role requires him to act as if he's deeply in love with a woman, Joey rehearses with Rachel.20. The One with the Soap Opera Party24mRoss is excited when he meets fellow paleontologist Charlie Wheeler, who's a stunning beauty.21. The One with the Fertility Test27mRoss is in agony because Charlie is dating Joey. Meanwhile, Chandler and Monica visit a fertility clinic.22. The One with the Donor25mDisappointed to learn that they can't conceive a baby naturally, Monica and Chandler consider their options.23. The One in Barbados: Part 121mRoss is slated to deliver a keynote address at a paleontologists' convention in Barbados.24. The One in Barbados: Part 221mMonica and Mike take part in an extremely competitive, marathon pingpong match., Release Year: 2003The touching final season of this Emmy-winning sitcom wraps up the stories of the Manhattan sextet, including Ross and Rachel's on-and-off romance.1. The One After Joey and Rachel Kiss29mRoss has kissed Charlie although she is still officially dating Joey. Joey and Rachel have kissed as well, but they agonize over how to tell Ross.2. The One Where Ross Is Fine24mRachel, Joey and Charlie attend an uncomfortable dinner party at Ross's apartment. Former surrogate mother Phoebe is visited by her brother, Frank Jr.3. The One with Ross's Tan24mMonica and Phoebe's annoying friend visits, causing a rift between the women. Ross goes to a tanning salon but fails to follow the directions.4. The One with the Cake23mWhen Ross dashes out to help Rachel for Emma's birthday party, he leaves Joey in charge of keeping everybody in the apartment until they return.5. The One Where Rachel's Sister Babysits28mRachel thinks her annoying, self-indulgent younger sister, Amy, is finally on the verge of making a major change in her attitude.6. The One with Ross's Grant24mRoss has the chance to receive a grant, but must break up with Charlie to get it. Phoebe tries to give a hideous painting to Monica and Rachel.7. The One with The Home Study23mPhoebe and Mike opt to have a small wedding and donate the extra money to a children's charity -- only to demand it all back later.8. The One with the Late Thanksgiving23mMonica prepares a fabulous Thanksgiving feast for the gang, but she becomes furious when everyone arrives late to the gathering.9. The One with the Birth Mother25mNervous and excited, Monica and Chandler travel to Ohio to meet a pregnant woman who is considering allowing them to adopt her child when it's born.10. The One Where Chandler Gets Caught23mWhen Phoebe and Rachel see Chandler getting into a car with a pretty woman during work hours, they follow him.11. The One Where the Stripper Cries27mJoey appears as a celebrity contestant on "The $100,000 Pyramid," but his dubious IQ puts his partner's prize money at risk.12. The One with Phoebe's Wedding30mPhoebe's wedding planner, Monica, is driving everyone around her crazy. Chandler and Ross lobby Rachel to choose one of them as a groomsman.13. The One Where Joey Speaks French24mMonica and Chandler show Erica, the mother of the unborn baby they want to adopt, the sights of New York. Joey implores Phoebe to teach him French.14. The One with Princess Consuela23mRachel nearly gags on her meal when she goes on a job interview at a restaurant and sits next to her current boss. Phoebe considers changing her name.15. The One Where Estelle Dies23mWhen Rachel makes a startling announcement, Ross schemes to get her former job back for her. Joey is flustered by the upheaval in his friends' lives.16. The One with Rachel's Going Away Party23mAs Rachel prepares to leave for Paris, the gang hosts a farewell party for her. But one friend is offended when he is excluded.17. The Last One: Part 1 &amp; Part 248mOn their last day together, Rachel, Monica, Phoebe, Joey, Chandler and Ross reflect on their shared times with bittersweet emotion., Release Year: 2003, 1. The One After Joey and Rachel Kiss29mRoss has kissed Charlie although she is still officially dating Joey. Joey and Rachel have kissed as well, but they agonize over how to tell Ross.2. The One Where Ross Is Fine24mRachel, Joey and Charlie attend an uncomfortable dinner party at Ross's apartment. Former surrogate mother Phoebe is visited by her brother, Frank Jr.3. The One with Ross's Tan24mMonica and Phoebe's annoying friend visits, causing a rift between the women. Ross goes to a tanning salon but fails to follow the directions.4. The One with the Cake23mWhen Ross dashes out to help Rachel for Emma's birthday party, he leaves Joey in charge of keeping everybody in the apartment until they return.5. The One Where Rachel's Sister Babysits28mRachel thinks her annoying, self-indulgent younger sister, Amy, is finally on the verge of making a major change in her attitude.6. The One with Ross's Grant24mRoss has the chance to receive a grant, but must break up with Charlie to get it. Phoebe tries to give a hideous painting to Monica and Rachel.7. The One with The Home Study23mPhoebe and Mike opt to have a small wedding and donate the extra money to a children's charity -- only to demand it all back later.8. The One with the Late Thanksgiving23mMonica prepares a fabulous Thanksgiving feast for the gang, but she becomes furious when everyone arrives late to the gathering.9. The One with the Birth Mother25mNervous and excited, Monica and Chandler travel to Ohio to meet a pregnant woman who is considering allowing them to adopt her child when it's born.10. The One Where Chandler Gets Caught23mWhen Phoebe and Rachel see Chandler getting into a car with a pretty woman during work hours, they follow him.11. The One Where the Stripper Cries27mJoey appears as a celebrity contestant on "The $100,000 Pyramid," but his dubious IQ puts his partner's prize money at risk.12. The One with Phoebe's Wedding30mPhoebe's wedding planner, Monica, is driving everyone around her crazy. Chandler and Ross lobby Rachel to choose one of them as a groomsman.13. The One Where Joey Speaks French24mMonica and Chandler show Erica, the mother of the unborn baby they want to adopt, the sights of New York. Joey implores Phoebe to teach him French.14. The One with Princess Consuela23mRachel nearly gags on her meal when she goes on a job interview at a restaurant and sits next to her current boss. Phoebe considers changing her name.15. The One Where Estelle Dies23mWhen Rachel makes a startling announcement, Ross schemes to get her former job back for her. Joey is flustered by the upheaval in his friends' lives.16. The One with Rachel's Going Away Party23mAs Rachel prepares to leave for Paris, the gang hosts a farewell party for her. But one friend is offended when he is excluded.17. The Last One: Part 1 &amp; Part 248mOn their last day together, Rachel, Monica, Phoebe, Joey, Chandler and Ross reflect on their shared times with bittersweet emotion.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sam's frequent tantrums turn sinister when a creepy children's book mysteriously appears in his room, and he asks his mother, "Do you want to die?"</t>
+  </si>
+  <si>
+    <t>This biopic profiles J. Edgar Hoover, who pushed the envelope professionally and led a complex personal life over nearly 50 years as head of the FBI.</t>
+  </si>
+  <si>
+    <t>When a young swain recruits pirate Capt. Jack Sparrow to help rescue a maiden from rival buccaneers, he finds he's up against supernatural forces.</t>
+  </si>
+  <si>
     <t>Thrillers, Psychological Thrillers, Political Thrillers</t>
   </si>
   <si>
@@ -341,6 +578,36 @@
     <t>Cult Movies, Cult Horror Movies, Horror Movies, Slasher and Serial Killer Movies, Teen Screams</t>
   </si>
   <si>
+    <t>TV Shows, TV Dramas</t>
+  </si>
+  <si>
+    <t>TV Shows, Romantic TV Shows, TV Comedies</t>
+  </si>
+  <si>
+    <t>Documentaries, Science &amp; Nature Docs</t>
+  </si>
+  <si>
+    <t>Dramas, Independent Dramas, Independent Movies, Sci-Fi &amp; Fantasy, Sci-Fi Dramas</t>
+  </si>
+  <si>
+    <t>TV Shows, Crime TV Shows, TV Dramas, Courtroom TV Dramas, Crime TV Dramas</t>
+  </si>
+  <si>
+    <t>Action &amp; Adventure, Adventures, Comic Book and Superhero Movies, Sci-Fi &amp; Fantasy, Action Sci-Fi &amp; Fantasy, Sci-Fi Adventure</t>
+  </si>
+  <si>
+    <t>TV Shows, International TV Shows, Miniseries, TV Comedies, TV Dramas, TV Dramedies</t>
+  </si>
+  <si>
+    <t>Thrillers, Independent Thrillers, Psychological Thrillers, Supernatural Thrillers, Horror Movies, Supernatural Horror Movies, Independent Movies, Australian Movies</t>
+  </si>
+  <si>
+    <t>Dramas, Biographical Dramas, Crime Dramas, Dramas based on Real Life, 20th Century Period Pieces, Political Dramas</t>
+  </si>
+  <si>
+    <t>Action &amp; Adventure, Action Comedies, Adventures, Disney, Comedies</t>
+  </si>
+  <si>
     <t>Jonathan Demme</t>
   </si>
   <si>
@@ -365,6 +632,24 @@
     <t>Wes Craven</t>
   </si>
   <si>
+    <t>Jeff Orlowski</t>
+  </si>
+  <si>
+    <t>Michael Polish</t>
+  </si>
+  <si>
+    <t>Anthony Russo, Joe Russo</t>
+  </si>
+  <si>
+    <t>Jennifer Kent</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Gore Verbinski</t>
+  </si>
+  <si>
     <t>Denzel Washington, Meryl Streep, Liev Schreiber</t>
   </si>
   <si>
@@ -404,6 +689,36 @@
     <t>Neve Campbell, David Arquette, Courteney Cox</t>
   </si>
   <si>
+    <t>Kevin Spacey, Robin Wright, Kate Mara</t>
+  </si>
+  <si>
+    <t>Keegan-Michael Key, Cobie Smulders, Billy Eichner</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton, Virginia Madsen, Bruce Dern</t>
+  </si>
+  <si>
+    <t>Felicity Huffman, Timothy Hutton, Elvis Nolasco</t>
+  </si>
+  <si>
+    <t>Chris Evans, Robert Downey Jr., Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>Jennifer Aniston, Courteney Cox, Lisa Kudrow</t>
+  </si>
+  <si>
+    <t>Camille Cottin, Thibault De Montalembert, Grégory Montel</t>
+  </si>
+  <si>
+    <t>Essie Davis, Noah Wiseman, Hayley McElhinney</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Naomi Watts, Judi Dench</t>
+  </si>
+  <si>
+    <t>Johnny Depp, Geoffrey Rush, Orlando Bloom</t>
+  </si>
+  <si>
     <t>Peter Morgan</t>
   </si>
   <si>
@@ -425,6 +740,21 @@
     <t>Jill E. Blotevogel, Jay Beattie, Dan Dworkin</t>
   </si>
   <si>
+    <t>Beau Willimon</t>
+  </si>
+  <si>
+    <t>Nicholas Stoller, Francesca Delbanco</t>
+  </si>
+  <si>
+    <t>John Ridley</t>
+  </si>
+  <si>
+    <t>David Crane, Marta Kauffman</t>
+  </si>
+  <si>
+    <t>Fanny Herrero</t>
+  </si>
+  <si>
     <t>1. Wolferton Splash, 2. Hyde Park Corner, 3. Windsor, 4. Act of God, 5. Smoke and Mirrors, 6. Gelignite, 7. Scientia Potentia Est, 8. Pride &amp; Joy, 9. Assassins, 10. Gloriana</t>
   </si>
   <si>
@@ -452,6 +782,21 @@
     <t>1. Pilot, 2. Hello, Emma, 3. Wanna Play a Game?, 4. Aftermath, 5. Exposed, 6. Betrayed, 7. In the Trenches, 8. Ghosts, 9. The Dance, 10. Revelations, 1. I Know What You Did Last Summer, 2. Psycho, 3. Vacancy, 4. Happy Birthday to Me, 5. Dawn of the Dead, 6. Jeepers Creepers, 7. Let The Right One In, 8. Village of the Damned, 9. The Orphanage, 10. The Vanishing, 11. Heavenly Creatures, 12. When a Stranger Calls, 13. Finale: Halloween / Halloween II</t>
   </si>
   <si>
+    <t>1. Chapter 1, 2. Chapter 2, 3. Chapter 3, 4. Chapter 4, 5. Chapter 5, 6. Chapter 6, 7. Chapter 7, 8. Chapter 8, 9. Chapter 9, 10. Chapter 10, 11. Chapter 11, 12. Chapter 12, 13. Chapter 13, 1. Chapter 14, 2. Chapter 15, 3. Chapter 16, 4. Chapter 17, 5. Chapter 18, 6. Chapter 19, 7. Chapter 20, 8. Chapter 21, 9. Chapter 22, 10. Chapter 23, 11. Chapter 24, 12. Chapter 25, 13. Chapter 26, 1. Chapter 27, 2. Chapter 28, 3. Chapter 29, 4. Chapter 30, 5. Chapter 31, 6. Chapter 32, 7. Chapter 33, 8. Chapter 34, 9. Chapter 35, 10. Chapter 36, 11. Chapter 37, 12. Chapter 38, 13. Chapter 39, 1. Chapter 40, 2. Chapter 41, 3. Chapter 42, 4. Chapter 43, 5. Chapter 44, 6. Chapter 45, 7. Chapter 46, 8. Chapter 47, 9. Chapter 48, 10. Chapter 49, 11. Chapter 50, 12. Chapter 51, 13. Chapter 52, 1. Chapter 53, 2. Chapter 54, 3. Chapter 55, 4. Chapter 56, 5. Chapter 57, 6. Chapter 58, 7. Chapter 59, 8. Chapter 60, 9. Chapter 61, 10. Chapter 62, 11. Chapter 63, 12. Chapter 64, 13. Chapter 65</t>
+  </si>
+  <si>
+    <t>1. Welcome to New York, 2. Connecticut House, 3. All-Nighter, 4. Mission Impossible, 5. Party Bus, 6. Second Wedding, 7. Grand Cayman, 8. A Night of Surprises</t>
+  </si>
+  <si>
+    <t>1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8, 9. Episode 9, 10. Episode 10, 11. Episode 11, 1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8, 9. Episode 9, 10. Episode 10, 1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8</t>
+  </si>
+  <si>
+    <t>1. The One Where Monica Gets a Roommate (Pilot), 2. The One with the Sonogram at the End, 3. The One with the Thumb, 4. The One with George Stephanopoulos, 5. The One with the East German Laundry Detergent, 6. The One with the Butt, 7. The One with the Blackout, 8. The One Where Nana Dies Twice, 9. The One Where Underdog Gets Away, 10. The One with the Monkey, 11. The One with Mrs. Bing, 12. The One with the Dozen Lasagnas, 13. The One with the Boobies, 14. The One with the Candy Hearts, 15. The One with the Stoned Guy, 16. The One with the Two Parts: Part 1, 17. The One with the Two Parts: Part 2, 18. The One with All the Poker, 19. The One Where the Monkey Gets Away, 20. The One with the Evil Orthodontist, 21. The One with the Fake Monica, 22. The One with the Ick Factor, 23. The One with the Birth, 24. The One Where Rachel Finds Out, 1. The One with Ross's New Girlfriend, 2. The One with the Breast Milk, 3. The One Where Heckles Dies, 4. The One with Phoebe's Husband, 5. The One with Five Steaks and an Eggplant, 6. The One with the Baby on the Bus, 7. The One Where Ross Finds Out, 8. The One with the List, 9. The One with Phoebe's Dad, 10. The One with Russ, 11. The One with the Lesbian Wedding, 12. The One After the Super Bowl: Part 1, 13. The One After the Super Bowl: Part 2, 14. The One with the Prom Video, 15. The One Where Ross and Rachel...You Know, 16. The One Where Joey Moves Out, 17. The One Where Eddie Moves In, 18. The One Where Dr. Ramoray Dies, 19. The One Where Eddie Won't Go, 20. The One Where Old Yeller Dies, 21. The One with the Bullies, 22. The One with the Two Parties, 23. The One with the Chicken Pox, 24. The One with Barry and Mindy's Wedding, 1. The One with the Princess Leia Fantasy, 2. The One Where No One's Ready, 3. The One with the Jam, 4. The One with the Metaphorical Tunnel, 5. The One with Frank Jr, 6. The One with the Flashback, 7. The One with the Race Car Bed, 8. The One with the Giant Poking Device, 9. The One with the Football, 10. The One Where Rachel Quits, 11. The One Where Chandler Can't Remember Which Sister, 12. The One with All the Jealousy, 13. The One Where Monica &amp; Richard Are Just Friends, 14. The One with Phoebe's Ex-Partner, 15. The One Where Ross &amp; Rachel Take a Break, 16. The One The Morning After, 17. The One Without the Ski Trip, 18. The One with the Hypnosis Tape, 19. The One with the Tiny T-Shirt, 20. The One with the Dollhouse, 21. The One with a Chick. And a Duck, 22. The One with the Screamer, 23. The One with Ross's Thing, 24. The One with the Ultimate Fighting Champion, 25. The One at the Beach, 1. The One with the Jellyfish, 2. The One with the Cat, 3. The One with the 'Cuffs, 4. The One with the Ballroom Dancing, 5. The One with Joey's New Girlfriend, 6. The One with the Dirty Girl, 7. The One Where Chandler Crosses the Line, 8. The One with Chandler in a Box, 9. The One Where They're Going to Party, 10. The One with the Girl from Poughkeepsie, 11. The One with Phoebe's Uterus, 12. The One with the Embryos, 13. The One with Rachel's Crush, 14. The One with Joey's Dirty Day, 15. The One with All the Rugby, 16. The One with the Fake Party, 17. The One with the Free Porn, 18. The One with Rachel's New Dress, 19. The One with All the Haste, 20. The One with the Wedding Dresses, 21. The One with the Invitation, 22. The One with the Worst Best Man Ever, 23. The One with Ross's Wedding: Part 1, 24. The One with Ross's Wedding: Part 2, 1. The One After Ross Says Rachel, 2. The One with All the Kissing, 3. The One Hundredth, 4. The One Where Phoebe Hates PBS, 5. The One with the Kips, 6. The One with the Yeti, 7. The One Where Ross Moves In, 8. The One with All the Thanksgivings, 9. The One with Ross's Sandwich, 10. The One with the Inappropriate Sister, 11. The One with All the Resolutions, 12. The One with Chandler's Work Laugh, 13. The One with Joey's Bag, 14. The One Where Everybody Finds Out, 15. The One with the Girl Who Hits Joey, 16. The One with the Cop, 17. The One with Rachel's Inadvertent Kiss, 18. The One Where Rachel Smokes, 19. The One Where Ross Can't Flirt, 20. The One with the Ride-Along, 21. The One with the Ball, 22. The One with Joey's Big Break, 23. The One in Vegas: Part 1, 24. The One in Vegas: Part 2, 1. The One After Vegas, 2. The One Where Ross Hugs Rachel, 3. The One with Ross's Denial, 4. The One Where Joey Loses His Insurance, 5. The One with Joey's Porsche, 6. The One on the Last Night, 7. The One Where Phoebe Runs, 8. The One with Ross's Teeth, 9. The One Where Ross Got High, 10. The One with the Routine, 11. The One with the Apothecary Table, 12. The One with the Joke, 13. The One with Rachel's Sister, 14. The One Where Chandler Can't Cry, 15. The One That Could Have Been: Part 1, 16. The One That Could Have Been: Part 2, 17. The One with Unagi, 18. The One Where Ross Dates a Student, 19. The One with Joey's Fridge, 20. The One with Mac and C.H.E.E.S.E, 21. The One Where Ross Meets Elizabeth's Dad, 22. The One Where Paul's the Man, 23. The One with the Ring, 24. The One with the Proposal: Part 1, 25. The One with the Proposal: Part 2, 1. The One with Monica's Thunder, 2. The One with Rachel's Book, 3. The One with Phoebe's Cookies, 4. The One with Rachel's Assistant, 5. The One with the Engagement Picture, 6. The One with the Nap Partners, 7. The One with Ross' Library Book, 8. The One Where Chandler Doesn't Like Dogs, 9. The One with All the Candy, 10. The One with the Holiday Armadillo, 11. The One with All the Cheesecakes, 12. The One Where They're Up All Night, 13. The One Where Rosita Dies, 14. The One Where They All Turn Thirty, 15. The One with Joey's New Brain, 16. The One with the Truth About London, 17. The One with the Cheap Wedding Dress, 18. The One with Joey's Award, 19. The One with Ross and Monica's Cousin, 20. The One with Rachel's Big Kiss, 21. The One with the Vows, 22. The One with Chandler's Dad, 23. The One with Chandler and Monica's Wedding: Part 1, 24. The One with Chandler and Monica's Wedding: Part 2, 1. The One After I Do, 2. The One with the Red Sweater, 3. The One Where Rachel Tells ..., 4. The One with the Videotape, 5. The One with Rachel's Date, 6. The One with the Halloween Party, 7. The One with the Stain, 8. The One with the Stripper, 9. The One with the Rumor, 10. The One with Monica's Boots, 11. The One with the Creepy Holiday Card, 12. The One Where Joey Dates Rachel, 13. The One Where Chandler Takes a Bath, 14. The One with the Secret Closet, 15. The One with the Birthing Video, 16. The One Where Joey Tells Rachel, 17. The One with the Tea Leaves, 18. The One in Massapequa, 19. The One with Joey's Interview, 20. The One with the Baby Shower, 21. The One with the Cooking Class, 22. The One Where Rachel Is Late, 23. The One Where Rachel Has a Baby: Part 1, 24. The One Where Rachel Has a Baby: Part 2, 1. The One Where No One Proposes, 2. The One Where Emma Cries, 3. The One with the Pediatrician, 4. The One with the Sharks, 5. The One with Phoebe's Birthday Dinner, 6. The One with the Male Nanny, 7. The One with Ross' Inappropriate Song, 8. The One with Rachel's Other Sister, 9. The One with Rachel's Phone Number, 10. The One with Christmas in Tulsa, 11. The One Where Rachel Goes Back to Work, 12. The One with Phoebe's Rats, 13. The One Where Monica Sings, 14. The One with the Blind Dates, 15. The One with the Mugging, 16. The One with the Boob Job, 17. The One with the Memorial Service, 18. The One with the Lottery, 19. The One with Rachel's Dream, 20. The One with the Soap Opera Party, 21. The One with the Fertility Test, 22. The One with the Donor, 23. The One in Barbados: Part 1, 24. The One in Barbados: Part 2, 1. The One After Joey and Rachel Kiss, 2. The One Where Ross Is Fine, 3. The One with Ross's Tan, 4. The One with the Cake, 5. The One Where Rachel's Sister Babysits, 6. The One with Ross's Grant, 7. The One with The Home Study, 8. The One with the Late Thanksgiving, 9. The One with the Birth Mother, 10. The One Where Chandler Gets Caught, 11. The One Where the Stripper Cries, 12. The One with Phoebe's Wedding, 13. The One Where Joey Speaks French, 14. The One with Princess Consuela, 15. The One Where Estelle Dies, 16. The One with Rachel's Going Away Party, 17. The Last One: Part 1 &amp; Part 2</t>
+  </si>
+  <si>
+    <t>1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6</t>
+  </si>
+  <si>
     <t>tt0368008</t>
   </si>
   <si>
@@ -501,6 +846,39 @@
   </si>
   <si>
     <t>tt0117571</t>
+  </si>
+  <si>
+    <t>tt1856010</t>
+  </si>
+  <si>
+    <t>tt5565334</t>
+  </si>
+  <si>
+    <t>tt6333054</t>
+  </si>
+  <si>
+    <t>tt0469263</t>
+  </si>
+  <si>
+    <t>tt2788432</t>
+  </si>
+  <si>
+    <t>tt3498820</t>
+  </si>
+  <si>
+    <t>tt0108778</t>
+  </si>
+  <si>
+    <t>tt0108872</t>
+  </si>
+  <si>
+    <t>tt2321549</t>
+  </si>
+  <si>
+    <t>tt1616195</t>
+  </si>
+  <si>
+    <t>tt0325980</t>
   </si>
   <si>
     <t>Movie</t>
@@ -604,31 +982,31 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
@@ -637,10 +1015,10 @@
         <v>#N/A</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
@@ -648,31 +1026,31 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="K3" t="e">
         <v>#N/A</v>
@@ -681,10 +1059,10 @@
         <v>#N/A</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="N3" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -692,28 +1070,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="J4" t="e">
         <v>#N/A</v>
@@ -725,10 +1103,10 @@
         <v>#N/A</v>
       </c>
       <c r="M4" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -736,43 +1114,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="I5" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="L5" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -780,43 +1158,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="I6" t="e">
         <v>#N/A</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="N6" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
@@ -824,25 +1202,25 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="I7" t="e">
         <v>#N/A</v>
@@ -854,13 +1232,13 @@
         <v>#N/A</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="M7" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="N7" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
@@ -868,31 +1246,31 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="K8" t="e">
         <v>#N/A</v>
@@ -901,10 +1279,10 @@
         <v>#N/A</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -912,43 +1290,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="I9" t="e">
         <v>#N/A</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="L9" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M9" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="N9" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -956,43 +1334,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="I10" t="e">
         <v>#N/A</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="L10" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="N10" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1000,25 +1378,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="I11" t="e">
         <v>#N/A</v>
@@ -1030,13 +1408,13 @@
         <v>#N/A</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="N11" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -1044,43 +1422,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="I12" t="e">
         <v>#N/A</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="M12" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="N12" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
@@ -1088,31 +1466,31 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="K13" t="e">
         <v>#N/A</v>
@@ -1121,10 +1499,10 @@
         <v>#N/A</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14">
@@ -1132,31 +1510,31 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
@@ -1165,10 +1543,10 @@
         <v>#N/A</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15">
@@ -1176,28 +1554,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -1209,10 +1587,10 @@
         <v>#N/A</v>
       </c>
       <c r="M15" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16">
@@ -1220,43 +1598,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="I16" t="e">
         <v>#N/A</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="M16" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -1264,43 +1642,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="I17" t="e">
         <v>#N/A</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="M17" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -1308,43 +1686,615 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="s">
+        <v>277</v>
+      </c>
+      <c r="N18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" t="s">
+        <v>242</v>
+      </c>
+      <c r="L19" t="s">
+        <v>256</v>
+      </c>
+      <c r="M19" t="s">
+        <v>278</v>
+      </c>
+      <c r="N19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" t="s">
+        <v>257</v>
+      </c>
+      <c r="M20" t="s">
+        <v>279</v>
+      </c>
+      <c r="N20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="s">
+        <v>280</v>
+      </c>
+      <c r="N21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" t="s">
+        <v>281</v>
+      </c>
+      <c r="N22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
         <v>91</v>
       </c>
-      <c r="H18" t="s">
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>244</v>
+      </c>
+      <c r="L23" t="s">
+        <v>258</v>
+      </c>
+      <c r="M23" t="s">
+        <v>282</v>
+      </c>
+      <c r="N23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="s">
+        <v>283</v>
+      </c>
+      <c r="N24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>259</v>
+      </c>
+      <c r="M25" t="s">
+        <v>284</v>
+      </c>
+      <c r="N25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="s">
+        <v>284</v>
+      </c>
+      <c r="N27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s">
+        <v>285</v>
+      </c>
+      <c r="N28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="s">
+        <v>286</v>
+      </c>
+      <c r="N29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
         <v>108</v>
       </c>
-      <c r="I18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="s">
-        <v>162</v>
-      </c>
-      <c r="N18" t="s">
-        <v>163</v>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="s">
+        <v>287</v>
+      </c>
+      <c r="N30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" t="s">
+        <v>288</v>
+      </c>
+      <c r="N31" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
